--- a/Boardgamers em Portugal_BD.xlsx
+++ b/Boardgamers em Portugal_BD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizador\Documents\GitHub\BoardgamingPortugal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0EA4E0-6AD9-42D9-93A3-612819A6DA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6F0E65-8C06-42AF-8817-C541BA885442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRIADORES DE CONTEÚDO" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="710">
   <si>
     <t>Criadores de conteudo</t>
   </si>
@@ -1079,9 +1079,6 @@
   </si>
   <si>
     <t>https://open.spotify.com/show/5iJOTNws77TmouVAaX5x97?si=-m0XS1dOR-ag9Vbtna0KNw&amp;utm_source=copy-link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	⚠️ EM ACTUALIZAÇÃO ⚠️	</t>
   </si>
   <si>
     <t>Nome</t>
@@ -1941,9 +1938,6 @@
     <t>https://maps.app.goo.gl/XpvYdZNTFuxuNqbP8</t>
   </si>
   <si>
-    <t>EDITORAS</t>
-  </si>
-  <si>
     <t>http://www.mebo.pt/</t>
   </si>
   <si>
@@ -1978,15 +1972,6 @@
   </si>
   <si>
     <t>https://www.cardslabgames.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REDE BOARDGAME FRIENDLY </t>
-  </si>
-  <si>
-    <t>espaços (cafés, bares, pastelarias e afins) onde se reúnem e ocorrem actividades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  relacionadas com jogos de tabuleiro modernos (board games)</t>
   </si>
   <si>
     <t>ESPAÇOS</t>
@@ -2304,13 +2289,22 @@
   </si>
   <si>
     <t>18 a 20 de Outubro de 2024</t>
+  </si>
+  <si>
+    <t>Loja</t>
+  </si>
+  <si>
+    <t>Editora</t>
+  </si>
+  <si>
+    <t>Loja/Editora</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="50" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2537,42 +2531,8 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -2618,18 +2578,12 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="32">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor theme="8"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2771,18 +2725,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4A86E8"/>
-        <bgColor rgb="FF4A86E8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF6FA8DC"/>
         <bgColor rgb="FF6FA8DC"/>
       </patternFill>
@@ -2806,7 +2748,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2814,92 +2756,34 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2908,16 +2792,16 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2938,202 +2822,155 @@
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="27" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3354,7 +3191,7 @@
   </sheetPr>
   <dimension ref="A1:J1045"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
@@ -8402,11 +8239,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8421,1032 +8258,1017 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="44"/>
-      <c r="B1" s="83" t="s">
+      <c r="A1" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
+      <c r="B1" s="44" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>343</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>344</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>345</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>346</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>347</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
-        <v>342</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>343</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>344</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>345</v>
-      </c>
-      <c r="E2" s="46" t="s">
-        <v>346</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>347</v>
-      </c>
-      <c r="G2" s="46" t="s">
+      <c r="A2" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="H2" s="46" t="s">
-        <v>8</v>
-      </c>
+      <c r="B2" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
-        <v>349</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>350</v>
-      </c>
-      <c r="C3" s="49" t="s">
+      <c r="A3" s="46" t="s">
         <v>351</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
+      <c r="B3" s="47" t="s">
+        <v>352</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>353</v>
+      </c>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="47" t="s">
-        <v>352</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>353</v>
-      </c>
-      <c r="C4" s="49" t="s">
+      <c r="A4" s="46" t="s">
         <v>354</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
+      <c r="B4" s="49" t="s">
+        <v>355</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>356</v>
+      </c>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>356</v>
-      </c>
-      <c r="C5" s="49" t="s">
+      <c r="A5" s="46" t="s">
         <v>357</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
+      <c r="B5" s="49" t="s">
+        <v>358</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>359</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>360</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>362</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="47" t="s">
-        <v>358</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>359</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>360</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>361</v>
-      </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="50" t="s">
-        <v>362</v>
-      </c>
-      <c r="G6" s="48" t="s">
-        <v>363</v>
-      </c>
-      <c r="H6" s="48" t="s">
+      <c r="A6" s="46" t="s">
         <v>364</v>
       </c>
+      <c r="B6" s="47" t="s">
+        <v>365</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>366</v>
+      </c>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="47" t="s">
-        <v>365</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>366</v>
-      </c>
-      <c r="C7" s="49" t="s">
+      <c r="A7" s="46" t="s">
         <v>367</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
+      <c r="B7" s="47" t="s">
+        <v>368</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>369</v>
+      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="47" t="s">
-        <v>368</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>369</v>
-      </c>
-      <c r="C8" s="49" t="s">
+      <c r="A8" s="46" t="s">
         <v>370</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
+      <c r="B8" s="47" t="s">
+        <v>371</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>372</v>
+      </c>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="47" t="s">
-        <v>371</v>
-      </c>
-      <c r="B9" s="48" t="s">
+      <c r="A9" s="46" t="s">
+        <v>373</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>374</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>375</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>376</v>
+      </c>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="46" t="s">
+        <v>377</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>380</v>
+      </c>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="46" t="s">
+        <v>381</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>382</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>384</v>
+      </c>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="46" t="s">
+        <v>385</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>386</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>387</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>388</v>
+      </c>
+      <c r="E12" s="46"/>
+      <c r="F12" s="49" t="s">
+        <v>389</v>
+      </c>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="46" t="s">
+        <v>390</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>391</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>392</v>
+      </c>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>394</v>
+      </c>
+      <c r="C14" s="48" t="s">
         <v>372</v>
       </c>
-      <c r="C9" s="49" t="s">
-        <v>373</v>
-      </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="47" t="s">
-        <v>374</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>375</v>
-      </c>
-      <c r="C10" s="49" t="s">
-        <v>376</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>377</v>
-      </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="47" t="s">
-        <v>378</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>379</v>
-      </c>
-      <c r="C11" s="49" t="s">
-        <v>380</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>381</v>
-      </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="47" t="s">
-        <v>382</v>
-      </c>
-      <c r="B12" s="50" t="s">
+      <c r="D14" s="49" t="s">
+        <v>395</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>396</v>
+      </c>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="47" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="46" t="s">
+        <v>398</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>399</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="46" t="s">
+        <v>401</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>402</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>403</v>
+      </c>
+      <c r="E16" s="46"/>
+      <c r="F16" s="47" t="s">
+        <v>404</v>
+      </c>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="46" t="s">
+        <v>405</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>407</v>
+      </c>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="46" t="s">
+        <v>408</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>409</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>410</v>
+      </c>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="46" t="s">
+        <v>411</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>412</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>413</v>
+      </c>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="46" t="s">
+        <v>414</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>416</v>
+      </c>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="46" t="s">
+        <v>417</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>418</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>419</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>420</v>
+      </c>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="46" t="s">
+        <v>421</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>423</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>424</v>
+      </c>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="46" t="s">
+        <v>425</v>
+      </c>
+      <c r="B23" s="51" t="s">
+        <v>426</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>427</v>
+      </c>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="46" t="s">
+        <v>428</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>429</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>430</v>
+      </c>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="46" t="s">
+        <v>431</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>432</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>402</v>
+      </c>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="46" t="s">
+        <v>433</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>434</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>435</v>
+      </c>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="46" t="s">
+        <v>436</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>437</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>438</v>
+      </c>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="46" t="s">
+        <v>439</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>440</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>441</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>442</v>
+      </c>
+      <c r="E28" s="46"/>
+      <c r="F28" s="47" t="s">
+        <v>404</v>
+      </c>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="46" t="s">
+        <v>443</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>444</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>387</v>
+      </c>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="46" t="s">
+        <v>445</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>446</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>447</v>
+      </c>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="46" t="s">
+        <v>448</v>
+      </c>
+      <c r="B31" s="47" t="s">
+        <v>449</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="D31" s="49" t="s">
+        <v>451</v>
+      </c>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="46" t="s">
+        <v>452</v>
+      </c>
+      <c r="B32" s="47" t="s">
+        <v>453</v>
+      </c>
+      <c r="C32" s="48" t="s">
+        <v>454</v>
+      </c>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="46" t="s">
+        <v>455</v>
+      </c>
+      <c r="B33" s="47" t="s">
+        <v>456</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>457</v>
+      </c>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="46" t="s">
+        <v>458</v>
+      </c>
+      <c r="B34" s="47" t="s">
+        <v>459</v>
+      </c>
+      <c r="C34" s="48" t="s">
+        <v>460</v>
+      </c>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="46" t="s">
+        <v>461</v>
+      </c>
+      <c r="B35" s="47" t="s">
+        <v>462</v>
+      </c>
+      <c r="C35" s="48" t="s">
+        <v>463</v>
+      </c>
+      <c r="D35" s="46" t="s">
+        <v>464</v>
+      </c>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="46" t="s">
+        <v>465</v>
+      </c>
+      <c r="B36" s="47" t="s">
+        <v>466</v>
+      </c>
+      <c r="C36" s="48" t="s">
+        <v>467</v>
+      </c>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="46" t="s">
+        <v>468</v>
+      </c>
+      <c r="B37" s="49" t="s">
+        <v>469</v>
+      </c>
+      <c r="C37" s="48" t="s">
+        <v>470</v>
+      </c>
+      <c r="D37" s="46" t="s">
+        <v>471</v>
+      </c>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="46" t="s">
+        <v>472</v>
+      </c>
+      <c r="B38" s="47" t="s">
+        <v>473</v>
+      </c>
+      <c r="C38" s="48" t="s">
+        <v>474</v>
+      </c>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="46" t="s">
+        <v>475</v>
+      </c>
+      <c r="B39" s="47" t="s">
+        <v>476</v>
+      </c>
+      <c r="C39" s="48" t="s">
+        <v>470</v>
+      </c>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="46" t="s">
+        <v>477</v>
+      </c>
+      <c r="B40" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="C40" s="48" t="s">
         <v>383</v>
       </c>
-      <c r="C12" s="49" t="s">
-        <v>384</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>385</v>
-      </c>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="47" t="s">
-        <v>386</v>
-      </c>
-      <c r="B13" s="50" t="s">
-        <v>387</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>388</v>
-      </c>
-      <c r="D13" s="47" t="s">
-        <v>389</v>
-      </c>
-      <c r="E13" s="47"/>
-      <c r="F13" s="50" t="s">
-        <v>390</v>
-      </c>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="47" t="s">
-        <v>391</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>392</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>393</v>
-      </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="47" t="s">
-        <v>394</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>395</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>373</v>
-      </c>
-      <c r="D15" s="50" t="s">
-        <v>396</v>
-      </c>
-      <c r="E15" s="48" t="s">
-        <v>397</v>
-      </c>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="48" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="47" t="s">
-        <v>399</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>401</v>
-      </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="47" t="s">
-        <v>402</v>
-      </c>
-      <c r="B17" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>403</v>
-      </c>
-      <c r="D17" s="47" t="s">
-        <v>404</v>
-      </c>
-      <c r="E17" s="47"/>
-      <c r="F17" s="48" t="s">
-        <v>405</v>
-      </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="47" t="s">
-        <v>406</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>407</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>408</v>
-      </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="47" t="s">
-        <v>409</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>410</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>411</v>
-      </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="47" t="s">
-        <v>412</v>
-      </c>
-      <c r="B20" s="50" t="s">
+      <c r="D40" s="46" t="s">
+        <v>478</v>
+      </c>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="B41" s="49" t="s">
+        <v>259</v>
+      </c>
+      <c r="C41" s="48" t="s">
         <v>413</v>
       </c>
-      <c r="C20" s="49" t="s">
-        <v>414</v>
-      </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="47" t="s">
-        <v>415</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>416</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="47" t="s">
-        <v>418</v>
-      </c>
-      <c r="B22" s="48" t="s">
-        <v>419</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>420</v>
-      </c>
-      <c r="D22" s="47" t="s">
-        <v>421</v>
-      </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="47" t="s">
-        <v>422</v>
-      </c>
-      <c r="B23" s="51" t="s">
-        <v>423</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>424</v>
-      </c>
-      <c r="D23" s="50" t="s">
-        <v>425</v>
-      </c>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="47" t="s">
-        <v>426</v>
-      </c>
-      <c r="B24" s="52" t="s">
-        <v>427</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>428</v>
-      </c>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="47" t="s">
-        <v>429</v>
-      </c>
-      <c r="B25" s="48" t="s">
-        <v>430</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>431</v>
-      </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="47" t="s">
-        <v>432</v>
-      </c>
-      <c r="B26" s="48" t="s">
-        <v>433</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>403</v>
-      </c>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="47" t="s">
-        <v>434</v>
-      </c>
-      <c r="B27" s="48" t="s">
-        <v>435</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>436</v>
-      </c>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="47" t="s">
-        <v>437</v>
-      </c>
-      <c r="B28" s="48" t="s">
-        <v>438</v>
-      </c>
-      <c r="C28" s="49" t="s">
-        <v>439</v>
-      </c>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="47" t="s">
-        <v>440</v>
-      </c>
-      <c r="B29" s="48" t="s">
-        <v>441</v>
-      </c>
-      <c r="C29" s="49" t="s">
-        <v>442</v>
-      </c>
-      <c r="D29" s="47" t="s">
-        <v>443</v>
-      </c>
-      <c r="E29" s="47"/>
-      <c r="F29" s="48" t="s">
-        <v>405</v>
-      </c>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="47" t="s">
-        <v>444</v>
-      </c>
-      <c r="B30" s="48" t="s">
-        <v>445</v>
-      </c>
-      <c r="C30" s="49" t="s">
-        <v>388</v>
-      </c>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="47" t="s">
-        <v>446</v>
-      </c>
-      <c r="B31" s="48" t="s">
-        <v>447</v>
-      </c>
-      <c r="C31" s="49" t="s">
-        <v>448</v>
-      </c>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="47" t="s">
-        <v>449</v>
-      </c>
-      <c r="B32" s="48" t="s">
-        <v>450</v>
-      </c>
-      <c r="C32" s="49" t="s">
-        <v>451</v>
-      </c>
-      <c r="D32" s="50" t="s">
-        <v>452</v>
-      </c>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="47" t="s">
-        <v>453</v>
-      </c>
-      <c r="B33" s="48" t="s">
-        <v>454</v>
-      </c>
-      <c r="C33" s="49" t="s">
-        <v>455</v>
-      </c>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="47" t="s">
-        <v>456</v>
-      </c>
-      <c r="B34" s="48" t="s">
-        <v>457</v>
-      </c>
-      <c r="C34" s="49" t="s">
-        <v>458</v>
-      </c>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="47" t="s">
-        <v>459</v>
-      </c>
-      <c r="B35" s="48" t="s">
-        <v>460</v>
-      </c>
-      <c r="C35" s="49" t="s">
-        <v>461</v>
-      </c>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="47" t="s">
-        <v>462</v>
-      </c>
-      <c r="B36" s="48" t="s">
-        <v>463</v>
-      </c>
-      <c r="C36" s="49" t="s">
-        <v>464</v>
-      </c>
-      <c r="D36" s="47" t="s">
-        <v>465</v>
-      </c>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="47" t="s">
-        <v>466</v>
-      </c>
-      <c r="B37" s="48" t="s">
-        <v>467</v>
-      </c>
-      <c r="C37" s="49" t="s">
-        <v>468</v>
-      </c>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="47" t="s">
-        <v>469</v>
-      </c>
-      <c r="B38" s="50" t="s">
-        <v>470</v>
-      </c>
-      <c r="C38" s="49" t="s">
-        <v>471</v>
-      </c>
-      <c r="D38" s="47" t="s">
-        <v>472</v>
-      </c>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="47" t="s">
-        <v>473</v>
-      </c>
-      <c r="B39" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="C39" s="49" t="s">
-        <v>475</v>
-      </c>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="47" t="s">
-        <v>476</v>
-      </c>
-      <c r="B40" s="48" t="s">
-        <v>477</v>
-      </c>
-      <c r="C40" s="49" t="s">
-        <v>471</v>
-      </c>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="47" t="s">
-        <v>478</v>
-      </c>
-      <c r="B41" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="C41" s="49" t="s">
-        <v>384</v>
-      </c>
-      <c r="D41" s="47" t="s">
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="46" t="s">
         <v>479</v>
       </c>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="B42" s="50" t="s">
-        <v>259</v>
-      </c>
-      <c r="C42" s="49" t="s">
-        <v>414</v>
-      </c>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
+      <c r="B42" s="47" t="s">
+        <v>480</v>
+      </c>
+      <c r="C42" s="48" t="s">
+        <v>481</v>
+      </c>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="47" t="s">
-        <v>480</v>
-      </c>
-      <c r="B43" s="48" t="s">
-        <v>481</v>
-      </c>
-      <c r="C43" s="49" t="s">
+      <c r="A43" s="46" t="s">
         <v>482</v>
       </c>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
+      <c r="B43" s="47" t="s">
+        <v>483</v>
+      </c>
+      <c r="C43" s="48" t="s">
+        <v>484</v>
+      </c>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="47" t="s">
-        <v>483</v>
-      </c>
-      <c r="B44" s="48" t="s">
-        <v>484</v>
-      </c>
-      <c r="C44" s="49" t="s">
+      <c r="A44" s="52"/>
+      <c r="B44" s="52" t="s">
         <v>485</v>
       </c>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="53"/>
-      <c r="B45" s="53" t="s">
+      <c r="A45" s="46" t="s">
         <v>486</v>
       </c>
-      <c r="C45" s="54"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
+      <c r="B45" s="47" t="s">
+        <v>487</v>
+      </c>
+      <c r="C45" s="48"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="47" t="s">
-        <v>487</v>
-      </c>
-      <c r="B46" s="48" t="s">
+      <c r="A46" s="46" t="s">
         <v>488</v>
       </c>
-      <c r="C46" s="49"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
+      <c r="B46" s="47" t="s">
+        <v>489</v>
+      </c>
+      <c r="C46" s="48"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="47" t="s">
-        <v>489</v>
-      </c>
-      <c r="B47" s="48" t="s">
+      <c r="A47" s="46" t="s">
         <v>490</v>
       </c>
-      <c r="C47" s="49"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47"/>
+      <c r="B47" s="47" t="s">
+        <v>491</v>
+      </c>
+      <c r="C47" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="47" t="s">
-        <v>491</v>
-      </c>
-      <c r="B48" s="48" t="s">
+      <c r="A48" s="46" t="s">
         <v>492</v>
       </c>
-      <c r="C48" s="49" t="s">
-        <v>384</v>
-      </c>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
+      <c r="B48" s="47" t="s">
+        <v>493</v>
+      </c>
+      <c r="C48" s="48"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="47" t="s">
-        <v>493</v>
-      </c>
-      <c r="B49" s="48" t="s">
+      <c r="A49" s="46" t="s">
         <v>494</v>
       </c>
-      <c r="C49" s="49"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="47"/>
+      <c r="B49" s="47" t="s">
+        <v>495</v>
+      </c>
+      <c r="C49" s="48"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="47" t="s">
-        <v>495</v>
-      </c>
-      <c r="B50" s="48" t="s">
+      <c r="A50" s="46" t="s">
         <v>496</v>
       </c>
-      <c r="C50" s="49"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="47"/>
+      <c r="B50" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="C50" s="48"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="47" t="s">
-        <v>497</v>
-      </c>
-      <c r="B51" s="48" t="s">
+      <c r="A51" s="46" t="s">
         <v>498</v>
       </c>
-      <c r="C51" s="49"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="47"/>
+      <c r="B51" s="47" t="s">
+        <v>499</v>
+      </c>
+      <c r="C51" s="48" t="s">
+        <v>500</v>
+      </c>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="47" t="s">
-        <v>499</v>
-      </c>
-      <c r="B52" s="48" t="s">
-        <v>500</v>
-      </c>
-      <c r="C52" s="49" t="s">
+      <c r="A52" s="46" t="s">
         <v>501</v>
       </c>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
+      <c r="B52" s="47" t="s">
+        <v>502</v>
+      </c>
+      <c r="C52" s="48"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="47" t="s">
-        <v>502</v>
-      </c>
-      <c r="B53" s="48" t="s">
+      <c r="A53" s="46" t="s">
         <v>503</v>
       </c>
-      <c r="C53" s="49"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="47"/>
-      <c r="H53" s="47"/>
+      <c r="B53" s="47" t="s">
+        <v>504</v>
+      </c>
+      <c r="C53" s="48"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="47" t="s">
-        <v>504</v>
-      </c>
-      <c r="B54" s="48" t="s">
+      <c r="A54" s="46" t="s">
         <v>505</v>
       </c>
-      <c r="C54" s="49"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
+      <c r="B54" s="49" t="s">
+        <v>506</v>
+      </c>
+      <c r="C54" s="48" t="s">
+        <v>507</v>
+      </c>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="47" t="s">
-        <v>506</v>
-      </c>
-      <c r="B55" s="50" t="s">
-        <v>507</v>
-      </c>
-      <c r="C55" s="49" t="s">
+      <c r="A55" s="53"/>
+      <c r="B55" s="53" t="s">
         <v>508</v>
       </c>
-      <c r="D55" s="47"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="47"/>
-      <c r="H55" s="47"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="54"/>
-      <c r="B56" s="54" t="s">
+      <c r="A56" s="46" t="s">
         <v>509</v>
       </c>
-      <c r="C56" s="54"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
+      <c r="B56" s="47" t="s">
+        <v>510</v>
+      </c>
+      <c r="C56" s="48"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="47" t="s">
-        <v>510</v>
-      </c>
-      <c r="B57" s="48" t="s">
+      <c r="A57" s="46" t="s">
         <v>511</v>
       </c>
-      <c r="C57" s="49"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="47"/>
+      <c r="B57" s="47" t="s">
+        <v>512</v>
+      </c>
+      <c r="C57" s="48"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="47" t="s">
-        <v>512</v>
-      </c>
-      <c r="B58" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="C58" s="49"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="47"/>
-      <c r="H58" s="47"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C59" s="55"/>
+      <c r="C58" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:H1"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="F6" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="G6" r:id="rId7" location="CjQKIObolfr3kjhoqpaahhROvCk0XzgpqdEh6-hojizTnIN_EhA4IMJR3TVtNd9qIb1lYPin" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="H6" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="B7" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="B8" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="B9" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="B10" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="B11" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="B12" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="D12" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="B13" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="F13" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="B14" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="B15" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="D15" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="E15" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="H15" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="B16" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="B17" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="F17" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="B18" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="B19" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="B20" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="B21" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="B22" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="B23" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="D23" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="B24" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="B25" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="B26" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="B27" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="B28" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="B29" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="F29" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="B30" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="B31" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="B32" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="D32" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="B33" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="B34" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="B35" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="B36" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="B37" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="B38" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="B39" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="B40" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="B41" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="B42" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="B43" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="B44" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="B46" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="B47" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="B48" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="B49" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="B50" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="B51" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
-    <hyperlink ref="B52" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
-    <hyperlink ref="B53" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
-    <hyperlink ref="B54" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
-    <hyperlink ref="B55" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
-    <hyperlink ref="B57" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
-    <hyperlink ref="B58" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="F5" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="G5" r:id="rId7" location="CjQKIObolfr3kjhoqpaahhROvCk0XzgpqdEh6-hojizTnIN_EhA4IMJR3TVtNd9qIb1lYPin" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="H5" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="B6" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="B7" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="B8" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="B9" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="B10" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="B11" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="D11" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="B12" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="F12" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="B13" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="B14" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="D14" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="E14" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="H14" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="B15" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="B16" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="F16" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="B17" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="B18" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="B19" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="B20" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="B21" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="B22" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="D22" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="B23" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="B24" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="B25" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="B26" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="B27" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="B28" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="F28" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="B29" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="B30" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="B31" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="D31" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="B32" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="B33" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="B34" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="B35" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="B36" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="B37" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="B38" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="B39" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="B40" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="B41" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="B42" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="B43" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="B45" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="B46" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="B47" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="B48" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="B49" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="B50" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="B51" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="B52" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="B53" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="B54" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="B56" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="B57" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9457,418 +9279,512 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" customWidth="1"/>
-    <col min="3" max="3" width="48.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="81" t="s">
-        <v>341</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>514</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>515</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="56" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>515</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="57" t="s">
         <v>517</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="C2" s="57" t="s">
         <v>518</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="D2" s="56" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="56" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="57" t="s">
+      <c r="B3" s="56" t="s">
         <v>520</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="C3" s="57" t="s">
         <v>521</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="D3" s="56" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="56" t="s">
+        <v>600</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>601</v>
+      </c>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="56" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="57" t="s">
+      <c r="B5" s="56" t="s">
         <v>523</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="C5" s="57" t="s">
         <v>524</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="D5" s="56" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="56" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="57" t="s">
+      <c r="B6" s="56" t="s">
         <v>526</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="C6" s="57" t="s">
         <v>527</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="D6" s="56" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="56" t="s">
+        <v>597</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>598</v>
+      </c>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="56" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="57" t="s">
+      <c r="B8" s="56" t="s">
         <v>529</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="C8" s="57" t="s">
         <v>530</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="D8" s="56" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="56" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="57" t="s">
+      <c r="B9" s="56" t="s">
         <v>532</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="C9" s="57" t="s">
         <v>533</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="D9" s="56" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="56" t="s">
+        <v>602</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>603</v>
+      </c>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="56" t="s">
+        <v>593</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>594</v>
+      </c>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="56" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="57" t="s">
+      <c r="B12" s="56" t="s">
         <v>535</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="C12" s="57" t="s">
         <v>536</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="D12" s="56" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="56" t="s">
+        <v>534</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>535</v>
+      </c>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="56" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="57" t="s">
+      <c r="B14" s="56" t="s">
         <v>538</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="C14" s="57" t="s">
         <v>539</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="D14" s="56" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="56" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="57" t="s">
+      <c r="B15" s="56" t="s">
         <v>541</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="C15" s="57" t="s">
         <v>542</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="D15" s="56" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="56" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="57" t="s">
+      <c r="B16" s="56" t="s">
         <v>544</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="C16" s="57" t="s">
         <v>545</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="D16" s="56" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="56" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="57" t="s">
+      <c r="B17" s="56" t="s">
         <v>547</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="C17" s="57" t="s">
         <v>548</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="D17" s="56" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="56" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="57" t="s">
+      <c r="B18" s="56" t="s">
         <v>550</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="C18" s="57" t="s">
         <v>551</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="D18" s="56" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="56" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="57" t="s">
+      <c r="B19" s="56" t="s">
         <v>553</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="C19" s="57" t="s">
         <v>554</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="D19" s="56" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="56" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="57" t="s">
+      <c r="B20" s="56" t="s">
         <v>556</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="C20" s="57" t="s">
         <v>557</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="D20" s="56" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="56" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="57" t="s">
+      <c r="B21" s="56" t="s">
         <v>559</v>
       </c>
-      <c r="B17" s="57" t="s">
+      <c r="C21" s="57" t="s">
         <v>560</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="D21" s="56" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="56" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="57" t="s">
+      <c r="B22" s="56" t="s">
         <v>562</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="C22" s="57" t="s">
         <v>563</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="D22" s="56" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>592</v>
+      </c>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="56" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="57" t="s">
+      <c r="B24" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="C24" s="57" t="s">
         <v>566</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="D24" s="56" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="56" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="57" t="s">
+      <c r="B25" s="56" t="s">
         <v>568</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="C25" s="57" t="s">
         <v>569</v>
       </c>
-      <c r="C20" s="58" t="s">
+      <c r="D25" s="56" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="56" t="s">
+        <v>595</v>
+      </c>
+      <c r="B26" s="56" t="s">
+        <v>596</v>
+      </c>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="56" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="57" t="s">
+      <c r="B27" s="56" t="s">
         <v>571</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="C27" s="57" t="s">
         <v>572</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="D27" s="56" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="56" t="s">
+        <v>570</v>
+      </c>
+      <c r="B28" s="56" t="s">
+        <v>571</v>
+      </c>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="56" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="57" t="s">
+      <c r="B29" s="56" t="s">
         <v>574</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="C29" s="57" t="s">
         <v>575</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="D29" s="56" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="56" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="57" t="s">
+      <c r="B30" s="56" t="s">
         <v>577</v>
       </c>
-      <c r="B23" s="57" t="s">
+      <c r="C30" s="57"/>
+      <c r="D30" s="56" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="56" t="s">
         <v>578</v>
       </c>
-      <c r="C23" s="58"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="57" t="s">
+      <c r="B31" s="56" t="s">
         <v>579</v>
       </c>
-      <c r="B24" s="57" t="s">
+      <c r="C31" s="57" t="s">
         <v>580</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="D31" s="56" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="56" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="57" t="s">
+      <c r="B32" s="56" t="s">
         <v>582</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="C32" s="57" t="s">
         <v>583</v>
       </c>
-      <c r="C25" s="58" t="s">
+      <c r="D32" s="56" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="56" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="57" t="s">
+      <c r="B33" s="56" t="s">
         <v>585</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="C33" s="57" t="s">
         <v>586</v>
       </c>
-      <c r="C26" s="58" t="s">
+      <c r="D33" s="56" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="56" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="57" t="s">
+      <c r="B34" s="56" t="s">
         <v>588</v>
       </c>
-      <c r="B27" s="57" t="s">
+      <c r="C34" s="57" t="s">
         <v>589</v>
       </c>
-      <c r="C27" s="58" t="s">
+      <c r="D34" s="56" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="56" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="57" t="s">
+      <c r="B35" s="56" t="s">
+        <v>588</v>
+      </c>
+      <c r="C35" s="57" t="s">
         <v>591</v>
       </c>
-      <c r="B28" s="57" t="s">
-        <v>589</v>
-      </c>
-      <c r="C28" s="58" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="59" t="s">
-        <v>593</v>
-      </c>
-      <c r="B32" s="59" t="s">
-        <v>515</v>
-      </c>
-      <c r="C32" s="60"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="61" t="s">
-        <v>535</v>
-      </c>
-      <c r="B33" s="61" t="s">
-        <v>536</v>
-      </c>
-      <c r="C33" s="60"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="62" t="s">
-        <v>185</v>
-      </c>
-      <c r="B34" s="62" t="s">
-        <v>594</v>
-      </c>
-      <c r="C34" s="60"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="62" t="s">
-        <v>595</v>
-      </c>
-      <c r="B35" s="62" t="s">
-        <v>596</v>
-      </c>
-      <c r="C35" s="60"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="62" t="s">
-        <v>597</v>
-      </c>
-      <c r="B36" s="62" t="s">
-        <v>598</v>
-      </c>
-      <c r="C36" s="60"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="62" t="s">
+      <c r="D35" s="56" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="56" t="s">
         <v>599</v>
       </c>
-      <c r="B37" s="63" t="s">
-        <v>600</v>
-      </c>
-      <c r="C37" s="64"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="62" t="s">
-        <v>601</v>
-      </c>
-      <c r="B38" s="62" t="s">
+      <c r="B36" s="56" t="s">
         <v>332</v>
       </c>
-      <c r="C38" s="60"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="62" t="s">
-        <v>602</v>
-      </c>
-      <c r="B39" s="62" t="s">
-        <v>603</v>
-      </c>
-      <c r="C39" s="65"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="66" t="s">
-        <v>604</v>
-      </c>
-      <c r="B40" s="66" t="s">
-        <v>605</v>
-      </c>
-      <c r="C40" s="65"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="66" t="s">
-        <v>571</v>
-      </c>
-      <c r="B41" s="57" t="s">
-        <v>572</v>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56" t="s">
+        <v>708</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="A3:C24 A32:B41 C32:C37">
-    <cfRule type="colorScale" priority="1">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D36">
+    <sortCondition ref="A2:A36"/>
+  </sortState>
+  <conditionalFormatting sqref="A2:C23">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9878,66 +9794,66 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
     <hyperlink ref="B5" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
     <hyperlink ref="C5" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
     <hyperlink ref="B6" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
     <hyperlink ref="C6" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="B7" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="C7" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="B8" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="C8" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="B9" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="C9" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="B10" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="C10" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="B11" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="C11" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="B12" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="C12" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="B13" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink ref="C13" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink ref="B14" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink ref="C14" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink ref="B15" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
-    <hyperlink ref="C15" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
-    <hyperlink ref="B16" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
-    <hyperlink ref="C16" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
-    <hyperlink ref="B17" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
-    <hyperlink ref="C17" r:id="rId30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
-    <hyperlink ref="B18" r:id="rId31" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
-    <hyperlink ref="C18" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
-    <hyperlink ref="B19" r:id="rId33" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
-    <hyperlink ref="C19" r:id="rId34" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
-    <hyperlink ref="B20" r:id="rId35" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
-    <hyperlink ref="C20" r:id="rId36" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
-    <hyperlink ref="B21" r:id="rId37" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
-    <hyperlink ref="C21" r:id="rId38" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
-    <hyperlink ref="B22" r:id="rId39" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
-    <hyperlink ref="C22" r:id="rId40" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
-    <hyperlink ref="B23" r:id="rId41" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
-    <hyperlink ref="B24" r:id="rId42" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
-    <hyperlink ref="C24" r:id="rId43" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
-    <hyperlink ref="B25" r:id="rId44" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
-    <hyperlink ref="C25" r:id="rId45" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
-    <hyperlink ref="B26" r:id="rId46" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
-    <hyperlink ref="C26" r:id="rId47" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
-    <hyperlink ref="B27" r:id="rId48" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
-    <hyperlink ref="C27" r:id="rId49" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
-    <hyperlink ref="B28" r:id="rId50" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
-    <hyperlink ref="C28" r:id="rId51" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
-    <hyperlink ref="B33" r:id="rId52" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
-    <hyperlink ref="B34" r:id="rId53" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
-    <hyperlink ref="B35" r:id="rId54" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
-    <hyperlink ref="B36" r:id="rId55" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
-    <hyperlink ref="B37" r:id="rId56" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
-    <hyperlink ref="B38" r:id="rId57" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
-    <hyperlink ref="B39" r:id="rId58" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
-    <hyperlink ref="B40" r:id="rId59" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
-    <hyperlink ref="B41" r:id="rId60" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
+    <hyperlink ref="B8" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="C8" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="B9" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="C9" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="B12" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="C12" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="B14" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="C14" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="B15" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="C15" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="B16" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="C16" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="B17" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="C17" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="B18" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="C18" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="B19" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="C19" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="B20" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="C20" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="B21" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink ref="C21" r:id="rId30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink ref="B22" r:id="rId31" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
+    <hyperlink ref="C22" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
+    <hyperlink ref="B24" r:id="rId33" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
+    <hyperlink ref="C24" r:id="rId34" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
+    <hyperlink ref="B25" r:id="rId35" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
+    <hyperlink ref="C25" r:id="rId36" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
+    <hyperlink ref="B27" r:id="rId37" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
+    <hyperlink ref="C27" r:id="rId38" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
+    <hyperlink ref="B29" r:id="rId39" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
+    <hyperlink ref="C29" r:id="rId40" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
+    <hyperlink ref="B30" r:id="rId41" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
+    <hyperlink ref="B31" r:id="rId42" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
+    <hyperlink ref="C31" r:id="rId43" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
+    <hyperlink ref="B32" r:id="rId44" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
+    <hyperlink ref="C32" r:id="rId45" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
+    <hyperlink ref="B33" r:id="rId46" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
+    <hyperlink ref="C33" r:id="rId47" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
+    <hyperlink ref="B34" r:id="rId48" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
+    <hyperlink ref="C34" r:id="rId49" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
+    <hyperlink ref="B35" r:id="rId50" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
+    <hyperlink ref="C35" r:id="rId51" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
+    <hyperlink ref="B13" r:id="rId52" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
+    <hyperlink ref="B23" r:id="rId53" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
+    <hyperlink ref="B11" r:id="rId54" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
+    <hyperlink ref="B26" r:id="rId55" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
+    <hyperlink ref="B7" r:id="rId56" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
+    <hyperlink ref="B36" r:id="rId57" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
+    <hyperlink ref="B4" r:id="rId58" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
+    <hyperlink ref="B10" r:id="rId59" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
+    <hyperlink ref="B28" r:id="rId60" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9948,11 +9864,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9963,317 +9879,279 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="81" t="s">
-        <v>341</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="67"/>
+      <c r="A1" s="59" t="s">
+        <v>604</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>343</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>605</v>
+      </c>
+      <c r="D1" s="58"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="60" t="s">
         <v>606</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="67"/>
+      <c r="B2" s="60" t="s">
+        <v>407</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>607</v>
+      </c>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
-        <v>607</v>
-      </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="67"/>
+      <c r="A3" s="62" t="s">
+        <v>608</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>402</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>609</v>
+      </c>
+      <c r="D3" s="58"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="88" t="s">
-        <v>608</v>
-      </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="67"/>
+      <c r="A4" s="60" t="s">
+        <v>610</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>611</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>612</v>
+      </c>
+      <c r="D4" s="58"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="68" t="s">
-        <v>609</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>344</v>
-      </c>
-      <c r="C5" s="68" t="s">
-        <v>610</v>
-      </c>
-      <c r="D5" s="67"/>
+      <c r="A5" s="60" t="s">
+        <v>613</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>470</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>614</v>
+      </c>
+      <c r="D5" s="58"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="69" t="s">
-        <v>611</v>
-      </c>
-      <c r="B6" s="69" t="s">
-        <v>408</v>
-      </c>
-      <c r="C6" s="70" t="s">
-        <v>612</v>
-      </c>
-      <c r="D6" s="67"/>
+      <c r="A6" s="65" t="s">
+        <v>615</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>616</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>617</v>
+      </c>
+      <c r="D6" s="58"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="71" t="s">
-        <v>613</v>
-      </c>
-      <c r="B7" s="72" t="s">
-        <v>403</v>
-      </c>
-      <c r="C7" s="73" t="s">
-        <v>614</v>
-      </c>
-      <c r="D7" s="67"/>
+      <c r="A7" s="65" t="s">
+        <v>618</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>402</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>619</v>
+      </c>
+      <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="69" t="s">
-        <v>615</v>
-      </c>
-      <c r="B8" s="69" t="s">
-        <v>616</v>
-      </c>
-      <c r="C8" s="70" t="s">
-        <v>617</v>
-      </c>
-      <c r="D8" s="67"/>
+      <c r="A8" s="65" t="s">
+        <v>620</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>402</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>621</v>
+      </c>
+      <c r="D8" s="58"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="69" t="s">
-        <v>618</v>
-      </c>
-      <c r="B9" s="69" t="s">
-        <v>471</v>
-      </c>
-      <c r="C9" s="70" t="s">
-        <v>619</v>
-      </c>
-      <c r="D9" s="67"/>
+      <c r="A9" s="60" t="s">
+        <v>543</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>447</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>622</v>
+      </c>
+      <c r="D9" s="58"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="74" t="s">
-        <v>620</v>
-      </c>
-      <c r="B10" s="74" t="s">
-        <v>621</v>
-      </c>
-      <c r="C10" s="73" t="s">
-        <v>622</v>
-      </c>
-      <c r="D10" s="67"/>
+      <c r="A10" s="60" t="s">
+        <v>549</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>402</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="74" t="s">
-        <v>623</v>
-      </c>
-      <c r="B11" s="74" t="s">
-        <v>403</v>
-      </c>
-      <c r="C11" s="73" t="s">
+      <c r="A11" s="65" t="s">
+        <v>558</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>402</v>
+      </c>
+      <c r="C11" s="64" t="s">
         <v>624</v>
       </c>
-      <c r="D11" s="67"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="B12" s="74" t="s">
-        <v>403</v>
-      </c>
-      <c r="C12" s="73" t="s">
+      <c r="B12" s="60" t="s">
         <v>626</v>
       </c>
-      <c r="D12" s="67"/>
+      <c r="C12" s="61" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="69" t="s">
-        <v>544</v>
-      </c>
-      <c r="B13" s="69" t="s">
-        <v>448</v>
-      </c>
-      <c r="C13" s="70" t="s">
-        <v>627</v>
-      </c>
-      <c r="D13" s="67"/>
+      <c r="A13" s="60" t="s">
+        <v>628</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>629</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="69" t="s">
-        <v>550</v>
-      </c>
-      <c r="B14" s="69" t="s">
-        <v>403</v>
-      </c>
-      <c r="C14" s="70" t="s">
-        <v>628</v>
+      <c r="A14" s="65" t="s">
+        <v>631</v>
+      </c>
+      <c r="B14" s="65" t="s">
+        <v>402</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="74" t="s">
-        <v>559</v>
-      </c>
-      <c r="B15" s="72" t="s">
-        <v>403</v>
-      </c>
-      <c r="C15" s="73" t="s">
-        <v>629</v>
+      <c r="A15" s="60" t="s">
+        <v>633</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>634</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="69" t="s">
-        <v>630</v>
-      </c>
-      <c r="B16" s="69" t="s">
-        <v>631</v>
-      </c>
-      <c r="C16" s="70" t="s">
-        <v>632</v>
+      <c r="A16" s="60" t="s">
+        <v>636</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>402</v>
+      </c>
+      <c r="C16" s="61" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="69" t="s">
-        <v>633</v>
-      </c>
-      <c r="B17" s="69" t="s">
-        <v>634</v>
-      </c>
-      <c r="C17" s="70" t="s">
-        <v>635</v>
+      <c r="A17" s="65" t="s">
+        <v>636</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>402</v>
+      </c>
+      <c r="C17" s="64" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="74" t="s">
-        <v>636</v>
-      </c>
-      <c r="B18" s="74" t="s">
-        <v>403</v>
-      </c>
-      <c r="C18" s="73" t="s">
-        <v>637</v>
+      <c r="A18" s="60" t="s">
+        <v>639</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>383</v>
+      </c>
+      <c r="C18" s="61" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="69" t="s">
-        <v>638</v>
-      </c>
-      <c r="B19" s="69" t="s">
-        <v>639</v>
-      </c>
-      <c r="C19" s="70" t="s">
-        <v>640</v>
+      <c r="A19" s="62" t="s">
+        <v>641</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>441</v>
+      </c>
+      <c r="C19" s="66" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="69" t="s">
-        <v>641</v>
-      </c>
-      <c r="B20" s="69" t="s">
-        <v>403</v>
-      </c>
-      <c r="C20" s="70" t="s">
-        <v>642</v>
+      <c r="A20" s="62" t="s">
+        <v>587</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>643</v>
+      </c>
+      <c r="C20" s="66" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="74" t="s">
-        <v>641</v>
-      </c>
-      <c r="B21" s="74" t="s">
-        <v>403</v>
-      </c>
-      <c r="C21" s="73" t="s">
-        <v>643</v>
+      <c r="A21" s="62" t="s">
+        <v>590</v>
+      </c>
+      <c r="B21" s="62" t="s">
+        <v>402</v>
+      </c>
+      <c r="C21" s="66" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="65" t="s">
         <v>644</v>
       </c>
-      <c r="B22" s="69" t="s">
-        <v>384</v>
-      </c>
-      <c r="C22" s="70" t="s">
+      <c r="B22" s="65" t="s">
+        <v>402</v>
+      </c>
+      <c r="C22" s="64" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="71" t="s">
-        <v>646</v>
-      </c>
-      <c r="B23" s="72" t="s">
-        <v>442</v>
-      </c>
-      <c r="C23" s="75" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="71" t="s">
-        <v>588</v>
-      </c>
-      <c r="B24" s="71" t="s">
-        <v>648</v>
-      </c>
-      <c r="C24" s="75" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="71" t="s">
-        <v>591</v>
-      </c>
-      <c r="B25" s="71" t="s">
-        <v>403</v>
-      </c>
-      <c r="C25" s="75" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="74" t="s">
-        <v>649</v>
-      </c>
-      <c r="B26" s="74" t="s">
-        <v>403</v>
-      </c>
-      <c r="C26" s="73" t="s">
-        <v>650</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="C7" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="C8" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="C9" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="C10" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="C11" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="C12" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="C13" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
-    <hyperlink ref="C14" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
-    <hyperlink ref="C15" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
-    <hyperlink ref="C16" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
-    <hyperlink ref="C17" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
-    <hyperlink ref="C18" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
-    <hyperlink ref="C19" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
-    <hyperlink ref="C20" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
-    <hyperlink ref="C21" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
-    <hyperlink ref="C22" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
-    <hyperlink ref="C23" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
-    <hyperlink ref="C24" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
-    <hyperlink ref="C25" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
-    <hyperlink ref="C26" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
+    <hyperlink ref="C22" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10284,285 +10162,269 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" customWidth="1"/>
-    <col min="4" max="4" width="41.5703125" customWidth="1"/>
-    <col min="5" max="5" width="33" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="78" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B1" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="67" t="s">
+        <v>650</v>
+      </c>
+      <c r="B2" s="68" t="s">
         <v>651</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="69" t="s">
         <v>652</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="67" t="s">
         <v>653</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="67" t="s">
         <v>654</v>
       </c>
+      <c r="F2" s="68" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="67" t="s">
+        <v>656</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="68"/>
+    </row>
+    <row r="4" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="67" t="s">
+        <v>657</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>658</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>659</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>660</v>
+      </c>
+      <c r="E4" s="67" t="s">
+        <v>661</v>
+      </c>
+      <c r="F4" s="68" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="67" t="s">
+        <v>663</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>664</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>665</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>666</v>
+      </c>
+      <c r="E5" s="67" t="s">
+        <v>667</v>
+      </c>
+      <c r="F5" s="68" t="s">
         <v>655</v>
       </c>
-      <c r="B3" s="77" t="s">
-        <v>656</v>
-      </c>
-      <c r="C3" s="78" t="s">
-        <v>657</v>
-      </c>
-      <c r="D3" s="76" t="s">
-        <v>658</v>
-      </c>
-      <c r="E3" s="76" t="s">
-        <v>659</v>
-      </c>
-      <c r="F3" s="77" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="76" t="s">
-        <v>661</v>
-      </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="77"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="B5" s="77" t="s">
-        <v>663</v>
-      </c>
-      <c r="C5" s="79" t="s">
-        <v>664</v>
-      </c>
-      <c r="D5" s="76" t="s">
-        <v>665</v>
-      </c>
-      <c r="E5" s="76" t="s">
-        <v>666</v>
-      </c>
-      <c r="F5" s="77" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="76" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="67" t="s">
         <v>668</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="68" t="s">
         <v>669</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="70" t="s">
         <v>670</v>
       </c>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="67" t="s">
         <v>671</v>
       </c>
-      <c r="E6" s="76" t="s">
+      <c r="E6" s="67" t="s">
         <v>672</v>
       </c>
-      <c r="F6" s="77" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="76" t="s">
+      <c r="F6" s="68" t="s">
         <v>673</v>
       </c>
-      <c r="B7" s="77" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="67" t="s">
         <v>674</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="B7" s="68" t="s">
         <v>675</v>
       </c>
-      <c r="D7" s="76" t="s">
+      <c r="C7" s="70" t="s">
         <v>676</v>
       </c>
-      <c r="E7" s="76" t="s">
+      <c r="D7" s="67" t="s">
         <v>677</v>
       </c>
-      <c r="F7" s="77" t="s">
+      <c r="E7" s="67" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="76" t="s">
+      <c r="F7" s="68" t="s">
         <v>679</v>
       </c>
-      <c r="B8" s="77" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="67" t="s">
         <v>680</v>
       </c>
-      <c r="C8" s="79" t="s">
+      <c r="B8" s="68" t="s">
         <v>681</v>
       </c>
-      <c r="D8" s="76" t="s">
+      <c r="C8" s="70" t="s">
         <v>682</v>
       </c>
-      <c r="E8" s="76" t="s">
+      <c r="D8" s="67" t="s">
         <v>683</v>
       </c>
-      <c r="F8" s="77" t="s">
+      <c r="E8" s="67" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="76" t="s">
+      <c r="F8" s="68" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A9" s="67" t="s">
         <v>685</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="68" t="s">
         <v>686</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="70" t="s">
         <v>687</v>
       </c>
-      <c r="D9" s="76" t="s">
+      <c r="D9" s="67" t="s">
         <v>688</v>
       </c>
-      <c r="E9" s="76" t="s">
+      <c r="E9" s="67" t="s">
         <v>689</v>
       </c>
-      <c r="F9" s="77" t="s">
-        <v>660</v>
+      <c r="F9" s="68" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="76" t="s">
-        <v>690</v>
-      </c>
-      <c r="B10" s="77" t="s">
+      <c r="A10" s="67" t="s">
         <v>691</v>
       </c>
-      <c r="C10" s="79" t="s">
+      <c r="B10" s="68" t="s">
         <v>692</v>
       </c>
-      <c r="D10" s="76" t="s">
+      <c r="C10" s="70" t="s">
         <v>693</v>
       </c>
-      <c r="E10" s="76" t="s">
+      <c r="D10" s="67" t="s">
         <v>694</v>
       </c>
-      <c r="F10" s="77" t="s">
+      <c r="E10" s="67" t="s">
         <v>695</v>
       </c>
+      <c r="F10" s="68" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="67" t="s">
         <v>696</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="68"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="68"/>
+    </row>
+    <row r="12" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="67" t="s">
         <v>697</v>
       </c>
-      <c r="C11" s="79" t="s">
+      <c r="B12" s="68" t="s">
         <v>698</v>
       </c>
-      <c r="D11" s="76" t="s">
+      <c r="C12" s="70" t="s">
         <v>699</v>
       </c>
-      <c r="E11" s="76" t="s">
+      <c r="D12" s="67" t="s">
         <v>700</v>
       </c>
-      <c r="F11" s="77" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="76" t="s">
+      <c r="E12" s="67" t="s">
         <v>701</v>
       </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="77"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="76" t="s">
+      <c r="F12" s="68" t="s">
         <v>702</v>
       </c>
-      <c r="B13" s="77" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A13" s="67" t="s">
         <v>703</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="B13" s="68" t="s">
         <v>704</v>
       </c>
-      <c r="D13" s="76" t="s">
+      <c r="C13" s="70" t="s">
+        <v>320</v>
+      </c>
+      <c r="D13" s="67" t="s">
         <v>705</v>
       </c>
-      <c r="E13" s="76" t="s">
+      <c r="E13" s="67" t="s">
         <v>706</v>
       </c>
-      <c r="F13" s="77" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="76" t="s">
-        <v>708</v>
-      </c>
-      <c r="B14" s="77" t="s">
-        <v>709</v>
-      </c>
-      <c r="C14" s="79" t="s">
-        <v>320</v>
-      </c>
-      <c r="D14" s="76" t="s">
-        <v>710</v>
-      </c>
-      <c r="E14" s="76" t="s">
-        <v>711</v>
-      </c>
-      <c r="F14" s="77" t="s">
-        <v>660</v>
+      <c r="F13" s="68" t="s">
+        <v>655</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="C8" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
-    <hyperlink ref="C10" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
-    <hyperlink ref="C11" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
-    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
-    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="C12" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="C13" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Boardgamers em Portugal_BD.xlsx
+++ b/Boardgamers em Portugal_BD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizador\Documents\GitHub\BoardgamingPortugal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizador\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6F0E65-8C06-42AF-8817-C541BA885442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6311CE-F703-4D6D-8BC8-203A5256E85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRIADORES DE CONTEÚDO" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,17 @@
     <sheet name="CONVENÇÕES" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CRIADORES DE CONTEÚDO'!$A$1:$J$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CRIADORES DE CONTEÚDO'!$A$2:$J$109</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="712">
+  <si>
+    <t xml:space="preserve">        ⚠️ EM ACTUALIZAÇÃO ⚠️        </t>
+  </si>
   <si>
     <t>Criadores de conteudo</t>
   </si>
@@ -230,12 +233,6 @@
     <t>https://cidadecuriosa.wixsite.com/cidadecuriosa/</t>
   </si>
   <si>
-    <t>twitch.tv/cidadecuriosa</t>
-  </si>
-  <si>
-    <t>discord.gg/kN5qRZjr</t>
-  </si>
-  <si>
     <t>clumsy dice</t>
   </si>
   <si>
@@ -251,9 +248,6 @@
     <t>https://linktr.ee/clumsydice</t>
   </si>
   <si>
-    <t>twitch.tv/clumsydice</t>
-  </si>
-  <si>
     <t>corvo branco</t>
   </si>
   <si>
@@ -470,9 +464,6 @@
     <t>https://discord.com/invite/PyHUWTW8uD</t>
   </si>
   <si>
-    <t>tiktok.com/@jogamosboardgames</t>
-  </si>
-  <si>
     <t>Jogo Eu (Carlos Abrunhosa)</t>
   </si>
   <si>
@@ -657,9 +648,6 @@
   </si>
   <si>
     <t>https://metenamesa.pt/</t>
-  </si>
-  <si>
-    <t>discord.gg/GGtDGGvszQ</t>
   </si>
   <si>
     <t>meus jogos</t>
@@ -1079,6 +1067,9 @@
   </si>
   <si>
     <t>https://open.spotify.com/show/5iJOTNws77TmouVAaX5x97?si=-m0XS1dOR-ag9Vbtna0KNw&amp;utm_source=copy-link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	⚠️ EM ACTUALIZAÇÃO ⚠️	</t>
   </si>
   <si>
     <t>Nome</t>
@@ -1938,6 +1929,9 @@
     <t>https://maps.app.goo.gl/XpvYdZNTFuxuNqbP8</t>
   </si>
   <si>
+    <t>EDITORAS</t>
+  </si>
+  <si>
     <t>http://www.mebo.pt/</t>
   </si>
   <si>
@@ -1972,6 +1966,15 @@
   </si>
   <si>
     <t>https://www.cardslabgames.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REDE BOARDGAME FRIENDLY </t>
+  </si>
+  <si>
+    <t>espaços (cafés, bares, pastelarias e afins) onde se reúnem e ocorrem actividades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  relacionadas com jogos de tabuleiro modernos (board games)</t>
   </si>
   <si>
     <t>ESPAÇOS</t>
@@ -2291,20 +2294,23 @@
     <t>18 a 20 de Outubro de 2024</t>
   </si>
   <si>
-    <t>Loja</t>
-  </si>
-  <si>
-    <t>Editora</t>
-  </si>
-  <si>
-    <t>Loja/Editora</t>
+    <t>https://www.twitch.tv/cidade_curiosa</t>
+  </si>
+  <si>
+    <t>https://www.twitch.tv/clumsydice</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@jogamosboardgames</t>
+  </si>
+  <si>
+    <t>https://discord.com/invite/GGtDGGvszQ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2531,8 +2537,42 @@
       <name val="Arial"/>
     </font>
     <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -2577,13 +2617,26 @@
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="29">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2725,6 +2778,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4A86E8"/>
+        <bgColor rgb="FF4A86E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF6FA8DC"/>
         <bgColor rgb="FF6FA8DC"/>
       </patternFill>
@@ -2748,7 +2813,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2756,34 +2821,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2792,16 +2916,16 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2822,157 +2946,208 @@
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="27" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="22" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3189,11 +3364,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J1045"/>
+  <dimension ref="A1:J1046"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3211,66 +3386,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22" t="s">
-        <v>15</v>
-      </c>
+      <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
       <c r="G3" s="17"/>
@@ -3280,14 +3451,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="24" t="s">
-        <v>17</v>
-      </c>
+      <c r="E4" s="15"/>
       <c r="F4" s="16"/>
       <c r="G4" s="17"/>
       <c r="H4" s="18"/>
@@ -3296,13 +3469,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="21"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="25" t="s">
-        <v>19</v>
+      <c r="E5" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="17"/>
@@ -3312,18 +3485,14 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="15"/>
       <c r="F6" s="16"/>
       <c r="G6" s="17"/>
       <c r="H6" s="18"/>
@@ -3332,15 +3501,17 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="14"/>
       <c r="E7" s="15"/>
       <c r="F7" s="16"/>
       <c r="G7" s="17"/>
@@ -3350,13 +3521,15 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22" t="s">
-        <v>28</v>
-      </c>
+      <c r="D8" s="14"/>
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
       <c r="G8" s="17"/>
@@ -3366,13 +3539,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="14"/>
       <c r="E9" s="15"/>
       <c r="F9" s="16"/>
       <c r="G9" s="17"/>
@@ -3382,15 +3555,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>32</v>
-      </c>
       <c r="C10" s="21"/>
-      <c r="D10" s="22" t="s">
-        <v>33</v>
-      </c>
+      <c r="D10" s="14"/>
       <c r="E10" s="15"/>
       <c r="F10" s="16"/>
       <c r="G10" s="17"/>
@@ -3400,17 +3571,17 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="14"/>
       <c r="E11" s="15"/>
-      <c r="F11" s="28" t="s">
-        <v>36</v>
-      </c>
+      <c r="F11" s="16"/>
       <c r="G11" s="17"/>
       <c r="H11" s="18"/>
       <c r="I11" s="19"/>
@@ -3418,17 +3589,17 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
       <c r="G12" s="17"/>
       <c r="H12" s="18"/>
       <c r="I12" s="19"/>
@@ -3436,13 +3607,15 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="14"/>
       <c r="E13" s="15"/>
       <c r="F13" s="16"/>
       <c r="G13" s="17"/>
@@ -3452,15 +3625,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>43</v>
-      </c>
       <c r="C14" s="21"/>
-      <c r="D14" s="29" t="s">
-        <v>44</v>
-      </c>
+      <c r="D14" s="14"/>
       <c r="E14" s="15"/>
       <c r="F14" s="16"/>
       <c r="G14" s="17"/>
@@ -3470,13 +3641,15 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="14"/>
       <c r="E15" s="15"/>
       <c r="F15" s="16"/>
       <c r="G15" s="17"/>
@@ -3486,12 +3659,12 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="21"/>
       <c r="D16" s="14"/>
       <c r="E16" s="15"/>
       <c r="F16" s="16"/>
@@ -3502,10 +3675,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>50</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="14"/>
@@ -3518,10 +3691,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="26" t="s">
         <v>51</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>52</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="14"/>
@@ -3534,16 +3707,14 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="26" t="s">
         <v>53</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>54</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="24" t="s">
-        <v>55</v>
-      </c>
+      <c r="E19" s="15"/>
       <c r="F19" s="16"/>
       <c r="G19" s="17"/>
       <c r="H19" s="18"/>
@@ -3552,18 +3723,16 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="15"/>
       <c r="F20" s="16"/>
       <c r="G20" s="17"/>
       <c r="H20" s="18"/>
@@ -3572,14 +3741,16 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="22" t="s">
         <v>60</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>62</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="16"/>
@@ -3590,80 +3761,78 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>66</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E22" s="15"/>
       <c r="F22" s="16"/>
       <c r="G22" s="17"/>
-      <c r="H22" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" s="31" t="s">
-        <v>68</v>
-      </c>
+      <c r="H22" s="18"/>
+      <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>70</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B23" s="23"/>
       <c r="C23" s="13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="17"/>
       <c r="H23" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="I23" s="19"/>
+        <v>708</v>
+      </c>
+      <c r="I23" s="31"/>
       <c r="J23" s="20"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="21"/>
+        <v>68</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="D24" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="15"/>
+        <v>71</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>72</v>
+      </c>
       <c r="F24" s="16"/>
       <c r="G24" s="17"/>
-      <c r="H24" s="18"/>
+      <c r="H24" s="30" t="s">
+        <v>709</v>
+      </c>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>78</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B25" s="23"/>
       <c r="C25" s="21"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="24" t="s">
-        <v>79</v>
-      </c>
+      <c r="D25" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="15"/>
       <c r="F25" s="16"/>
       <c r="G25" s="17"/>
       <c r="H25" s="18"/>
@@ -3672,16 +3841,16 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C26" s="21"/>
-      <c r="D26" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" s="15"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="24" t="s">
+        <v>77</v>
+      </c>
       <c r="F26" s="16"/>
       <c r="G26" s="17"/>
       <c r="H26" s="18"/>
@@ -3690,13 +3859,15 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="14"/>
+        <v>78</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="22" t="s">
+        <v>80</v>
+      </c>
       <c r="E27" s="15"/>
       <c r="F27" s="16"/>
       <c r="G27" s="17"/>
@@ -3706,16 +3877,14 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="21"/>
+        <v>81</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="13" t="s">
+        <v>82</v>
+      </c>
       <c r="D28" s="14"/>
-      <c r="E28" s="24" t="s">
-        <v>87</v>
-      </c>
+      <c r="E28" s="15"/>
       <c r="F28" s="16"/>
       <c r="G28" s="17"/>
       <c r="H28" s="18"/>
@@ -3724,14 +3893,16 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="13" t="s">
-        <v>89</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="21"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
+      <c r="E29" s="24" t="s">
+        <v>85</v>
+      </c>
       <c r="F29" s="16"/>
       <c r="G29" s="17"/>
       <c r="H29" s="18"/>
@@ -3740,17 +3911,13 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>91</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B30" s="23"/>
       <c r="C30" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>93</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="D30" s="14"/>
       <c r="E30" s="15"/>
       <c r="F30" s="16"/>
       <c r="G30" s="17"/>
@@ -3760,55 +3927,59 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="F31" s="28" t="s">
-        <v>99</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16"/>
       <c r="G31" s="17"/>
       <c r="H31" s="18"/>
-      <c r="I31" s="31" t="s">
-        <v>100</v>
-      </c>
+      <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="16"/>
+        <v>94</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>97</v>
+      </c>
       <c r="G32" s="17"/>
       <c r="H32" s="18"/>
-      <c r="I32" s="19"/>
+      <c r="I32" s="31" t="s">
+        <v>98</v>
+      </c>
       <c r="J32" s="20"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B33" s="23"/>
+        <v>99</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>100</v>
+      </c>
       <c r="C33" s="13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="15"/>
@@ -3820,17 +3991,13 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>107</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B34" s="23"/>
       <c r="C34" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>109</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D34" s="14"/>
       <c r="E34" s="15"/>
       <c r="F34" s="16"/>
       <c r="G34" s="17"/>
@@ -3840,15 +4007,17 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" s="14"/>
+        <v>106</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>107</v>
+      </c>
       <c r="E35" s="15"/>
       <c r="F35" s="16"/>
       <c r="G35" s="17"/>
@@ -3858,18 +4027,16 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D36" s="33"/>
-      <c r="E36" s="24" t="s">
-        <v>116</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15"/>
       <c r="F36" s="16"/>
       <c r="G36" s="17"/>
       <c r="H36" s="18"/>
@@ -3878,17 +4045,17 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="22" t="s">
-        <v>119</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="33"/>
       <c r="E37" s="24" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="17"/>
@@ -3898,16 +4065,18 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>122</v>
+        <v>115</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="C38" s="21"/>
       <c r="D38" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="E38" s="15"/>
+        <v>117</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>118</v>
+      </c>
       <c r="F38" s="16"/>
       <c r="G38" s="17"/>
       <c r="H38" s="18"/>
@@ -3916,13 +4085,15 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C39" s="21"/>
-      <c r="D39" s="14"/>
+      <c r="D39" s="22" t="s">
+        <v>121</v>
+      </c>
       <c r="E39" s="15"/>
       <c r="F39" s="16"/>
       <c r="G39" s="17"/>
@@ -3932,12 +4103,12 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="34" t="s">
-        <v>127</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="21"/>
       <c r="D40" s="14"/>
       <c r="E40" s="15"/>
       <c r="F40" s="16"/>
@@ -3948,17 +4119,13 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>131</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="B41" s="23"/>
+      <c r="C41" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="14"/>
       <c r="E41" s="15"/>
       <c r="F41" s="16"/>
       <c r="G41" s="17"/>
@@ -3968,13 +4135,17 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="14"/>
+        <v>127</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>129</v>
+      </c>
       <c r="E42" s="15"/>
       <c r="F42" s="16"/>
       <c r="G42" s="17"/>
@@ -3984,10 +4155,10 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C43" s="21"/>
       <c r="D43" s="14"/>
@@ -4000,10 +4171,10 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C44" s="21"/>
       <c r="D44" s="14"/>
@@ -4016,15 +4187,13 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C45" s="21"/>
-      <c r="D45" s="22" t="s">
-        <v>140</v>
-      </c>
+      <c r="D45" s="14"/>
       <c r="E45" s="15"/>
       <c r="F45" s="16"/>
       <c r="G45" s="17"/>
@@ -4034,64 +4203,62 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>143</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="C46" s="21"/>
       <c r="D46" s="22" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="16"/>
       <c r="G46" s="17"/>
-      <c r="H46" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="I46" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="J46" s="35" t="s">
-        <v>147</v>
-      </c>
+      <c r="H46" s="18"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="20"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="C47" s="21"/>
+        <v>140</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>141</v>
+      </c>
       <c r="D47" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="E47" s="24" t="s">
-        <v>151</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="E47" s="15"/>
       <c r="F47" s="16"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
+      <c r="H47" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="I47" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="J47" s="90" t="s">
+        <v>710</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>154</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C48" s="21"/>
       <c r="D48" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="E48" s="15"/>
+        <v>147</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>148</v>
+      </c>
       <c r="F48" s="16"/>
       <c r="G48" s="17"/>
       <c r="H48" s="18"/>
@@ -4100,18 +4267,18 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B49" s="23"/>
+        <v>149</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>150</v>
+      </c>
       <c r="C49" s="13" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="E49" s="24" t="s">
-        <v>159</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="E49" s="15"/>
       <c r="F49" s="16"/>
       <c r="G49" s="17"/>
       <c r="H49" s="18"/>
@@ -4120,18 +4287,18 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="B50" s="26" t="s">
-        <v>161</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="B50" s="23"/>
       <c r="C50" s="13" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="E50" s="15"/>
+        <v>155</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>156</v>
+      </c>
       <c r="F50" s="16"/>
       <c r="G50" s="17"/>
       <c r="H50" s="18"/>
@@ -4140,16 +4307,16 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="16"/>
@@ -4160,13 +4327,17 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="14"/>
+        <v>162</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>164</v>
+      </c>
       <c r="E52" s="15"/>
       <c r="F52" s="16"/>
       <c r="G52" s="17"/>
@@ -4176,14 +4347,14 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="B53" s="36"/>
+        <v>165</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>166</v>
+      </c>
       <c r="C53" s="21"/>
       <c r="D53" s="14"/>
-      <c r="E53" s="24" t="s">
-        <v>171</v>
-      </c>
+      <c r="E53" s="15"/>
       <c r="F53" s="16"/>
       <c r="G53" s="17"/>
       <c r="H53" s="18"/>
@@ -4192,14 +4363,14 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>173</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B54" s="36"/>
       <c r="C54" s="21"/>
       <c r="D54" s="14"/>
-      <c r="E54" s="15"/>
+      <c r="E54" s="24" t="s">
+        <v>168</v>
+      </c>
       <c r="F54" s="16"/>
       <c r="G54" s="17"/>
       <c r="H54" s="18"/>
@@ -4208,10 +4379,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C55" s="21"/>
       <c r="D55" s="14"/>
@@ -4224,17 +4395,13 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="D56" s="22" t="s">
-        <v>65</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C56" s="21"/>
+      <c r="D56" s="14"/>
       <c r="E56" s="15"/>
       <c r="F56" s="16"/>
       <c r="G56" s="17"/>
@@ -4244,13 +4411,17 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="C57" s="21"/>
-      <c r="D57" s="14"/>
+        <v>174</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>66</v>
+      </c>
       <c r="E57" s="15"/>
       <c r="F57" s="16"/>
       <c r="G57" s="17"/>
@@ -4260,10 +4431,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C58" s="21"/>
       <c r="D58" s="14"/>
@@ -4276,10 +4447,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C59" s="21"/>
       <c r="D59" s="14"/>
@@ -4292,15 +4463,13 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C60" s="21"/>
-      <c r="D60" s="22" t="s">
-        <v>187</v>
-      </c>
+      <c r="D60" s="14"/>
       <c r="E60" s="15"/>
       <c r="F60" s="16"/>
       <c r="G60" s="17"/>
@@ -4310,14 +4479,14 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C61" s="21"/>
       <c r="D61" s="22" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E61" s="15"/>
       <c r="F61" s="16"/>
@@ -4328,21 +4497,17 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>193</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="C62" s="21"/>
       <c r="D62" s="22" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E62" s="15"/>
-      <c r="F62" s="28" t="s">
-        <v>195</v>
-      </c>
+      <c r="F62" s="16"/>
       <c r="G62" s="17"/>
       <c r="H62" s="18"/>
       <c r="I62" s="19"/>
@@ -4350,21 +4515,21 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="E63" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="F63" s="16"/>
+        <v>191</v>
+      </c>
+      <c r="E63" s="15"/>
+      <c r="F63" s="28" t="s">
+        <v>192</v>
+      </c>
       <c r="G63" s="17"/>
       <c r="H63" s="18"/>
       <c r="I63" s="19"/>
@@ -4372,14 +4537,20 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="B64" s="36"/>
+        <v>193</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>194</v>
+      </c>
       <c r="C64" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="D64" s="14"/>
-      <c r="E64" s="15"/>
+        <v>195</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>197</v>
+      </c>
       <c r="F64" s="16"/>
       <c r="G64" s="17"/>
       <c r="H64" s="18"/>
@@ -4388,12 +4559,12 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="B65" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="C65" s="21"/>
+        <v>198</v>
+      </c>
+      <c r="B65" s="36"/>
+      <c r="C65" s="13" t="s">
+        <v>199</v>
+      </c>
       <c r="D65" s="14"/>
       <c r="E65" s="15"/>
       <c r="F65" s="16"/>
@@ -4404,60 +4575,56 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D66" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="E66" s="24" t="s">
-        <v>209</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="C66" s="21"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="15"/>
       <c r="F66" s="16"/>
       <c r="G66" s="17"/>
       <c r="H66" s="18"/>
-      <c r="I66" s="31" t="s">
-        <v>210</v>
-      </c>
+      <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="B67" s="23"/>
+        <v>202</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>203</v>
+      </c>
       <c r="C67" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D67" s="14"/>
+        <v>204</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>205</v>
+      </c>
       <c r="E67" s="24" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F67" s="16"/>
       <c r="G67" s="17"/>
       <c r="H67" s="18"/>
-      <c r="I67" s="19"/>
+      <c r="I67" s="31" t="s">
+        <v>711</v>
+      </c>
       <c r="J67" s="20"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="B68" s="26" t="s">
-        <v>215</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="B68" s="23"/>
       <c r="C68" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="D68" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="E68" s="15"/>
+        <v>208</v>
+      </c>
+      <c r="D68" s="14"/>
+      <c r="E68" s="24" t="s">
+        <v>209</v>
+      </c>
       <c r="F68" s="16"/>
       <c r="G68" s="17"/>
       <c r="H68" s="18"/>
@@ -4466,16 +4633,16 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D69" s="22" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E69" s="15"/>
       <c r="F69" s="16"/>
@@ -4486,13 +4653,17 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="C70" s="21"/>
-      <c r="D70" s="14"/>
+        <v>215</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>217</v>
+      </c>
       <c r="E70" s="15"/>
       <c r="F70" s="16"/>
       <c r="G70" s="17"/>
@@ -4502,14 +4673,12 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>226</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="C71" s="21"/>
       <c r="D71" s="14"/>
       <c r="E71" s="15"/>
       <c r="F71" s="16"/>
@@ -4520,12 +4689,14 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="C72" s="21"/>
+        <v>221</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>222</v>
+      </c>
       <c r="D72" s="14"/>
       <c r="E72" s="15"/>
       <c r="F72" s="16"/>
@@ -4536,14 +4707,14 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="B73" s="23"/>
+        <v>223</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>224</v>
+      </c>
       <c r="C73" s="21"/>
       <c r="D73" s="14"/>
-      <c r="E73" s="24" t="s">
-        <v>230</v>
-      </c>
+      <c r="E73" s="15"/>
       <c r="F73" s="16"/>
       <c r="G73" s="17"/>
       <c r="H73" s="18"/>
@@ -4552,14 +4723,14 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>232</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="B74" s="23"/>
       <c r="C74" s="21"/>
       <c r="D74" s="14"/>
-      <c r="E74" s="15"/>
+      <c r="E74" s="24" t="s">
+        <v>226</v>
+      </c>
       <c r="F74" s="16"/>
       <c r="G74" s="17"/>
       <c r="H74" s="18"/>
@@ -4568,10 +4739,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="B75" s="26" t="s">
-        <v>234</v>
+        <v>227</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>228</v>
       </c>
       <c r="C75" s="21"/>
       <c r="D75" s="14"/>
@@ -4584,20 +4755,14 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="D76" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="E76" s="24" t="s">
-        <v>239</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="C76" s="21"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="15"/>
       <c r="F76" s="16"/>
       <c r="G76" s="17"/>
       <c r="H76" s="18"/>
@@ -4606,18 +4771,20 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="E77" s="15"/>
+        <v>234</v>
+      </c>
+      <c r="E77" s="24" t="s">
+        <v>235</v>
+      </c>
       <c r="F77" s="16"/>
       <c r="G77" s="17"/>
       <c r="H77" s="18"/>
@@ -4626,13 +4793,17 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="C78" s="21"/>
-      <c r="D78" s="14"/>
+        <v>237</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D78" s="22" t="s">
+        <v>239</v>
+      </c>
       <c r="E78" s="15"/>
       <c r="F78" s="16"/>
       <c r="G78" s="17"/>
@@ -4642,14 +4813,12 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>248</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="C79" s="21"/>
       <c r="D79" s="14"/>
       <c r="E79" s="15"/>
       <c r="F79" s="16"/>
@@ -4660,17 +4829,15 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="D80" s="22" t="s">
-        <v>252</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="D80" s="14"/>
       <c r="E80" s="15"/>
       <c r="F80" s="16"/>
       <c r="G80" s="17"/>
@@ -4680,18 +4847,18 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="C81" s="21"/>
+        <v>246</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>247</v>
+      </c>
       <c r="D81" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="E81" s="24" t="s">
-        <v>256</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="E81" s="15"/>
       <c r="F81" s="16"/>
       <c r="G81" s="17"/>
       <c r="H81" s="18"/>
@@ -4700,58 +4867,62 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B82" s="26" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C82" s="21"/>
       <c r="D82" s="22" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E82" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="F82" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="G82" s="38" t="s">
-        <v>262</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="F82" s="16"/>
+      <c r="G82" s="17"/>
       <c r="H82" s="18"/>
-      <c r="I82" s="31" t="s">
-        <v>263</v>
-      </c>
+      <c r="I82" s="19"/>
       <c r="J82" s="20"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B83" s="26" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C83" s="21"/>
-      <c r="D83" s="14"/>
+      <c r="D83" s="22" t="s">
+        <v>255</v>
+      </c>
       <c r="E83" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="F83" s="16"/>
-      <c r="G83" s="17"/>
+        <v>256</v>
+      </c>
+      <c r="F83" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="G83" s="38" t="s">
+        <v>258</v>
+      </c>
       <c r="H83" s="18"/>
-      <c r="I83" s="19"/>
+      <c r="I83" s="31" t="s">
+        <v>259</v>
+      </c>
       <c r="J83" s="20"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B84" s="26" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C84" s="21"/>
       <c r="D84" s="14"/>
-      <c r="E84" s="15"/>
+      <c r="E84" s="24" t="s">
+        <v>262</v>
+      </c>
       <c r="F84" s="16"/>
       <c r="G84" s="17"/>
       <c r="H84" s="18"/>
@@ -4760,10 +4931,10 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B85" s="26" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C85" s="21"/>
       <c r="D85" s="14"/>
@@ -4776,16 +4947,14 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="B86" s="23"/>
-      <c r="C86" s="39" t="s">
-        <v>272</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="B86" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="C86" s="21"/>
       <c r="D86" s="14"/>
-      <c r="E86" s="24" t="s">
-        <v>273</v>
-      </c>
+      <c r="E86" s="15"/>
       <c r="F86" s="16"/>
       <c r="G86" s="17"/>
       <c r="H86" s="18"/>
@@ -4794,14 +4963,16 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="B87" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="C87" s="21"/>
+        <v>267</v>
+      </c>
+      <c r="B87" s="23"/>
+      <c r="C87" s="39" t="s">
+        <v>268</v>
+      </c>
       <c r="D87" s="14"/>
-      <c r="E87" s="15"/>
+      <c r="E87" s="24" t="s">
+        <v>269</v>
+      </c>
       <c r="F87" s="16"/>
       <c r="G87" s="17"/>
       <c r="H87" s="18"/>
@@ -4810,10 +4981,10 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C88" s="21"/>
       <c r="D88" s="14"/>
@@ -4826,18 +4997,14 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B89" s="26" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C89" s="21"/>
-      <c r="D89" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="E89" s="24" t="s">
-        <v>281</v>
-      </c>
+      <c r="D89" s="14"/>
+      <c r="E89" s="15"/>
       <c r="F89" s="16"/>
       <c r="G89" s="17"/>
       <c r="H89" s="18"/>
@@ -4846,14 +5013,18 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="B90" s="23"/>
-      <c r="C90" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="D90" s="14"/>
-      <c r="E90" s="15"/>
+        <v>274</v>
+      </c>
+      <c r="B90" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="C90" s="21"/>
+      <c r="D90" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="E90" s="24" t="s">
+        <v>277</v>
+      </c>
       <c r="F90" s="16"/>
       <c r="G90" s="17"/>
       <c r="H90" s="18"/>
@@ -4862,17 +5033,13 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="B91" s="26" t="s">
-        <v>285</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="B91" s="23"/>
       <c r="C91" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="D91" s="22" t="s">
-        <v>287</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="D91" s="14"/>
       <c r="E91" s="15"/>
       <c r="F91" s="16"/>
       <c r="G91" s="17"/>
@@ -4882,14 +5049,16 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="B92" s="23"/>
+        <v>280</v>
+      </c>
+      <c r="B92" s="26" t="s">
+        <v>281</v>
+      </c>
       <c r="C92" s="13" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E92" s="15"/>
       <c r="F92" s="16"/>
@@ -4900,14 +5069,14 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="B93" s="26" t="s">
-        <v>292</v>
-      </c>
-      <c r="C93" s="21"/>
+        <v>284</v>
+      </c>
+      <c r="B93" s="23"/>
+      <c r="C93" s="13" t="s">
+        <v>285</v>
+      </c>
       <c r="D93" s="22" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E93" s="15"/>
       <c r="F93" s="16"/>
@@ -4918,13 +5087,15 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="B94" s="23"/>
-      <c r="C94" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="D94" s="14"/>
+        <v>287</v>
+      </c>
+      <c r="B94" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="C94" s="21"/>
+      <c r="D94" s="22" t="s">
+        <v>289</v>
+      </c>
       <c r="E94" s="15"/>
       <c r="F94" s="16"/>
       <c r="G94" s="17"/>
@@ -4934,12 +5105,12 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="B95" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="C95" s="21"/>
+        <v>290</v>
+      </c>
+      <c r="B95" s="23"/>
+      <c r="C95" s="13" t="s">
+        <v>291</v>
+      </c>
       <c r="D95" s="14"/>
       <c r="E95" s="15"/>
       <c r="F95" s="16"/>
@@ -4950,17 +5121,13 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="C96" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="D96" s="22" t="s">
-        <v>301</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="C96" s="21"/>
+      <c r="D96" s="14"/>
       <c r="E96" s="15"/>
       <c r="F96" s="16"/>
       <c r="G96" s="17"/>
@@ -4970,16 +5137,16 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D97" s="22" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="E97" s="15"/>
       <c r="F97" s="16"/>
@@ -4989,14 +5156,18 @@
       <c r="J97" s="20"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="40" t="s">
-        <v>306</v>
-      </c>
-      <c r="B98" s="41" t="s">
-        <v>307</v>
-      </c>
-      <c r="C98" s="21"/>
-      <c r="D98" s="14"/>
+      <c r="A98" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="B98" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D98" s="22" t="s">
+        <v>301</v>
+      </c>
       <c r="E98" s="15"/>
       <c r="F98" s="16"/>
       <c r="G98" s="17"/>
@@ -5006,12 +5177,12 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="40" t="s">
-        <v>308</v>
-      </c>
-      <c r="B99" s="36"/>
-      <c r="C99" s="13" t="s">
-        <v>309</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="B99" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="C99" s="21"/>
       <c r="D99" s="14"/>
       <c r="E99" s="15"/>
       <c r="F99" s="16"/>
@@ -5021,12 +5192,12 @@
       <c r="J99" s="20"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="B100" s="23"/>
+      <c r="A100" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="B100" s="36"/>
       <c r="C100" s="13" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D100" s="14"/>
       <c r="E100" s="15"/>
@@ -5038,12 +5209,12 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="B101" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="C101" s="21"/>
+        <v>306</v>
+      </c>
+      <c r="B101" s="23"/>
+      <c r="C101" s="13" t="s">
+        <v>307</v>
+      </c>
       <c r="D101" s="14"/>
       <c r="E101" s="15"/>
       <c r="F101" s="16"/>
@@ -5054,15 +5225,13 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="B102" s="42" t="s">
-        <v>315</v>
+        <v>308</v>
+      </c>
+      <c r="B102" s="26" t="s">
+        <v>309</v>
       </c>
       <c r="C102" s="21"/>
-      <c r="D102" s="22" t="s">
-        <v>316</v>
-      </c>
+      <c r="D102" s="14"/>
       <c r="E102" s="15"/>
       <c r="F102" s="16"/>
       <c r="G102" s="17"/>
@@ -5072,18 +5241,16 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="B103" s="26" t="s">
-        <v>318</v>
-      </c>
-      <c r="C103" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="D103" s="14"/>
-      <c r="E103" s="24" t="s">
-        <v>320</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="B103" s="42" t="s">
+        <v>311</v>
+      </c>
+      <c r="C103" s="21"/>
+      <c r="D103" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="E103" s="15"/>
       <c r="F103" s="16"/>
       <c r="G103" s="17"/>
       <c r="H103" s="18"/>
@@ -5092,14 +5259,18 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B104" s="26" t="s">
-        <v>322</v>
-      </c>
-      <c r="C104" s="21"/>
+        <v>314</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>315</v>
+      </c>
       <c r="D104" s="14"/>
-      <c r="E104" s="15"/>
+      <c r="E104" s="24" t="s">
+        <v>316</v>
+      </c>
       <c r="F104" s="16"/>
       <c r="G104" s="17"/>
       <c r="H104" s="18"/>
@@ -5108,60 +5279,58 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="B105" s="12" t="s">
-        <v>324</v>
+        <v>317</v>
+      </c>
+      <c r="B105" s="26" t="s">
+        <v>318</v>
       </c>
       <c r="C105" s="21"/>
-      <c r="D105" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="E105" s="24" t="s">
-        <v>326</v>
-      </c>
+      <c r="D105" s="14"/>
+      <c r="E105" s="15"/>
       <c r="F105" s="16"/>
       <c r="G105" s="17"/>
-      <c r="H105" s="30" t="s">
-        <v>327</v>
-      </c>
+      <c r="H105" s="18"/>
       <c r="I105" s="19"/>
-      <c r="J105" s="35" t="s">
-        <v>328</v>
-      </c>
+      <c r="J105" s="20"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="B106" s="26" t="s">
-        <v>330</v>
+        <v>319</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>320</v>
       </c>
       <c r="C106" s="21"/>
       <c r="D106" s="22" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="E106" s="24" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="F106" s="16"/>
       <c r="G106" s="17"/>
-      <c r="H106" s="18"/>
+      <c r="H106" s="30" t="s">
+        <v>323</v>
+      </c>
       <c r="I106" s="19"/>
-      <c r="J106" s="20"/>
+      <c r="J106" s="35" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B107" s="26" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C107" s="21"/>
       <c r="D107" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="E107" s="15"/>
+        <v>327</v>
+      </c>
+      <c r="E107" s="24" t="s">
+        <v>328</v>
+      </c>
       <c r="F107" s="16"/>
       <c r="G107" s="17"/>
       <c r="H107" s="18"/>
@@ -5170,28 +5339,43 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B108" s="26" t="s">
-        <v>337</v>
-      </c>
-      <c r="C108" s="13" t="s">
-        <v>338</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="C108" s="21"/>
       <c r="D108" s="22" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="E108" s="15"/>
-      <c r="F108" s="28" t="s">
-        <v>340</v>
-      </c>
+      <c r="F108" s="16"/>
       <c r="G108" s="17"/>
       <c r="H108" s="18"/>
       <c r="I108" s="19"/>
       <c r="J108" s="20"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A109" s="43"/>
+      <c r="A109" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="B109" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="D109" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="E109" s="15"/>
+      <c r="F109" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="G109" s="17"/>
+      <c r="H109" s="18"/>
+      <c r="I109" s="19"/>
+      <c r="J109" s="20"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="43"/>
@@ -8001,236 +8185,239 @@
     <row r="1045" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1045" s="43"/>
     </row>
+    <row r="1046" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1046" s="43"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J108" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:J109" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B6" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C6" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D8" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B9" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B10" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D10" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C11" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="F11" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B12" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="D12" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B13" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B14" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="D14" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C15" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B16" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B17" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B18" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B19" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="E19" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B20" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C20" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="D20" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="C21" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="D21" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C22" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="D22" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="E22" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="H22" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="I22" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B23" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C23" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="D23" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="E23" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="H23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="D24" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B25" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="E25" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B26" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="D26" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="C27" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B28" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="E28" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C29" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B30" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="C30" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D30" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B31" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="C31" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="D31" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="E31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="F31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="I31" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B32" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="C32" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="C33" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B34" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="C34" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D34" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="B35" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="C35" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="B36" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="C36" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="E36" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B37" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="D37" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="E37" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B38" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D38" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="B39" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="C40" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="B41" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="C41" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="D41" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B42" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="B43" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B44" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="B45" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="D45" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="B46" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="C46" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="D46" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="H46" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="I46" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="J46" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="B47" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D47" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="E47" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="B48" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="C48" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="D48" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="C49" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D49" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="E49" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="B50" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="C50" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D50" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="B51" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="C51" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="D51" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="B52" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="E53" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="B54" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="B55" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="B56" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="C56" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D56" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="B57" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="B58" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="B59" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="B60" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="D60" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="B61" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="D61" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="B62" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="C62" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="D62" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="F62" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="B63" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="C63" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="D63" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="E63" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="C64" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="B65" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="B66" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="C66" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="D66" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="E66" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="I66" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="C67" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="E67" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="B68" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="C68" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="D68" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="B69" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="C69" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="D69" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="B70" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="B71" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="C71" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="B72" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="E73" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="B74" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="B75" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="B76" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="C76" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="D76" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="E76" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="B77" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="C77" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="D77" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="B78" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="B79" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="C79" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="B80" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="C80" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="D80" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="B81" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="D81" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="E81" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="B82" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="D82" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="E82" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="F82" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="G82" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="I82" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="B83" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="E83" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="B84" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="B85" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="C86" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="E86" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="B87" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="B88" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="B89" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="D89" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="E89" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="C90" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="B91" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="C91" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="D91" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="C92" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="D92" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="B93" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="D93" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="C94" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="B95" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="B96" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="C96" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="D96" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="B97" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="C97" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="D97" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="B98" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="C99" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="C100" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="B101" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="B102" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="D102" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="B103" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="C103" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="E103" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="B104" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="B105" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="D105" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="E105" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="H105" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="J105" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="B106" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="D106" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="E106" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="B107" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="D107" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="B108" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="C108" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="D108" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="F108" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C7" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D7" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B8" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C8" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D9" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B10" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B11" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D11" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C12" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F12" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B13" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D13" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B14" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B15" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D15" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C16" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B17" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B18" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B19" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B20" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E20" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B21" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C21" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D21" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C22" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="D22" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C23" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="D23" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="E23" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B24" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C24" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="D24" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E24" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="D25" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B26" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="E26" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B27" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="D27" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C28" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B29" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="E29" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C30" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B31" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C31" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D31" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B32" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C32" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="D32" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="E32" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="F32" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="I32" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B33" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C33" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C34" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B35" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="C35" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D35" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B36" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="C36" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B37" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="C37" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="E37" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B38" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D38" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="E38" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B39" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D39" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B40" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="C41" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B42" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="C42" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="D42" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B43" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B44" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B45" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B46" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="D46" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B47" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C47" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="D47" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="H47" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="I47" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="J47" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B48" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D48" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="E48" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B49" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C49" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="D49" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="C50" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D50" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="E50" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B51" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C51" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D51" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B52" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="C52" r:id="rId104" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="D52" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B53" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="E54" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B55" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="B56" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="B57" r:id="rId110" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="C57" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D57" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="B58" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B59" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="B60" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B61" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="D61" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B62" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="D62" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="B63" r:id="rId120" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="C63" r:id="rId121" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="D63" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="F63" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B64" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="C64" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="D64" r:id="rId126" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="E64" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="C65" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="B66" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="B67" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="C67" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="D67" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="E67" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="C68" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="E68" r:id="rId135" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="B69" r:id="rId136" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="C69" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="D69" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B70" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="C70" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="D70" r:id="rId141" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="B71" r:id="rId142" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B72" r:id="rId143" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="C72" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B73" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="E74" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B75" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="B76" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="B77" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="C77" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="D77" r:id="rId151" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="E77" r:id="rId152" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="B78" r:id="rId153" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="C78" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="D78" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="B79" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="B80" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="C80" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="B81" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="C81" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="D81" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="B82" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="D82" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="E82" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B83" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="D83" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="E83" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="F83" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="G83" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="I83" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B84" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="E84" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B85" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="B86" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="C87" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="E87" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B88" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="B89" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B90" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="D90" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="E90" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="C91" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B92" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="C92" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="D92" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="C93" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="D93" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="B94" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="D94" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="C95" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B96" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="B97" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="C97" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="D97" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="B98" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="C98" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="D98" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="B99" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="C100" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="C101" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="B102" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B103" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="D103" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B104" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="C104" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="E104" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B105" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B106" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="D106" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="E106" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="H106" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="J106" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B107" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="D107" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="E107" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B108" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="D108" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B109" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="C109" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="D109" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="F109" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId222"/>
 </worksheet>
 </file>
 
@@ -8239,11 +8426,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8258,1017 +8445,1032 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="44"/>
+      <c r="B1" s="83" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="45" t="s">
+        <v>338</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>339</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="D2" s="46" t="s">
         <v>341</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="E2" s="46" t="s">
         <v>342</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="F2" s="46" t="s">
         <v>343</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="G2" s="46" t="s">
         <v>344</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="H2" s="46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="47" t="s">
         <v>345</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="B3" s="48" t="s">
         <v>346</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="C3" s="49" t="s">
         <v>347</v>
       </c>
-      <c r="H1" s="45" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="47" t="s">
         <v>348</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B4" s="48" t="s">
         <v>349</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C4" s="49" t="s">
         <v>350</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="46" t="s">
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="47" t="s">
         <v>351</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B5" s="50" t="s">
         <v>352</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C5" s="49" t="s">
         <v>353</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="47" t="s">
         <v>354</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B6" s="50" t="s">
         <v>355</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C6" s="49" t="s">
         <v>356</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
+      <c r="D6" s="50" t="s">
         <v>357</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="E6" s="47"/>
+      <c r="F6" s="50" t="s">
         <v>358</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="G6" s="48" t="s">
         <v>359</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="H6" s="48" t="s">
         <v>360</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="49" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="47" t="s">
         <v>361</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="B7" s="48" t="s">
         <v>362</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="C7" s="49" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="46" t="s">
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="47" t="s">
         <v>364</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B8" s="48" t="s">
         <v>365</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C8" s="49" t="s">
         <v>366</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="47" t="s">
         <v>367</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B9" s="48" t="s">
         <v>368</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C9" s="49" t="s">
         <v>369</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="46" t="s">
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="47" t="s">
         <v>370</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B10" s="48" t="s">
         <v>371</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C10" s="49" t="s">
         <v>372</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="46" t="s">
+      <c r="D10" s="47" t="s">
         <v>373</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="47" t="s">
         <v>374</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="B11" s="48" t="s">
         <v>375</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="C11" s="49" t="s">
         <v>376</v>
       </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="46" t="s">
+      <c r="D11" s="47" t="s">
         <v>377</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="47" t="s">
         <v>378</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="B12" s="50" t="s">
         <v>379</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="C12" s="49" t="s">
         <v>380</v>
       </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="46" t="s">
+      <c r="D12" s="50" t="s">
         <v>381</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="47" t="s">
         <v>382</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="B13" s="50" t="s">
         <v>383</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="C13" s="49" t="s">
         <v>384</v>
       </c>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="46" t="s">
+      <c r="D13" s="47" t="s">
         <v>385</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="E13" s="47"/>
+      <c r="F13" s="50" t="s">
         <v>386</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="47" t="s">
         <v>387</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="B14" s="48" t="s">
         <v>388</v>
       </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="49" t="s">
+      <c r="C14" s="49" t="s">
         <v>389</v>
       </c>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="46" t="s">
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="47" t="s">
         <v>390</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B15" s="48" t="s">
         <v>391</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C15" s="49" t="s">
+        <v>369</v>
+      </c>
+      <c r="D15" s="50" t="s">
         <v>392</v>
       </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="46" t="s">
+      <c r="E15" s="48" t="s">
         <v>393</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="48" t="s">
         <v>394</v>
       </c>
-      <c r="C14" s="48" t="s">
-        <v>372</v>
-      </c>
-      <c r="D14" s="49" t="s">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="47" t="s">
         <v>395</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="B16" s="48" t="s">
         <v>396</v>
       </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="47" t="s">
+      <c r="C16" s="49" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="46" t="s">
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="47" t="s">
         <v>398</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B17" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="49" t="s">
         <v>399</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="D17" s="47" t="s">
         <v>400</v>
       </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="46" t="s">
+      <c r="E17" s="47"/>
+      <c r="F17" s="48" t="s">
         <v>401</v>
       </c>
-      <c r="B16" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="48" t="s">
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="47" t="s">
         <v>402</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="B18" s="48" t="s">
         <v>403</v>
       </c>
-      <c r="E16" s="46"/>
-      <c r="F16" s="47" t="s">
+      <c r="C18" s="49" t="s">
         <v>404</v>
       </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="46" t="s">
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="47" t="s">
         <v>405</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B19" s="48" t="s">
         <v>406</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C19" s="49" t="s">
         <v>407</v>
       </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="46" t="s">
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="47" t="s">
         <v>408</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B20" s="50" t="s">
         <v>409</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C20" s="49" t="s">
         <v>410</v>
       </c>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="46" t="s">
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="47" t="s">
         <v>411</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B21" s="50" t="s">
         <v>412</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C21" s="49" t="s">
         <v>413</v>
       </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="46" t="s">
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="47" t="s">
         <v>414</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B22" s="48" t="s">
         <v>415</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C22" s="49" t="s">
         <v>416</v>
       </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="46" t="s">
+      <c r="D22" s="47" t="s">
         <v>417</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="47" t="s">
         <v>418</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="B23" s="51" t="s">
         <v>419</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="C23" s="49" t="s">
         <v>420</v>
       </c>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="46" t="s">
+      <c r="D23" s="50" t="s">
         <v>421</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="47" t="s">
         <v>422</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="B24" s="52" t="s">
         <v>423</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="C24" s="49" t="s">
         <v>424</v>
       </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="46" t="s">
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="47" t="s">
         <v>425</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B25" s="48" t="s">
         <v>426</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C25" s="49" t="s">
         <v>427</v>
       </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="46" t="s">
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="47" t="s">
         <v>428</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B26" s="48" t="s">
         <v>429</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C26" s="49" t="s">
+        <v>399</v>
+      </c>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="47" t="s">
         <v>430</v>
       </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="46" t="s">
+      <c r="B27" s="48" t="s">
         <v>431</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="C27" s="49" t="s">
         <v>432</v>
       </c>
-      <c r="C25" s="48" t="s">
-        <v>402</v>
-      </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="46" t="s">
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="47" t="s">
         <v>433</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B28" s="48" t="s">
         <v>434</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C28" s="49" t="s">
         <v>435</v>
       </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="46" t="s">
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="47" t="s">
         <v>436</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B29" s="48" t="s">
         <v>437</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C29" s="49" t="s">
         <v>438</v>
       </c>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="46" t="s">
+      <c r="D29" s="47" t="s">
         <v>439</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="E29" s="47"/>
+      <c r="F29" s="48" t="s">
+        <v>401</v>
+      </c>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="47" t="s">
         <v>440</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="B30" s="48" t="s">
         <v>441</v>
       </c>
-      <c r="D28" s="46" t="s">
+      <c r="C30" s="49" t="s">
+        <v>384</v>
+      </c>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="47" t="s">
         <v>442</v>
       </c>
-      <c r="E28" s="46"/>
-      <c r="F28" s="47" t="s">
-        <v>404</v>
-      </c>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="46" t="s">
+      <c r="B31" s="48" t="s">
         <v>443</v>
       </c>
-      <c r="B29" s="47" t="s">
+      <c r="C31" s="49" t="s">
         <v>444</v>
       </c>
-      <c r="C29" s="48" t="s">
-        <v>387</v>
-      </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="46" t="s">
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="47" t="s">
         <v>445</v>
       </c>
-      <c r="B30" s="47" t="s">
+      <c r="B32" s="48" t="s">
         <v>446</v>
       </c>
-      <c r="C30" s="48" t="s">
+      <c r="C32" s="49" t="s">
         <v>447</v>
       </c>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="46" t="s">
+      <c r="D32" s="50" t="s">
         <v>448</v>
       </c>
-      <c r="B31" s="47" t="s">
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="47" t="s">
         <v>449</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="B33" s="48" t="s">
         <v>450</v>
       </c>
-      <c r="D31" s="49" t="s">
+      <c r="C33" s="49" t="s">
         <v>451</v>
       </c>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="46" t="s">
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="47" t="s">
         <v>452</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B34" s="48" t="s">
         <v>453</v>
       </c>
-      <c r="C32" s="48" t="s">
+      <c r="C34" s="49" t="s">
         <v>454</v>
       </c>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="46" t="s">
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="47" t="s">
         <v>455</v>
       </c>
-      <c r="B33" s="47" t="s">
+      <c r="B35" s="48" t="s">
         <v>456</v>
       </c>
-      <c r="C33" s="48" t="s">
+      <c r="C35" s="49" t="s">
         <v>457</v>
       </c>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="46" t="s">
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="47" t="s">
         <v>458</v>
       </c>
-      <c r="B34" s="47" t="s">
+      <c r="B36" s="48" t="s">
         <v>459</v>
       </c>
-      <c r="C34" s="48" t="s">
+      <c r="C36" s="49" t="s">
         <v>460</v>
       </c>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="46" t="s">
+      <c r="D36" s="47" t="s">
         <v>461</v>
       </c>
-      <c r="B35" s="47" t="s">
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="47" t="s">
         <v>462</v>
       </c>
-      <c r="C35" s="48" t="s">
+      <c r="B37" s="48" t="s">
         <v>463</v>
       </c>
-      <c r="D35" s="46" t="s">
+      <c r="C37" s="49" t="s">
         <v>464</v>
       </c>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="46" t="s">
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="47" t="s">
         <v>465</v>
       </c>
-      <c r="B36" s="47" t="s">
+      <c r="B38" s="50" t="s">
         <v>466</v>
       </c>
-      <c r="C36" s="48" t="s">
+      <c r="C38" s="49" t="s">
         <v>467</v>
       </c>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="46" t="s">
+      <c r="D38" s="47" t="s">
         <v>468</v>
       </c>
-      <c r="B37" s="49" t="s">
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="47" t="s">
         <v>469</v>
       </c>
-      <c r="C37" s="48" t="s">
+      <c r="B39" s="48" t="s">
         <v>470</v>
       </c>
-      <c r="D37" s="46" t="s">
+      <c r="C39" s="49" t="s">
         <v>471</v>
       </c>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="46" t="s">
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="47" t="s">
         <v>472</v>
       </c>
-      <c r="B38" s="47" t="s">
+      <c r="B40" s="48" t="s">
         <v>473</v>
       </c>
-      <c r="C38" s="48" t="s">
+      <c r="C40" s="49" t="s">
+        <v>467</v>
+      </c>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="47" t="s">
         <v>474</v>
       </c>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="46" t="s">
+      <c r="B41" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="C41" s="49" t="s">
+        <v>380</v>
+      </c>
+      <c r="D41" s="47" t="s">
         <v>475</v>
       </c>
-      <c r="B39" s="47" t="s">
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="47" t="s">
+        <v>253</v>
+      </c>
+      <c r="B42" s="50" t="s">
+        <v>255</v>
+      </c>
+      <c r="C42" s="49" t="s">
+        <v>410</v>
+      </c>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="47" t="s">
         <v>476</v>
       </c>
-      <c r="C39" s="48" t="s">
-        <v>470</v>
-      </c>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="46" t="s">
+      <c r="B43" s="48" t="s">
         <v>477</v>
       </c>
-      <c r="B40" s="47" t="s">
-        <v>252</v>
-      </c>
-      <c r="C40" s="48" t="s">
-        <v>383</v>
-      </c>
-      <c r="D40" s="46" t="s">
+      <c r="C43" s="49" t="s">
         <v>478</v>
       </c>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="46" t="s">
-        <v>257</v>
-      </c>
-      <c r="B41" s="49" t="s">
-        <v>259</v>
-      </c>
-      <c r="C41" s="48" t="s">
-        <v>413</v>
-      </c>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="46" t="s">
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="B42" s="47" t="s">
+      <c r="B44" s="48" t="s">
         <v>480</v>
       </c>
-      <c r="C42" s="48" t="s">
+      <c r="C44" s="49" t="s">
         <v>481</v>
       </c>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="46" t="s">
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="53"/>
+      <c r="B45" s="53" t="s">
         <v>482</v>
       </c>
-      <c r="B43" s="47" t="s">
+      <c r="C45" s="54"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="47" t="s">
         <v>483</v>
       </c>
-      <c r="C43" s="48" t="s">
+      <c r="B46" s="48" t="s">
         <v>484</v>
       </c>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="52"/>
-      <c r="B44" s="52" t="s">
+      <c r="C46" s="49"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="47" t="s">
         <v>485</v>
       </c>
-      <c r="C44" s="53"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="46" t="s">
+      <c r="B47" s="48" t="s">
         <v>486</v>
       </c>
-      <c r="B45" s="47" t="s">
+      <c r="C47" s="49"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="47" t="s">
         <v>487</v>
       </c>
-      <c r="C45" s="48"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="46" t="s">
+      <c r="B48" s="48" t="s">
         <v>488</v>
       </c>
-      <c r="B46" s="47" t="s">
+      <c r="C48" s="49" t="s">
+        <v>380</v>
+      </c>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="47" t="s">
         <v>489</v>
       </c>
-      <c r="C46" s="48"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="46" t="s">
+      <c r="B49" s="48" t="s">
         <v>490</v>
       </c>
-      <c r="B47" s="47" t="s">
+      <c r="C49" s="49"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="47" t="s">
         <v>491</v>
       </c>
-      <c r="C47" s="48" t="s">
-        <v>383</v>
-      </c>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="46" t="s">
+      <c r="B50" s="48" t="s">
         <v>492</v>
       </c>
-      <c r="B48" s="47" t="s">
+      <c r="C50" s="49"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="47"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="47" t="s">
         <v>493</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="46" t="s">
+      <c r="B51" s="48" t="s">
         <v>494</v>
       </c>
-      <c r="B49" s="47" t="s">
+      <c r="C51" s="49"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="47" t="s">
         <v>495</v>
       </c>
-      <c r="C49" s="48"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="46" t="s">
+      <c r="B52" s="48" t="s">
         <v>496</v>
       </c>
-      <c r="B50" s="47" t="s">
+      <c r="C52" s="49" t="s">
         <v>497</v>
       </c>
-      <c r="C50" s="48"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="46" t="s">
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="47" t="s">
         <v>498</v>
       </c>
-      <c r="B51" s="47" t="s">
+      <c r="B53" s="48" t="s">
         <v>499</v>
       </c>
-      <c r="C51" s="48" t="s">
+      <c r="C53" s="49"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="47" t="s">
         <v>500</v>
       </c>
-      <c r="D51" s="46"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="46"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="46" t="s">
+      <c r="B54" s="48" t="s">
         <v>501</v>
       </c>
-      <c r="B52" s="47" t="s">
+      <c r="C54" s="49"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="47" t="s">
         <v>502</v>
       </c>
-      <c r="C52" s="48"/>
-      <c r="D52" s="46"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="46"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="46" t="s">
+      <c r="B55" s="50" t="s">
         <v>503</v>
       </c>
-      <c r="B53" s="47" t="s">
+      <c r="C55" s="49" t="s">
         <v>504</v>
       </c>
-      <c r="C53" s="48"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="46" t="s">
+      <c r="D55" s="47"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="47"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="54"/>
+      <c r="B56" s="54" t="s">
         <v>505</v>
       </c>
-      <c r="B54" s="49" t="s">
+      <c r="C56" s="54"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="47" t="s">
         <v>506</v>
       </c>
-      <c r="C54" s="48" t="s">
+      <c r="B57" s="48" t="s">
         <v>507</v>
       </c>
-      <c r="D54" s="46"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="46"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="53"/>
-      <c r="B55" s="53" t="s">
+      <c r="C57" s="49"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="47"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="47" t="s">
         <v>508</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="52"/>
-      <c r="H55" s="52"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="46" t="s">
+      <c r="B58" s="48" t="s">
         <v>509</v>
       </c>
-      <c r="B56" s="47" t="s">
-        <v>510</v>
-      </c>
-      <c r="C56" s="48"/>
-      <c r="D56" s="46"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="46" t="s">
-        <v>511</v>
-      </c>
-      <c r="B57" s="47" t="s">
-        <v>512</v>
-      </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="46"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C58" s="54"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="47"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C59" s="55"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:H1"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="F5" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="G5" r:id="rId7" location="CjQKIObolfr3kjhoqpaahhROvCk0XzgpqdEh6-hojizTnIN_EhA4IMJR3TVtNd9qIb1lYPin" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="H5" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="B6" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="B7" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="B8" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="B9" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="B10" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="B11" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="D11" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="B12" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="F12" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="B13" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="B14" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="D14" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="E14" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="H14" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="B15" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="B16" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="F16" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="B17" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="B18" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="B19" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="B20" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="B21" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="B22" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="D22" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="B23" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="B24" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="B25" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="B26" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="B27" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="B28" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="F28" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="B29" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="B30" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="B31" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="D31" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="B32" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="B33" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="B34" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="B35" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="B36" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="B37" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="B38" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="B39" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="B40" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="B41" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="B42" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="B43" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="B45" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="B46" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="B47" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="B48" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="B49" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="B50" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
-    <hyperlink ref="B51" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
-    <hyperlink ref="B52" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
-    <hyperlink ref="B53" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
-    <hyperlink ref="B54" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
-    <hyperlink ref="B56" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
-    <hyperlink ref="B57" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="F6" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="G6" r:id="rId7" location="CjQKIObolfr3kjhoqpaahhROvCk0XzgpqdEh6-hojizTnIN_EhA4IMJR3TVtNd9qIb1lYPin" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="H6" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="B7" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="B8" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="B9" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="B10" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="B11" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="B12" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="D12" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="B13" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="F13" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="B14" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="B15" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="D15" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="E15" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="H15" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="B16" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="B17" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="F17" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="B18" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="B19" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="B20" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="B21" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="B22" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="B23" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="D23" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="B24" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="B25" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="B26" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="B27" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="B28" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="B29" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="F29" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="B30" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="B31" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="B32" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="D32" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="B33" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="B34" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="B35" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="B36" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="B37" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="B38" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="B39" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="B40" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="B41" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="B42" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="B43" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="B44" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="B46" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="B47" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="B48" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="B49" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="B50" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="B51" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="B52" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="B53" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="B54" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="B55" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="B57" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="B58" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9279,512 +9481,418 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" customWidth="1"/>
+    <col min="3" max="3" width="48.42578125" customWidth="1"/>
     <col min="5" max="5" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="81" t="s">
+        <v>337</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="56" t="s">
+        <v>510</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>511</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="57" t="s">
         <v>513</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B3" s="57" t="s">
         <v>514</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C3" s="58" t="s">
         <v>515</v>
       </c>
-      <c r="D1" s="55" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="57" t="s">
         <v>516</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B4" s="57" t="s">
         <v>517</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C4" s="58" t="s">
         <v>518</v>
       </c>
-      <c r="D2" s="56" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="57" t="s">
         <v>519</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B5" s="57" t="s">
         <v>520</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C5" s="58" t="s">
         <v>521</v>
       </c>
-      <c r="D3" s="56" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="56" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="57" t="s">
+        <v>522</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>523</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="57" t="s">
+        <v>525</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>526</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="57" t="s">
+        <v>528</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>529</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="57" t="s">
+        <v>531</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>532</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="57" t="s">
+        <v>534</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>535</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="57" t="s">
+        <v>537</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>538</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="57" t="s">
+        <v>540</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>541</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="57" t="s">
+        <v>543</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>544</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="57" t="s">
+        <v>546</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>547</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="57" t="s">
+        <v>549</v>
+      </c>
+      <c r="B15" s="57" t="s">
+        <v>550</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="57" t="s">
+        <v>552</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>553</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="57" t="s">
+        <v>555</v>
+      </c>
+      <c r="B17" s="57" t="s">
+        <v>556</v>
+      </c>
+      <c r="C17" s="58" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="57" t="s">
+        <v>558</v>
+      </c>
+      <c r="B18" s="57" t="s">
+        <v>559</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="57" t="s">
+        <v>561</v>
+      </c>
+      <c r="B19" s="57" t="s">
+        <v>562</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="57" t="s">
+        <v>564</v>
+      </c>
+      <c r="B20" s="57" t="s">
+        <v>565</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="57" t="s">
+        <v>567</v>
+      </c>
+      <c r="B21" s="57" t="s">
+        <v>568</v>
+      </c>
+      <c r="C21" s="58" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="57" t="s">
+        <v>570</v>
+      </c>
+      <c r="B22" s="57" t="s">
+        <v>571</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="57" t="s">
+        <v>573</v>
+      </c>
+      <c r="B23" s="57" t="s">
+        <v>574</v>
+      </c>
+      <c r="C23" s="58"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="57" t="s">
+        <v>575</v>
+      </c>
+      <c r="B24" s="57" t="s">
+        <v>576</v>
+      </c>
+      <c r="C24" s="58" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="57" t="s">
+        <v>578</v>
+      </c>
+      <c r="B25" s="57" t="s">
+        <v>579</v>
+      </c>
+      <c r="C25" s="58" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="57" t="s">
+        <v>581</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>582</v>
+      </c>
+      <c r="C26" s="58" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="57" t="s">
+        <v>584</v>
+      </c>
+      <c r="B27" s="57" t="s">
+        <v>585</v>
+      </c>
+      <c r="C27" s="58" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="57" t="s">
+        <v>587</v>
+      </c>
+      <c r="B28" s="57" t="s">
+        <v>585</v>
+      </c>
+      <c r="C28" s="58" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="59" t="s">
+        <v>589</v>
+      </c>
+      <c r="B32" s="59" t="s">
+        <v>511</v>
+      </c>
+      <c r="C32" s="60"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="61" t="s">
+        <v>531</v>
+      </c>
+      <c r="B33" s="61" t="s">
+        <v>532</v>
+      </c>
+      <c r="C33" s="60"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="62" t="s">
+        <v>182</v>
+      </c>
+      <c r="B34" s="62" t="s">
+        <v>590</v>
+      </c>
+      <c r="C34" s="60"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="62" t="s">
+        <v>591</v>
+      </c>
+      <c r="B35" s="62" t="s">
+        <v>592</v>
+      </c>
+      <c r="C35" s="60"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="62" t="s">
+        <v>593</v>
+      </c>
+      <c r="B36" s="62" t="s">
+        <v>594</v>
+      </c>
+      <c r="C36" s="60"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="62" t="s">
+        <v>595</v>
+      </c>
+      <c r="B37" s="63" t="s">
+        <v>596</v>
+      </c>
+      <c r="C37" s="64"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="62" t="s">
+        <v>597</v>
+      </c>
+      <c r="B38" s="62" t="s">
+        <v>328</v>
+      </c>
+      <c r="C38" s="60"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="62" t="s">
+        <v>598</v>
+      </c>
+      <c r="B39" s="62" t="s">
+        <v>599</v>
+      </c>
+      <c r="C39" s="65"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="66" t="s">
         <v>600</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B40" s="66" t="s">
         <v>601</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="56" t="s">
-        <v>522</v>
-      </c>
-      <c r="B5" s="56" t="s">
-        <v>523</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>524</v>
-      </c>
-      <c r="D5" s="56" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="56" t="s">
-        <v>525</v>
-      </c>
-      <c r="B6" s="56" t="s">
-        <v>526</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>527</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="56" t="s">
-        <v>597</v>
-      </c>
-      <c r="B7" s="56" t="s">
-        <v>598</v>
-      </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="56" t="s">
-        <v>528</v>
-      </c>
-      <c r="B8" s="56" t="s">
-        <v>529</v>
-      </c>
-      <c r="C8" s="57" t="s">
-        <v>530</v>
-      </c>
-      <c r="D8" s="56" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="56" t="s">
-        <v>531</v>
-      </c>
-      <c r="B9" s="56" t="s">
-        <v>532</v>
-      </c>
-      <c r="C9" s="57" t="s">
-        <v>533</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="56" t="s">
-        <v>602</v>
-      </c>
-      <c r="B10" s="56" t="s">
-        <v>603</v>
-      </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="56" t="s">
-        <v>593</v>
-      </c>
-      <c r="B11" s="56" t="s">
-        <v>594</v>
-      </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="56" t="s">
-        <v>534</v>
-      </c>
-      <c r="B12" s="56" t="s">
-        <v>535</v>
-      </c>
-      <c r="C12" s="57" t="s">
-        <v>536</v>
-      </c>
-      <c r="D12" s="56" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="56" t="s">
-        <v>534</v>
-      </c>
-      <c r="B13" s="56" t="s">
-        <v>535</v>
-      </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="56" t="s">
-        <v>537</v>
-      </c>
-      <c r="B14" s="56" t="s">
-        <v>538</v>
-      </c>
-      <c r="C14" s="57" t="s">
-        <v>539</v>
-      </c>
-      <c r="D14" s="56" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="56" t="s">
-        <v>540</v>
-      </c>
-      <c r="B15" s="56" t="s">
-        <v>541</v>
-      </c>
-      <c r="C15" s="57" t="s">
-        <v>542</v>
-      </c>
-      <c r="D15" s="56" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="56" t="s">
-        <v>543</v>
-      </c>
-      <c r="B16" s="56" t="s">
-        <v>544</v>
-      </c>
-      <c r="C16" s="57" t="s">
-        <v>545</v>
-      </c>
-      <c r="D16" s="56" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="56" t="s">
-        <v>546</v>
-      </c>
-      <c r="B17" s="56" t="s">
-        <v>547</v>
-      </c>
-      <c r="C17" s="57" t="s">
-        <v>548</v>
-      </c>
-      <c r="D17" s="56" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="56" t="s">
-        <v>549</v>
-      </c>
-      <c r="B18" s="56" t="s">
-        <v>550</v>
-      </c>
-      <c r="C18" s="57" t="s">
-        <v>551</v>
-      </c>
-      <c r="D18" s="56" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="56" t="s">
-        <v>552</v>
-      </c>
-      <c r="B19" s="56" t="s">
-        <v>553</v>
-      </c>
-      <c r="C19" s="57" t="s">
-        <v>554</v>
-      </c>
-      <c r="D19" s="56" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="56" t="s">
-        <v>555</v>
-      </c>
-      <c r="B20" s="56" t="s">
-        <v>556</v>
-      </c>
-      <c r="C20" s="57" t="s">
-        <v>557</v>
-      </c>
-      <c r="D20" s="56" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="56" t="s">
-        <v>558</v>
-      </c>
-      <c r="B21" s="56" t="s">
-        <v>559</v>
-      </c>
-      <c r="C21" s="57" t="s">
-        <v>560</v>
-      </c>
-      <c r="D21" s="56" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="56" t="s">
-        <v>561</v>
-      </c>
-      <c r="B22" s="56" t="s">
-        <v>562</v>
-      </c>
-      <c r="C22" s="57" t="s">
-        <v>563</v>
-      </c>
-      <c r="D22" s="56" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="56" t="s">
-        <v>185</v>
-      </c>
-      <c r="B23" s="56" t="s">
-        <v>592</v>
-      </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="56" t="s">
-        <v>564</v>
-      </c>
-      <c r="B24" s="56" t="s">
-        <v>565</v>
-      </c>
-      <c r="C24" s="57" t="s">
-        <v>566</v>
-      </c>
-      <c r="D24" s="56" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="56" t="s">
+      <c r="C40" s="65"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="66" t="s">
         <v>567</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="B41" s="57" t="s">
         <v>568</v>
       </c>
-      <c r="C25" s="57" t="s">
-        <v>569</v>
-      </c>
-      <c r="D25" s="56" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="56" t="s">
-        <v>595</v>
-      </c>
-      <c r="B26" s="56" t="s">
-        <v>596</v>
-      </c>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="56" t="s">
-        <v>570</v>
-      </c>
-      <c r="B27" s="56" t="s">
-        <v>571</v>
-      </c>
-      <c r="C27" s="57" t="s">
-        <v>572</v>
-      </c>
-      <c r="D27" s="56" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="56" t="s">
-        <v>570</v>
-      </c>
-      <c r="B28" s="56" t="s">
-        <v>571</v>
-      </c>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="56" t="s">
-        <v>573</v>
-      </c>
-      <c r="B29" s="56" t="s">
-        <v>574</v>
-      </c>
-      <c r="C29" s="57" t="s">
-        <v>575</v>
-      </c>
-      <c r="D29" s="56" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="56" t="s">
-        <v>576</v>
-      </c>
-      <c r="B30" s="56" t="s">
-        <v>577</v>
-      </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="56" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="56" t="s">
-        <v>578</v>
-      </c>
-      <c r="B31" s="56" t="s">
-        <v>579</v>
-      </c>
-      <c r="C31" s="57" t="s">
-        <v>580</v>
-      </c>
-      <c r="D31" s="56" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="56" t="s">
-        <v>581</v>
-      </c>
-      <c r="B32" s="56" t="s">
-        <v>582</v>
-      </c>
-      <c r="C32" s="57" t="s">
-        <v>583</v>
-      </c>
-      <c r="D32" s="56" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="56" t="s">
-        <v>584</v>
-      </c>
-      <c r="B33" s="56" t="s">
-        <v>585</v>
-      </c>
-      <c r="C33" s="57" t="s">
-        <v>586</v>
-      </c>
-      <c r="D33" s="56" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="56" t="s">
-        <v>587</v>
-      </c>
-      <c r="B34" s="56" t="s">
-        <v>588</v>
-      </c>
-      <c r="C34" s="57" t="s">
-        <v>589</v>
-      </c>
-      <c r="D34" s="56" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="56" t="s">
-        <v>590</v>
-      </c>
-      <c r="B35" s="56" t="s">
-        <v>588</v>
-      </c>
-      <c r="C35" s="57" t="s">
-        <v>591</v>
-      </c>
-      <c r="D35" s="56" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="56" t="s">
-        <v>599</v>
-      </c>
-      <c r="B36" s="56" t="s">
-        <v>332</v>
-      </c>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56" t="s">
-        <v>708</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D36">
-    <sortCondition ref="A2:A36"/>
-  </sortState>
-  <conditionalFormatting sqref="A2:C23">
-    <cfRule type="colorScale" priority="2">
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A3:C24 A32:B41 C32:C37">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9794,66 +9902,66 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
     <hyperlink ref="B5" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
     <hyperlink ref="C5" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
     <hyperlink ref="B6" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
     <hyperlink ref="C6" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="B8" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="C8" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="B9" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="C9" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="B12" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="C12" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="B14" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="C14" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="B15" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="C15" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="B16" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="C16" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="B17" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink ref="C17" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink ref="B18" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink ref="C18" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink ref="B19" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
-    <hyperlink ref="C19" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
-    <hyperlink ref="B20" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
-    <hyperlink ref="C20" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
-    <hyperlink ref="B21" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
-    <hyperlink ref="C21" r:id="rId30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
-    <hyperlink ref="B22" r:id="rId31" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
-    <hyperlink ref="C22" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
-    <hyperlink ref="B24" r:id="rId33" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
-    <hyperlink ref="C24" r:id="rId34" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
-    <hyperlink ref="B25" r:id="rId35" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
-    <hyperlink ref="C25" r:id="rId36" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
-    <hyperlink ref="B27" r:id="rId37" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
-    <hyperlink ref="C27" r:id="rId38" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
-    <hyperlink ref="B29" r:id="rId39" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
-    <hyperlink ref="C29" r:id="rId40" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
-    <hyperlink ref="B30" r:id="rId41" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
-    <hyperlink ref="B31" r:id="rId42" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
-    <hyperlink ref="C31" r:id="rId43" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
-    <hyperlink ref="B32" r:id="rId44" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
-    <hyperlink ref="C32" r:id="rId45" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
-    <hyperlink ref="B33" r:id="rId46" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
-    <hyperlink ref="C33" r:id="rId47" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
-    <hyperlink ref="B34" r:id="rId48" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
-    <hyperlink ref="C34" r:id="rId49" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
-    <hyperlink ref="B35" r:id="rId50" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
-    <hyperlink ref="C35" r:id="rId51" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
-    <hyperlink ref="B13" r:id="rId52" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
-    <hyperlink ref="B23" r:id="rId53" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
-    <hyperlink ref="B11" r:id="rId54" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
-    <hyperlink ref="B26" r:id="rId55" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
-    <hyperlink ref="B7" r:id="rId56" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
-    <hyperlink ref="B36" r:id="rId57" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
-    <hyperlink ref="B4" r:id="rId58" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
-    <hyperlink ref="B10" r:id="rId59" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
-    <hyperlink ref="B28" r:id="rId60" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
+    <hyperlink ref="B7" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="C7" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="B8" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="C8" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="B9" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="C9" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="B10" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="C10" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="B11" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="C11" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="B12" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="C12" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="B13" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="C13" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="B14" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="C14" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="B15" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="C15" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="B16" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="C16" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="B17" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink ref="C17" r:id="rId30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink ref="B18" r:id="rId31" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
+    <hyperlink ref="C18" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
+    <hyperlink ref="B19" r:id="rId33" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
+    <hyperlink ref="C19" r:id="rId34" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
+    <hyperlink ref="B20" r:id="rId35" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
+    <hyperlink ref="C20" r:id="rId36" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
+    <hyperlink ref="B21" r:id="rId37" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
+    <hyperlink ref="C21" r:id="rId38" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
+    <hyperlink ref="B22" r:id="rId39" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
+    <hyperlink ref="C22" r:id="rId40" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
+    <hyperlink ref="B23" r:id="rId41" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
+    <hyperlink ref="B24" r:id="rId42" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
+    <hyperlink ref="C24" r:id="rId43" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
+    <hyperlink ref="B25" r:id="rId44" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
+    <hyperlink ref="C25" r:id="rId45" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
+    <hyperlink ref="B26" r:id="rId46" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
+    <hyperlink ref="C26" r:id="rId47" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
+    <hyperlink ref="B27" r:id="rId48" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
+    <hyperlink ref="C27" r:id="rId49" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
+    <hyperlink ref="B28" r:id="rId50" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
+    <hyperlink ref="C28" r:id="rId51" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
+    <hyperlink ref="B33" r:id="rId52" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
+    <hyperlink ref="B34" r:id="rId53" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
+    <hyperlink ref="B35" r:id="rId54" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
+    <hyperlink ref="B36" r:id="rId55" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
+    <hyperlink ref="B37" r:id="rId56" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
+    <hyperlink ref="B38" r:id="rId57" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
+    <hyperlink ref="B39" r:id="rId58" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
+    <hyperlink ref="B40" r:id="rId59" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
+    <hyperlink ref="B41" r:id="rId60" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9864,11 +9972,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9879,279 +9987,317 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="81" t="s">
+        <v>337</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="67"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="84" t="s">
+        <v>602</v>
+      </c>
+      <c r="B2" s="85"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="67"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="87" t="s">
+        <v>603</v>
+      </c>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="67"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="88" t="s">
         <v>604</v>
       </c>
-      <c r="B1" s="59" t="s">
-        <v>343</v>
-      </c>
-      <c r="C1" s="59" t="s">
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="67"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="68" t="s">
         <v>605</v>
       </c>
-      <c r="D1" s="58"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="60" t="s">
+      <c r="B5" s="68" t="s">
+        <v>340</v>
+      </c>
+      <c r="C5" s="68" t="s">
         <v>606</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>407</v>
-      </c>
-      <c r="C2" s="61" t="s">
+      <c r="D5" s="67"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="69" t="s">
         <v>607</v>
       </c>
-      <c r="D2" s="58"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="62" t="s">
+      <c r="B6" s="69" t="s">
+        <v>404</v>
+      </c>
+      <c r="C6" s="70" t="s">
         <v>608</v>
       </c>
-      <c r="B3" s="63" t="s">
-        <v>402</v>
-      </c>
-      <c r="C3" s="64" t="s">
+      <c r="D6" s="67"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="71" t="s">
         <v>609</v>
       </c>
-      <c r="D3" s="58"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="B7" s="72" t="s">
+        <v>399</v>
+      </c>
+      <c r="C7" s="73" t="s">
         <v>610</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="D7" s="67"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="69" t="s">
         <v>611</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="B8" s="69" t="s">
         <v>612</v>
       </c>
-      <c r="D4" s="58"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="60" t="s">
+      <c r="C8" s="70" t="s">
         <v>613</v>
       </c>
-      <c r="B5" s="60" t="s">
-        <v>470</v>
-      </c>
-      <c r="C5" s="61" t="s">
+      <c r="D8" s="67"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="69" t="s">
         <v>614</v>
       </c>
-      <c r="D5" s="58"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="65" t="s">
+      <c r="B9" s="69" t="s">
+        <v>467</v>
+      </c>
+      <c r="C9" s="70" t="s">
         <v>615</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="D9" s="67"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="74" t="s">
         <v>616</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="B10" s="74" t="s">
         <v>617</v>
       </c>
-      <c r="D6" s="58"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="65" t="s">
+      <c r="C10" s="73" t="s">
         <v>618</v>
       </c>
-      <c r="B7" s="65" t="s">
-        <v>402</v>
-      </c>
-      <c r="C7" s="64" t="s">
+      <c r="D10" s="67"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="74" t="s">
         <v>619</v>
       </c>
-      <c r="D7" s="58"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="65" t="s">
+      <c r="B11" s="74" t="s">
+        <v>399</v>
+      </c>
+      <c r="C11" s="73" t="s">
         <v>620</v>
       </c>
-      <c r="B8" s="65" t="s">
-        <v>402</v>
-      </c>
-      <c r="C8" s="64" t="s">
+      <c r="D11" s="67"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="74" t="s">
         <v>621</v>
       </c>
-      <c r="D8" s="58"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="60" t="s">
-        <v>543</v>
-      </c>
-      <c r="B9" s="60" t="s">
-        <v>447</v>
-      </c>
-      <c r="C9" s="61" t="s">
+      <c r="B12" s="74" t="s">
+        <v>399</v>
+      </c>
+      <c r="C12" s="73" t="s">
         <v>622</v>
       </c>
-      <c r="D9" s="58"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="60" t="s">
-        <v>549</v>
-      </c>
-      <c r="B10" s="60" t="s">
-        <v>402</v>
-      </c>
-      <c r="C10" s="61" t="s">
+      <c r="D12" s="67"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="69" t="s">
+        <v>540</v>
+      </c>
+      <c r="B13" s="69" t="s">
+        <v>444</v>
+      </c>
+      <c r="C13" s="70" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="65" t="s">
-        <v>558</v>
-      </c>
-      <c r="B11" s="63" t="s">
-        <v>402</v>
-      </c>
-      <c r="C11" s="64" t="s">
+      <c r="D13" s="67"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="69" t="s">
+        <v>546</v>
+      </c>
+      <c r="B14" s="69" t="s">
+        <v>399</v>
+      </c>
+      <c r="C14" s="70" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="60" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="74" t="s">
+        <v>555</v>
+      </c>
+      <c r="B15" s="72" t="s">
+        <v>399</v>
+      </c>
+      <c r="C15" s="73" t="s">
         <v>625</v>
       </c>
-      <c r="B12" s="60" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="69" t="s">
         <v>626</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="B16" s="69" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="60" t="s">
+      <c r="C16" s="70" t="s">
         <v>628</v>
       </c>
-      <c r="B13" s="60" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="69" t="s">
         <v>629</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="B17" s="69" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="65" t="s">
+      <c r="C17" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="B14" s="65" t="s">
-        <v>402</v>
-      </c>
-      <c r="C14" s="64" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="74" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="60" t="s">
+      <c r="B18" s="74" t="s">
+        <v>399</v>
+      </c>
+      <c r="C18" s="73" t="s">
         <v>633</v>
       </c>
-      <c r="B15" s="60" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="69" t="s">
         <v>634</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="B19" s="69" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="60" t="s">
+      <c r="C19" s="70" t="s">
         <v>636</v>
       </c>
-      <c r="B16" s="60" t="s">
-        <v>402</v>
-      </c>
-      <c r="C16" s="61" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="69" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="65" t="s">
-        <v>636</v>
-      </c>
-      <c r="B17" s="65" t="s">
-        <v>402</v>
-      </c>
-      <c r="C17" s="64" t="s">
+      <c r="B20" s="69" t="s">
+        <v>399</v>
+      </c>
+      <c r="C20" s="70" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="60" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="74" t="s">
+        <v>637</v>
+      </c>
+      <c r="B21" s="74" t="s">
+        <v>399</v>
+      </c>
+      <c r="C21" s="73" t="s">
         <v>639</v>
       </c>
-      <c r="B18" s="60" t="s">
-        <v>383</v>
-      </c>
-      <c r="C18" s="61" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="69" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="62" t="s">
+      <c r="B22" s="69" t="s">
+        <v>380</v>
+      </c>
+      <c r="C22" s="70" t="s">
         <v>641</v>
       </c>
-      <c r="B19" s="63" t="s">
-        <v>441</v>
-      </c>
-      <c r="C19" s="66" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="71" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="62" t="s">
+      <c r="B23" s="72" t="s">
+        <v>438</v>
+      </c>
+      <c r="C23" s="75" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="71" t="s">
+        <v>584</v>
+      </c>
+      <c r="B24" s="71" t="s">
+        <v>644</v>
+      </c>
+      <c r="C24" s="75" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="71" t="s">
         <v>587</v>
       </c>
-      <c r="B20" s="62" t="s">
-        <v>643</v>
-      </c>
-      <c r="C20" s="66" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="62" t="s">
-        <v>590</v>
-      </c>
-      <c r="B21" s="62" t="s">
-        <v>402</v>
-      </c>
-      <c r="C21" s="66" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="65" t="s">
-        <v>644</v>
-      </c>
-      <c r="B22" s="65" t="s">
-        <v>402</v>
-      </c>
-      <c r="C22" s="64" t="s">
+      <c r="B25" s="71" t="s">
+        <v>399</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="74" t="s">
         <v>645</v>
       </c>
+      <c r="B26" s="74" t="s">
+        <v>399</v>
+      </c>
+      <c r="C26" s="73" t="s">
+        <v>646</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
-    <hyperlink ref="C16" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
-    <hyperlink ref="C17" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
-    <hyperlink ref="C18" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
-    <hyperlink ref="C19" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
-    <hyperlink ref="C20" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
-    <hyperlink ref="C21" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
-    <hyperlink ref="C22" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="C11" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="C12" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="C13" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="C14" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="C15" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="C16" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="C17" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="C18" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="C19" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="C20" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="C21" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="C22" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
+    <hyperlink ref="C23" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
+    <hyperlink ref="C24" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
+    <hyperlink ref="C25" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
+    <hyperlink ref="C26" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10162,269 +10308,285 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="78" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" customWidth="1"/>
+    <col min="4" max="4" width="41.5703125" customWidth="1"/>
+    <col min="5" max="5" width="33" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="A1" s="83" t="s">
+        <v>337</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="C2" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="67" t="s">
+      <c r="F2" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="B2" s="68" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="76" t="s">
         <v>651</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="B3" s="77" t="s">
         <v>652</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="C3" s="78" t="s">
         <v>653</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="D3" s="76" t="s">
         <v>654</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="E3" s="76" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="67" t="s">
+      <c r="F3" s="77" t="s">
         <v>656</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="68"/>
-    </row>
-    <row r="4" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="67" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="76" t="s">
         <v>657</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="77"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="77"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="76" t="s">
         <v>658</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="B5" s="77" t="s">
         <v>659</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="C5" s="79" t="s">
         <v>660</v>
       </c>
-      <c r="E4" s="67" t="s">
+      <c r="D5" s="76" t="s">
         <v>661</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="E5" s="76" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="67" t="s">
+      <c r="F5" s="77" t="s">
         <v>663</v>
       </c>
-      <c r="B5" s="68" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="76" t="s">
         <v>664</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="B6" s="77" t="s">
         <v>665</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="C6" s="80" t="s">
         <v>666</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="D6" s="76" t="s">
         <v>667</v>
       </c>
-      <c r="F5" s="68" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="67" t="s">
+      <c r="E6" s="76" t="s">
         <v>668</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="F6" s="77" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="76" t="s">
         <v>669</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="B7" s="77" t="s">
         <v>670</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="C7" s="79" t="s">
         <v>671</v>
       </c>
-      <c r="E6" s="67" t="s">
+      <c r="D7" s="76" t="s">
         <v>672</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="E7" s="76" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="67" t="s">
+      <c r="F7" s="77" t="s">
         <v>674</v>
       </c>
-      <c r="B7" s="68" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="76" t="s">
         <v>675</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="B8" s="77" t="s">
         <v>676</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="C8" s="79" t="s">
         <v>677</v>
       </c>
-      <c r="E7" s="67" t="s">
+      <c r="D8" s="76" t="s">
         <v>678</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="E8" s="76" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="67" t="s">
+      <c r="F8" s="77" t="s">
         <v>680</v>
       </c>
-      <c r="B8" s="68" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="76" t="s">
         <v>681</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="B9" s="77" t="s">
         <v>682</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="C9" s="79" t="s">
         <v>683</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="D9" s="76" t="s">
         <v>684</v>
       </c>
-      <c r="F8" s="68" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="A9" s="67" t="s">
+      <c r="E9" s="76" t="s">
         <v>685</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="F9" s="77" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="76" t="s">
         <v>686</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="B10" s="77" t="s">
         <v>687</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="C10" s="79" t="s">
         <v>688</v>
       </c>
-      <c r="E9" s="67" t="s">
+      <c r="D10" s="76" t="s">
         <v>689</v>
       </c>
-      <c r="F9" s="68" t="s">
+      <c r="E10" s="76" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="67" t="s">
+      <c r="F10" s="77" t="s">
         <v>691</v>
       </c>
-      <c r="B10" s="68" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="76" t="s">
         <v>692</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="B11" s="77" t="s">
         <v>693</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="C11" s="79" t="s">
         <v>694</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="D11" s="76" t="s">
         <v>695</v>
       </c>
-      <c r="F10" s="68" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="67" t="s">
+      <c r="E11" s="76" t="s">
         <v>696</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="68"/>
-    </row>
-    <row r="12" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="67" t="s">
+      <c r="F11" s="77" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="76" t="s">
         <v>697</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="77"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="77"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="76" t="s">
         <v>698</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="B13" s="77" t="s">
         <v>699</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="C13" s="79" t="s">
         <v>700</v>
       </c>
-      <c r="E12" s="67" t="s">
+      <c r="D13" s="76" t="s">
         <v>701</v>
       </c>
-      <c r="F12" s="68" t="s">
+      <c r="E13" s="76" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="A13" s="67" t="s">
+      <c r="F13" s="77" t="s">
         <v>703</v>
       </c>
-      <c r="B13" s="68" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="76" t="s">
         <v>704</v>
       </c>
-      <c r="C13" s="70" t="s">
-        <v>320</v>
-      </c>
-      <c r="D13" s="67" t="s">
+      <c r="B14" s="77" t="s">
         <v>705</v>
       </c>
-      <c r="E13" s="67" t="s">
+      <c r="C14" s="79" t="s">
+        <v>316</v>
+      </c>
+      <c r="D14" s="76" t="s">
         <v>706</v>
       </c>
-      <c r="F13" s="68" t="s">
-        <v>655</v>
+      <c r="E14" s="76" t="s">
+        <v>707</v>
+      </c>
+      <c r="F14" s="77" t="s">
+        <v>656</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
-    <hyperlink ref="C10" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
-    <hyperlink ref="C12" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
-    <hyperlink ref="C13" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="C10" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="C11" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Boardgamers em Portugal_BD.xlsx
+++ b/Boardgamers em Portugal_BD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizador\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6311CE-F703-4D6D-8BC8-203A5256E85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F61E46-62D9-4DE0-A31A-5B7866B60E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,17 +20,14 @@
     <sheet name="CONVENÇÕES" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CRIADORES DE CONTEÚDO'!$A$2:$J$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CRIADORES DE CONTEÚDO'!$A$1:$J$108</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="712">
-  <si>
-    <t xml:space="preserve">        ⚠️ EM ACTUALIZAÇÃO ⚠️        </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="710">
   <si>
     <t>Criadores de conteudo</t>
   </si>
@@ -233,6 +230,12 @@
     <t>https://cidadecuriosa.wixsite.com/cidadecuriosa/</t>
   </si>
   <si>
+    <t>twitch.tv/cidadecuriosa</t>
+  </si>
+  <si>
+    <t>discord.gg/kN5qRZjr</t>
+  </si>
+  <si>
     <t>clumsy dice</t>
   </si>
   <si>
@@ -248,6 +251,9 @@
     <t>https://linktr.ee/clumsydice</t>
   </si>
   <si>
+    <t>twitch.tv/clumsydice</t>
+  </si>
+  <si>
     <t>corvo branco</t>
   </si>
   <si>
@@ -464,6 +470,9 @@
     <t>https://discord.com/invite/PyHUWTW8uD</t>
   </si>
   <si>
+    <t>tiktok.com/@jogamosboardgames</t>
+  </si>
+  <si>
     <t>Jogo Eu (Carlos Abrunhosa)</t>
   </si>
   <si>
@@ -648,6 +657,9 @@
   </si>
   <si>
     <t>https://metenamesa.pt/</t>
+  </si>
+  <si>
+    <t>discord.gg/GGtDGGvszQ</t>
   </si>
   <si>
     <t>meus jogos</t>
@@ -1069,9 +1081,6 @@
     <t>https://open.spotify.com/show/5iJOTNws77TmouVAaX5x97?si=-m0XS1dOR-ag9Vbtna0KNw&amp;utm_source=copy-link</t>
   </si>
   <si>
-    <t xml:space="preserve">	⚠️ EM ACTUALIZAÇÃO ⚠️	</t>
-  </si>
-  <si>
     <t>Nome</t>
   </si>
   <si>
@@ -1127,39 +1136,6 @@
   </si>
   <si>
     <t>Guimarães</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Quartas às 15h30 no @oreidoscachorros_guimaraes </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://maps.app.goo.gl/a33qxtEg88LqBMsL6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Quintas às 21h00 no @bloco.bouldering </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://maps.app.goo.gl/ZorY3LNPh1pMjqjS7</t>
-    </r>
   </si>
   <si>
     <t>https://chat.whatsapp.com/KQBcH1QKpyFHndUQ8t39Hi</t>
@@ -1929,9 +1905,6 @@
     <t>https://maps.app.goo.gl/XpvYdZNTFuxuNqbP8</t>
   </si>
   <si>
-    <t>EDITORAS</t>
-  </si>
-  <si>
     <t>http://www.mebo.pt/</t>
   </si>
   <si>
@@ -1966,15 +1939,6 @@
   </si>
   <si>
     <t>https://www.cardslabgames.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REDE BOARDGAME FRIENDLY </t>
-  </si>
-  <si>
-    <t>espaços (cafés, bares, pastelarias e afins) onde se reúnem e ocorrem actividades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  relacionadas com jogos de tabuleiro modernos (board games)</t>
   </si>
   <si>
     <t>ESPAÇOS</t>
@@ -2294,23 +2258,53 @@
     <t>18 a 20 de Outubro de 2024</t>
   </si>
   <si>
-    <t>https://www.twitch.tv/cidade_curiosa</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/clumsydice</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@jogamosboardgames</t>
-  </si>
-  <si>
-    <t>https://discord.com/invite/GGtDGGvszQ</t>
+    <t>Loja</t>
+  </si>
+  <si>
+    <t>Editora</t>
+  </si>
+  <si>
+    <t>Loja/Editora</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Quartas às 15h30 no @oreidoscachorros_guimaraes </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">https://maps.app.goo.gl/a33qxtEg88LqBMsL6
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Quintas às 21h00 no @bloco.bouldering </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://maps.app.goo.gl/ZorY3LNPh1pMjqjS7</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2537,42 +2531,8 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -2620,23 +2580,17 @@
     <font>
       <u/>
       <sz val="10"/>
-      <color theme="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="32">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor theme="8"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2778,18 +2732,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4A86E8"/>
-        <bgColor rgb="FF4A86E8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF6FA8DC"/>
         <bgColor rgb="FF6FA8DC"/>
       </patternFill>
@@ -2813,7 +2755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2821,93 +2763,34 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2916,16 +2799,16 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2946,208 +2829,160 @@
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="27" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="50" fillId="22" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="44" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3364,11 +3199,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J1046"/>
+  <dimension ref="A1:J1045"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I67" sqref="I67"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3386,62 +3221,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>10</v>
       </c>
+      <c r="B2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="14"/>
+        <v>14</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22" t="s">
+        <v>15</v>
+      </c>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
       <c r="G3" s="17"/>
@@ -3451,16 +3290,14 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>15</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B4" s="23"/>
       <c r="C4" s="21"/>
-      <c r="D4" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="15"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="24" t="s">
+        <v>17</v>
+      </c>
       <c r="F4" s="16"/>
       <c r="G4" s="17"/>
       <c r="H4" s="18"/>
@@ -3469,13 +3306,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="21"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="24" t="s">
-        <v>18</v>
+      <c r="E5" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="17"/>
@@ -3485,14 +3322,18 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="25" t="s">
         <v>20</v>
       </c>
+      <c r="B6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="15"/>
       <c r="F6" s="16"/>
       <c r="G6" s="17"/>
       <c r="H6" s="18"/>
@@ -3501,17 +3342,15 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>25</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D7" s="14"/>
       <c r="E7" s="15"/>
       <c r="F7" s="16"/>
       <c r="G7" s="17"/>
@@ -3521,15 +3360,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22" t="s">
+        <v>28</v>
+      </c>
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
       <c r="G8" s="17"/>
@@ -3539,13 +3376,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="27"/>
+        <v>29</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>30</v>
+      </c>
       <c r="C9" s="21"/>
-      <c r="D9" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="D9" s="14"/>
       <c r="E9" s="15"/>
       <c r="F9" s="16"/>
       <c r="G9" s="17"/>
@@ -3555,13 +3392,15 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="21"/>
-      <c r="D10" s="14"/>
+      <c r="D10" s="22" t="s">
+        <v>33</v>
+      </c>
       <c r="E10" s="15"/>
       <c r="F10" s="16"/>
       <c r="G10" s="17"/>
@@ -3571,17 +3410,17 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22" t="s">
         <v>34</v>
       </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="14"/>
       <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
+      <c r="F11" s="28" t="s">
+        <v>36</v>
+      </c>
       <c r="G11" s="17"/>
       <c r="H11" s="18"/>
       <c r="I11" s="19"/>
@@ -3589,17 +3428,17 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="14"/>
+        <v>37</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22" t="s">
+        <v>39</v>
+      </c>
       <c r="E12" s="15"/>
-      <c r="F12" s="28" t="s">
-        <v>37</v>
-      </c>
+      <c r="F12" s="16"/>
       <c r="G12" s="17"/>
       <c r="H12" s="18"/>
       <c r="I12" s="19"/>
@@ -3607,15 +3446,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C13" s="21"/>
-      <c r="D13" s="22" t="s">
-        <v>40</v>
-      </c>
+      <c r="D13" s="14"/>
       <c r="E13" s="15"/>
       <c r="F13" s="16"/>
       <c r="G13" s="17"/>
@@ -3625,13 +3462,15 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="21"/>
-      <c r="D14" s="14"/>
+      <c r="D14" s="29" t="s">
+        <v>44</v>
+      </c>
       <c r="E14" s="15"/>
       <c r="F14" s="16"/>
       <c r="G14" s="17"/>
@@ -3641,15 +3480,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="29" t="s">
         <v>45</v>
       </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="14"/>
       <c r="E15" s="15"/>
       <c r="F15" s="16"/>
       <c r="G15" s="17"/>
@@ -3659,12 +3496,12 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="13" t="s">
         <v>47</v>
       </c>
+      <c r="B16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="21"/>
       <c r="D16" s="14"/>
       <c r="E16" s="15"/>
       <c r="F16" s="16"/>
@@ -3675,10 +3512,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="12" t="s">
         <v>49</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>50</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="14"/>
@@ -3691,10 +3528,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="14"/>
@@ -3707,14 +3544,16 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
+      <c r="E19" s="24" t="s">
+        <v>55</v>
+      </c>
       <c r="F19" s="16"/>
       <c r="G19" s="17"/>
       <c r="H19" s="18"/>
@@ -3723,16 +3562,18 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="24" t="s">
-        <v>56</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="15"/>
       <c r="F20" s="16"/>
       <c r="G20" s="17"/>
       <c r="H20" s="18"/>
@@ -3741,16 +3582,14 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>58</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B21" s="23"/>
       <c r="C21" s="13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="16"/>
@@ -3761,78 +3600,80 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="15"/>
+        <v>65</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>66</v>
+      </c>
       <c r="F22" s="16"/>
       <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="19"/>
+      <c r="H22" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="31" t="s">
+        <v>68</v>
+      </c>
       <c r="J22" s="20"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="23"/>
+        <v>69</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>70</v>
+      </c>
       <c r="C23" s="13" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="17"/>
       <c r="H23" s="30" t="s">
-        <v>708</v>
-      </c>
-      <c r="I23" s="31"/>
+        <v>74</v>
+      </c>
+      <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>70</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>72</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="E24" s="15"/>
       <c r="F24" s="16"/>
       <c r="G24" s="17"/>
-      <c r="H24" s="30" t="s">
-        <v>709</v>
-      </c>
+      <c r="H24" s="18"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="23"/>
+        <v>77</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>78</v>
+      </c>
       <c r="C25" s="21"/>
-      <c r="D25" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="15"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="24" t="s">
+        <v>79</v>
+      </c>
       <c r="F25" s="16"/>
       <c r="G25" s="17"/>
       <c r="H25" s="18"/>
@@ -3841,16 +3682,16 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C26" s="21"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="24" t="s">
-        <v>77</v>
-      </c>
+      <c r="D26" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="15"/>
       <c r="F26" s="16"/>
       <c r="G26" s="17"/>
       <c r="H26" s="18"/>
@@ -3859,15 +3700,13 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22" t="s">
-        <v>80</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B27" s="23"/>
+      <c r="C27" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="14"/>
       <c r="E27" s="15"/>
       <c r="F27" s="16"/>
       <c r="G27" s="17"/>
@@ -3877,14 +3716,16 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="13" t="s">
-        <v>82</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="21"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="15"/>
+      <c r="E28" s="24" t="s">
+        <v>87</v>
+      </c>
       <c r="F28" s="16"/>
       <c r="G28" s="17"/>
       <c r="H28" s="18"/>
@@ -3893,16 +3734,14 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="21"/>
+        <v>88</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="13" t="s">
+        <v>89</v>
+      </c>
       <c r="D29" s="14"/>
-      <c r="E29" s="24" t="s">
-        <v>85</v>
-      </c>
+      <c r="E29" s="15"/>
       <c r="F29" s="16"/>
       <c r="G29" s="17"/>
       <c r="H29" s="18"/>
@@ -3911,13 +3750,17 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" s="23"/>
+        <v>90</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>91</v>
+      </c>
       <c r="C30" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" s="14"/>
+        <v>92</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>93</v>
+      </c>
       <c r="E30" s="15"/>
       <c r="F30" s="16"/>
       <c r="G30" s="17"/>
@@ -3927,59 +3770,55 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="16"/>
+        <v>97</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>99</v>
+      </c>
       <c r="G31" s="17"/>
       <c r="H31" s="18"/>
-      <c r="I31" s="19"/>
+      <c r="I31" s="31" t="s">
+        <v>100</v>
+      </c>
       <c r="J31" s="20"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="F32" s="28" t="s">
-        <v>97</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="16"/>
       <c r="G32" s="17"/>
       <c r="H32" s="18"/>
-      <c r="I32" s="31" t="s">
-        <v>98</v>
-      </c>
+      <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>100</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B33" s="23"/>
       <c r="C33" s="13" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="15"/>
@@ -3991,13 +3830,17 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B34" s="23"/>
+        <v>106</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>107</v>
+      </c>
       <c r="C34" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D34" s="14"/>
+        <v>108</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>109</v>
+      </c>
       <c r="E34" s="15"/>
       <c r="F34" s="16"/>
       <c r="G34" s="17"/>
@@ -4007,17 +3850,15 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>107</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D35" s="14"/>
       <c r="E35" s="15"/>
       <c r="F35" s="16"/>
       <c r="G35" s="17"/>
@@ -4027,16 +3868,18 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="15"/>
+        <v>115</v>
+      </c>
+      <c r="D36" s="33"/>
+      <c r="E36" s="24" t="s">
+        <v>116</v>
+      </c>
       <c r="F36" s="16"/>
       <c r="G36" s="17"/>
       <c r="H36" s="18"/>
@@ -4045,17 +3888,17 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37" s="33"/>
+        <v>117</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="21"/>
+      <c r="D37" s="22" t="s">
+        <v>119</v>
+      </c>
       <c r="E37" s="24" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="17"/>
@@ -4065,18 +3908,16 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>116</v>
+        <v>121</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>122</v>
       </c>
       <c r="C38" s="21"/>
       <c r="D38" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>118</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="E38" s="15"/>
       <c r="F38" s="16"/>
       <c r="G38" s="17"/>
       <c r="H38" s="18"/>
@@ -4085,15 +3926,13 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C39" s="21"/>
-      <c r="D39" s="22" t="s">
-        <v>121</v>
-      </c>
+      <c r="D39" s="14"/>
       <c r="E39" s="15"/>
       <c r="F39" s="16"/>
       <c r="G39" s="17"/>
@@ -4103,12 +3942,12 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="C40" s="21"/>
+        <v>126</v>
+      </c>
+      <c r="B40" s="23"/>
+      <c r="C40" s="34" t="s">
+        <v>127</v>
+      </c>
       <c r="D40" s="14"/>
       <c r="E40" s="15"/>
       <c r="F40" s="16"/>
@@ -4119,13 +3958,17 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41" s="14"/>
+        <v>128</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>131</v>
+      </c>
       <c r="E41" s="15"/>
       <c r="F41" s="16"/>
       <c r="G41" s="17"/>
@@ -4135,17 +3978,13 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>129</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="C42" s="21"/>
+      <c r="D42" s="14"/>
       <c r="E42" s="15"/>
       <c r="F42" s="16"/>
       <c r="G42" s="17"/>
@@ -4155,10 +3994,10 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C43" s="21"/>
       <c r="D43" s="14"/>
@@ -4171,10 +4010,10 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C44" s="21"/>
       <c r="D44" s="14"/>
@@ -4187,13 +4026,15 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C45" s="21"/>
-      <c r="D45" s="14"/>
+      <c r="D45" s="22" t="s">
+        <v>140</v>
+      </c>
       <c r="E45" s="15"/>
       <c r="F45" s="16"/>
       <c r="G45" s="17"/>
@@ -4203,62 +4044,64 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="C46" s="21"/>
+        <v>142</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>143</v>
+      </c>
       <c r="D46" s="22" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="16"/>
       <c r="G46" s="17"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="H46" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="I46" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="J46" s="35" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>141</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="C47" s="21"/>
       <c r="D47" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="E47" s="15"/>
+        <v>150</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>151</v>
+      </c>
       <c r="F47" s="16"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="I47" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="J47" s="90" t="s">
-        <v>710</v>
-      </c>
+      <c r="H47" s="18"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="20"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="C48" s="21"/>
+        <v>153</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>154</v>
+      </c>
       <c r="D48" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="E48" s="24" t="s">
-        <v>148</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="E48" s="15"/>
       <c r="F48" s="16"/>
       <c r="G48" s="17"/>
       <c r="H48" s="18"/>
@@ -4267,18 +4110,18 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>150</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="B49" s="23"/>
       <c r="C49" s="13" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="E49" s="15"/>
+        <v>158</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>159</v>
+      </c>
       <c r="F49" s="16"/>
       <c r="G49" s="17"/>
       <c r="H49" s="18"/>
@@ -4287,18 +4130,18 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B50" s="23"/>
+        <v>160</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>161</v>
+      </c>
       <c r="C50" s="13" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="E50" s="24" t="s">
-        <v>156</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="E50" s="15"/>
       <c r="F50" s="16"/>
       <c r="G50" s="17"/>
       <c r="H50" s="18"/>
@@ -4307,16 +4150,16 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="16"/>
@@ -4327,17 +4170,13 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="D52" s="22" t="s">
-        <v>164</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="C52" s="21"/>
+      <c r="D52" s="14"/>
       <c r="E52" s="15"/>
       <c r="F52" s="16"/>
       <c r="G52" s="17"/>
@@ -4347,14 +4186,14 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="B53" s="26" t="s">
-        <v>166</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="B53" s="36"/>
       <c r="C53" s="21"/>
       <c r="D53" s="14"/>
-      <c r="E53" s="15"/>
+      <c r="E53" s="24" t="s">
+        <v>171</v>
+      </c>
       <c r="F53" s="16"/>
       <c r="G53" s="17"/>
       <c r="H53" s="18"/>
@@ -4363,14 +4202,14 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="B54" s="36"/>
+        <v>172</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>173</v>
+      </c>
       <c r="C54" s="21"/>
       <c r="D54" s="14"/>
-      <c r="E54" s="24" t="s">
-        <v>168</v>
-      </c>
+      <c r="E54" s="15"/>
       <c r="F54" s="16"/>
       <c r="G54" s="17"/>
       <c r="H54" s="18"/>
@@ -4379,10 +4218,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C55" s="21"/>
       <c r="D55" s="14"/>
@@ -4395,13 +4234,17 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="14"/>
+        <v>177</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>65</v>
+      </c>
       <c r="E56" s="15"/>
       <c r="F56" s="16"/>
       <c r="G56" s="17"/>
@@ -4411,17 +4254,13 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D57" s="22" t="s">
-        <v>66</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="C57" s="21"/>
+      <c r="D57" s="14"/>
       <c r="E57" s="15"/>
       <c r="F57" s="16"/>
       <c r="G57" s="17"/>
@@ -4431,10 +4270,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C58" s="21"/>
       <c r="D58" s="14"/>
@@ -4447,10 +4286,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C59" s="21"/>
       <c r="D59" s="14"/>
@@ -4463,13 +4302,15 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C60" s="21"/>
-      <c r="D60" s="14"/>
+      <c r="D60" s="22" t="s">
+        <v>187</v>
+      </c>
       <c r="E60" s="15"/>
       <c r="F60" s="16"/>
       <c r="G60" s="17"/>
@@ -4479,14 +4320,14 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C61" s="21"/>
       <c r="D61" s="22" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E61" s="15"/>
       <c r="F61" s="16"/>
@@ -4497,17 +4338,21 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="C62" s="21"/>
+        <v>192</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>193</v>
+      </c>
       <c r="D62" s="22" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="E62" s="15"/>
-      <c r="F62" s="16"/>
+      <c r="F62" s="28" t="s">
+        <v>195</v>
+      </c>
       <c r="G62" s="17"/>
       <c r="H62" s="18"/>
       <c r="I62" s="19"/>
@@ -4515,21 +4360,21 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="E63" s="15"/>
-      <c r="F63" s="28" t="s">
-        <v>192</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="F63" s="16"/>
       <c r="G63" s="17"/>
       <c r="H63" s="18"/>
       <c r="I63" s="19"/>
@@ -4537,20 +4382,14 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="B64" s="26" t="s">
-        <v>194</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B64" s="36"/>
       <c r="C64" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="D64" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="E64" s="24" t="s">
-        <v>197</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="D64" s="14"/>
+      <c r="E64" s="15"/>
       <c r="F64" s="16"/>
       <c r="G64" s="17"/>
       <c r="H64" s="18"/>
@@ -4559,12 +4398,12 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="B65" s="36"/>
-      <c r="C65" s="13" t="s">
-        <v>199</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="C65" s="21"/>
       <c r="D65" s="14"/>
       <c r="E65" s="15"/>
       <c r="F65" s="16"/>
@@ -4575,56 +4414,60 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="C66" s="21"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="15"/>
+        <v>206</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="E66" s="24" t="s">
+        <v>209</v>
+      </c>
       <c r="F66" s="16"/>
       <c r="G66" s="17"/>
       <c r="H66" s="18"/>
-      <c r="I66" s="19"/>
+      <c r="I66" s="31" t="s">
+        <v>210</v>
+      </c>
       <c r="J66" s="20"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="B67" s="26" t="s">
-        <v>203</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="B67" s="23"/>
       <c r="C67" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="D67" s="22" t="s">
-        <v>205</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="D67" s="14"/>
       <c r="E67" s="24" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="F67" s="16"/>
       <c r="G67" s="17"/>
       <c r="H67" s="18"/>
-      <c r="I67" s="31" t="s">
-        <v>711</v>
-      </c>
+      <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="B68" s="23"/>
+        <v>214</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>215</v>
+      </c>
       <c r="C68" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="D68" s="14"/>
-      <c r="E68" s="24" t="s">
-        <v>209</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="E68" s="15"/>
       <c r="F68" s="16"/>
       <c r="G68" s="17"/>
       <c r="H68" s="18"/>
@@ -4633,16 +4476,16 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="D69" s="22" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="E69" s="15"/>
       <c r="F69" s="16"/>
@@ -4653,17 +4496,13 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="D70" s="22" t="s">
-        <v>217</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="C70" s="21"/>
+      <c r="D70" s="14"/>
       <c r="E70" s="15"/>
       <c r="F70" s="16"/>
       <c r="G70" s="17"/>
@@ -4673,12 +4512,14 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="C71" s="21"/>
+        <v>225</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>226</v>
+      </c>
       <c r="D71" s="14"/>
       <c r="E71" s="15"/>
       <c r="F71" s="16"/>
@@ -4689,14 +4530,12 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>222</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="C72" s="21"/>
       <c r="D72" s="14"/>
       <c r="E72" s="15"/>
       <c r="F72" s="16"/>
@@ -4707,14 +4546,14 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="B73" s="26" t="s">
-        <v>224</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="B73" s="23"/>
       <c r="C73" s="21"/>
       <c r="D73" s="14"/>
-      <c r="E73" s="15"/>
+      <c r="E73" s="24" t="s">
+        <v>230</v>
+      </c>
       <c r="F73" s="16"/>
       <c r="G73" s="17"/>
       <c r="H73" s="18"/>
@@ -4723,14 +4562,14 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="B74" s="23"/>
+        <v>231</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>232</v>
+      </c>
       <c r="C74" s="21"/>
       <c r="D74" s="14"/>
-      <c r="E74" s="24" t="s">
-        <v>226</v>
-      </c>
+      <c r="E74" s="15"/>
       <c r="F74" s="16"/>
       <c r="G74" s="17"/>
       <c r="H74" s="18"/>
@@ -4739,10 +4578,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="B75" s="12" t="s">
-        <v>228</v>
+        <v>233</v>
+      </c>
+      <c r="B75" s="26" t="s">
+        <v>234</v>
       </c>
       <c r="C75" s="21"/>
       <c r="D75" s="14"/>
@@ -4755,14 +4594,20 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="C76" s="21"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="15"/>
+        <v>236</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D76" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E76" s="24" t="s">
+        <v>239</v>
+      </c>
       <c r="F76" s="16"/>
       <c r="G76" s="17"/>
       <c r="H76" s="18"/>
@@ -4771,20 +4616,18 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="E77" s="24" t="s">
-        <v>235</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="E77" s="15"/>
       <c r="F77" s="16"/>
       <c r="G77" s="17"/>
       <c r="H77" s="18"/>
@@ -4793,17 +4636,13 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="D78" s="22" t="s">
-        <v>239</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="C78" s="21"/>
+      <c r="D78" s="14"/>
       <c r="E78" s="15"/>
       <c r="F78" s="16"/>
       <c r="G78" s="17"/>
@@ -4813,12 +4652,14 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="C79" s="21"/>
+        <v>247</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>248</v>
+      </c>
       <c r="D79" s="14"/>
       <c r="E79" s="15"/>
       <c r="F79" s="16"/>
@@ -4829,15 +4670,17 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="D80" s="14"/>
+        <v>251</v>
+      </c>
+      <c r="D80" s="22" t="s">
+        <v>252</v>
+      </c>
       <c r="E80" s="15"/>
       <c r="F80" s="16"/>
       <c r="G80" s="17"/>
@@ -4847,18 +4690,18 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>247</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C81" s="21"/>
       <c r="D81" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="E81" s="15"/>
+        <v>255</v>
+      </c>
+      <c r="E81" s="24" t="s">
+        <v>256</v>
+      </c>
       <c r="F81" s="16"/>
       <c r="G81" s="17"/>
       <c r="H81" s="18"/>
@@ -4867,62 +4710,58 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B82" s="26" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="C82" s="21"/>
       <c r="D82" s="22" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E82" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="F82" s="16"/>
-      <c r="G82" s="17"/>
+        <v>260</v>
+      </c>
+      <c r="F82" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="G82" s="38" t="s">
+        <v>262</v>
+      </c>
       <c r="H82" s="18"/>
-      <c r="I82" s="19"/>
+      <c r="I82" s="31" t="s">
+        <v>263</v>
+      </c>
       <c r="J82" s="20"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="B83" s="26" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="C83" s="21"/>
-      <c r="D83" s="22" t="s">
-        <v>255</v>
-      </c>
+      <c r="D83" s="14"/>
       <c r="E83" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="F83" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="G83" s="38" t="s">
-        <v>258</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="F83" s="16"/>
+      <c r="G83" s="17"/>
       <c r="H83" s="18"/>
-      <c r="I83" s="31" t="s">
-        <v>259</v>
-      </c>
+      <c r="I83" s="19"/>
       <c r="J83" s="20"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B84" s="26" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C84" s="21"/>
       <c r="D84" s="14"/>
-      <c r="E84" s="24" t="s">
-        <v>262</v>
-      </c>
+      <c r="E84" s="15"/>
       <c r="F84" s="16"/>
       <c r="G84" s="17"/>
       <c r="H84" s="18"/>
@@ -4931,10 +4770,10 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B85" s="26" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C85" s="21"/>
       <c r="D85" s="14"/>
@@ -4947,14 +4786,16 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="B86" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="C86" s="21"/>
+        <v>271</v>
+      </c>
+      <c r="B86" s="23"/>
+      <c r="C86" s="39" t="s">
+        <v>272</v>
+      </c>
       <c r="D86" s="14"/>
-      <c r="E86" s="15"/>
+      <c r="E86" s="24" t="s">
+        <v>273</v>
+      </c>
       <c r="F86" s="16"/>
       <c r="G86" s="17"/>
       <c r="H86" s="18"/>
@@ -4963,16 +4804,14 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="B87" s="23"/>
-      <c r="C87" s="39" t="s">
-        <v>268</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="B87" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="C87" s="21"/>
       <c r="D87" s="14"/>
-      <c r="E87" s="24" t="s">
-        <v>269</v>
-      </c>
+      <c r="E87" s="15"/>
       <c r="F87" s="16"/>
       <c r="G87" s="17"/>
       <c r="H87" s="18"/>
@@ -4981,10 +4820,10 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C88" s="21"/>
       <c r="D88" s="14"/>
@@ -4997,14 +4836,18 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B89" s="26" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C89" s="21"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="15"/>
+      <c r="D89" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="E89" s="24" t="s">
+        <v>281</v>
+      </c>
       <c r="F89" s="16"/>
       <c r="G89" s="17"/>
       <c r="H89" s="18"/>
@@ -5013,18 +4856,14 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="B90" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="C90" s="21"/>
-      <c r="D90" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="E90" s="24" t="s">
-        <v>277</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="B90" s="23"/>
+      <c r="C90" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="D90" s="14"/>
+      <c r="E90" s="15"/>
       <c r="F90" s="16"/>
       <c r="G90" s="17"/>
       <c r="H90" s="18"/>
@@ -5033,13 +4872,17 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="B91" s="23"/>
+        <v>284</v>
+      </c>
+      <c r="B91" s="26" t="s">
+        <v>285</v>
+      </c>
       <c r="C91" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="D91" s="14"/>
+        <v>286</v>
+      </c>
+      <c r="D91" s="22" t="s">
+        <v>287</v>
+      </c>
       <c r="E91" s="15"/>
       <c r="F91" s="16"/>
       <c r="G91" s="17"/>
@@ -5049,16 +4892,14 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="B92" s="26" t="s">
-        <v>281</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="B92" s="23"/>
       <c r="C92" s="13" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="E92" s="15"/>
       <c r="F92" s="16"/>
@@ -5069,14 +4910,14 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="B93" s="23"/>
-      <c r="C93" s="13" t="s">
-        <v>285</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="B93" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="C93" s="21"/>
       <c r="D93" s="22" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="E93" s="15"/>
       <c r="F93" s="16"/>
@@ -5087,15 +4928,13 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="B94" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="C94" s="21"/>
-      <c r="D94" s="22" t="s">
-        <v>289</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="B94" s="23"/>
+      <c r="C94" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="D94" s="14"/>
       <c r="E94" s="15"/>
       <c r="F94" s="16"/>
       <c r="G94" s="17"/>
@@ -5105,12 +4944,12 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="B95" s="23"/>
-      <c r="C95" s="13" t="s">
-        <v>291</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="B95" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="C95" s="21"/>
       <c r="D95" s="14"/>
       <c r="E95" s="15"/>
       <c r="F95" s="16"/>
@@ -5121,13 +4960,17 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="C96" s="21"/>
-      <c r="D96" s="14"/>
+        <v>299</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D96" s="22" t="s">
+        <v>301</v>
+      </c>
       <c r="E96" s="15"/>
       <c r="F96" s="16"/>
       <c r="G96" s="17"/>
@@ -5137,16 +4980,16 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="D97" s="22" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="E97" s="15"/>
       <c r="F97" s="16"/>
@@ -5156,18 +4999,14 @@
       <c r="J97" s="20"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="B98" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="C98" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="D98" s="22" t="s">
-        <v>301</v>
-      </c>
+      <c r="A98" s="40" t="s">
+        <v>306</v>
+      </c>
+      <c r="B98" s="41" t="s">
+        <v>307</v>
+      </c>
+      <c r="C98" s="21"/>
+      <c r="D98" s="14"/>
       <c r="E98" s="15"/>
       <c r="F98" s="16"/>
       <c r="G98" s="17"/>
@@ -5177,12 +5016,12 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="40" t="s">
-        <v>302</v>
-      </c>
-      <c r="B99" s="41" t="s">
-        <v>303</v>
-      </c>
-      <c r="C99" s="21"/>
+        <v>308</v>
+      </c>
+      <c r="B99" s="36"/>
+      <c r="C99" s="13" t="s">
+        <v>309</v>
+      </c>
       <c r="D99" s="14"/>
       <c r="E99" s="15"/>
       <c r="F99" s="16"/>
@@ -5192,12 +5031,12 @@
       <c r="J99" s="20"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" s="40" t="s">
-        <v>304</v>
-      </c>
-      <c r="B100" s="36"/>
+      <c r="A100" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="B100" s="23"/>
       <c r="C100" s="13" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D100" s="14"/>
       <c r="E100" s="15"/>
@@ -5209,12 +5048,12 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="B101" s="23"/>
-      <c r="C101" s="13" t="s">
-        <v>307</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="B101" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="C101" s="21"/>
       <c r="D101" s="14"/>
       <c r="E101" s="15"/>
       <c r="F101" s="16"/>
@@ -5225,13 +5064,15 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="B102" s="26" t="s">
-        <v>309</v>
+        <v>314</v>
+      </c>
+      <c r="B102" s="42" t="s">
+        <v>315</v>
       </c>
       <c r="C102" s="21"/>
-      <c r="D102" s="14"/>
+      <c r="D102" s="22" t="s">
+        <v>316</v>
+      </c>
       <c r="E102" s="15"/>
       <c r="F102" s="16"/>
       <c r="G102" s="17"/>
@@ -5241,16 +5082,18 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="B103" s="42" t="s">
-        <v>311</v>
-      </c>
-      <c r="C103" s="21"/>
-      <c r="D103" s="22" t="s">
-        <v>312</v>
-      </c>
-      <c r="E103" s="15"/>
+        <v>317</v>
+      </c>
+      <c r="B103" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="D103" s="14"/>
+      <c r="E103" s="24" t="s">
+        <v>320</v>
+      </c>
       <c r="F103" s="16"/>
       <c r="G103" s="17"/>
       <c r="H103" s="18"/>
@@ -5259,18 +5102,14 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B104" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="C104" s="13" t="s">
-        <v>315</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="C104" s="21"/>
       <c r="D104" s="14"/>
-      <c r="E104" s="24" t="s">
-        <v>316</v>
-      </c>
+      <c r="E104" s="15"/>
       <c r="F104" s="16"/>
       <c r="G104" s="17"/>
       <c r="H104" s="18"/>
@@ -5279,58 +5118,60 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="B105" s="26" t="s">
-        <v>318</v>
+        <v>323</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>324</v>
       </c>
       <c r="C105" s="21"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="15"/>
+      <c r="D105" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="E105" s="24" t="s">
+        <v>326</v>
+      </c>
       <c r="F105" s="16"/>
       <c r="G105" s="17"/>
-      <c r="H105" s="18"/>
+      <c r="H105" s="30" t="s">
+        <v>327</v>
+      </c>
       <c r="I105" s="19"/>
-      <c r="J105" s="20"/>
+      <c r="J105" s="35" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="B106" s="12" t="s">
-        <v>320</v>
+        <v>329</v>
+      </c>
+      <c r="B106" s="26" t="s">
+        <v>330</v>
       </c>
       <c r="C106" s="21"/>
       <c r="D106" s="22" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="E106" s="24" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="F106" s="16"/>
       <c r="G106" s="17"/>
-      <c r="H106" s="30" t="s">
-        <v>323</v>
-      </c>
+      <c r="H106" s="18"/>
       <c r="I106" s="19"/>
-      <c r="J106" s="35" t="s">
-        <v>324</v>
-      </c>
+      <c r="J106" s="20"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B107" s="26" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C107" s="21"/>
       <c r="D107" s="22" t="s">
-        <v>327</v>
-      </c>
-      <c r="E107" s="24" t="s">
-        <v>328</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="E107" s="15"/>
       <c r="F107" s="16"/>
       <c r="G107" s="17"/>
       <c r="H107" s="18"/>
@@ -5339,43 +5180,28 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="B108" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="C108" s="21"/>
+        <v>337</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>338</v>
+      </c>
       <c r="D108" s="22" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="E108" s="15"/>
-      <c r="F108" s="16"/>
+      <c r="F108" s="28" t="s">
+        <v>340</v>
+      </c>
       <c r="G108" s="17"/>
       <c r="H108" s="18"/>
       <c r="I108" s="19"/>
       <c r="J108" s="20"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A109" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="B109" s="26" t="s">
-        <v>333</v>
-      </c>
-      <c r="C109" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="D109" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="E109" s="15"/>
-      <c r="F109" s="28" t="s">
-        <v>336</v>
-      </c>
-      <c r="G109" s="17"/>
-      <c r="H109" s="18"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="20"/>
+      <c r="A109" s="43"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="43"/>
@@ -8185,239 +8011,236 @@
     <row r="1045" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1045" s="43"/>
     </row>
-    <row r="1046" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1046" s="43"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:J109" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
-  </mergeCells>
+  <autoFilter ref="A1:J108" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C7" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D7" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B8" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C8" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D9" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B10" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B11" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D11" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C12" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="F12" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B13" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="D13" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B14" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B15" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="D15" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C16" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B17" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B18" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B19" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B20" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="E20" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B21" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C21" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="D21" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="C22" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="D22" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C23" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="D23" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="E23" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B24" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C24" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="D24" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="E24" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="D25" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B26" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="E26" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B27" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="D27" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="C28" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B29" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="E29" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C30" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B31" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="C31" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D31" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B32" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="C32" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="D32" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="E32" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="F32" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="I32" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B33" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="C33" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="C34" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B35" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="C35" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D35" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="B36" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="C36" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="B37" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="C37" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="E37" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B38" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="D38" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="E38" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B39" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D39" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="B40" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="C41" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="B42" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="C42" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="D42" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B43" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="B44" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B45" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="B46" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="D46" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="B47" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="C47" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="D47" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="H47" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="I47" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="J47" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="B48" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D48" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="E48" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="B49" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="C49" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="D49" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="C50" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D50" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="E50" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="B51" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="C51" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D51" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="B52" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="C52" r:id="rId104" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="D52" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="B53" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="E54" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="B55" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="B56" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="B57" r:id="rId110" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="C57" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D57" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="B58" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="B59" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="B60" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="B61" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="D61" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="B62" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="D62" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="B63" r:id="rId120" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="C63" r:id="rId121" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="D63" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="F63" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="B64" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="C64" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="D64" r:id="rId126" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="E64" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="C65" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="B66" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="B67" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="C67" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="D67" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="E67" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="C68" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="E68" r:id="rId135" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="B69" r:id="rId136" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="C69" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="D69" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="B70" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="C70" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="D70" r:id="rId141" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="B71" r:id="rId142" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="B72" r:id="rId143" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="C72" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="B73" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="E74" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="B75" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="B76" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="B77" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="C77" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="D77" r:id="rId151" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="E77" r:id="rId152" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="B78" r:id="rId153" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="C78" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="D78" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="B79" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="B80" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="C80" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="B81" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="C81" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="D81" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="B82" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="D82" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="E82" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="B83" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="D83" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="E83" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="F83" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="G83" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="I83" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="B84" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="E84" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="B85" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="B86" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="C87" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="E87" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="B88" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="B89" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="B90" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="D90" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="E90" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="C91" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="B92" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="C92" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="D92" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="C93" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="D93" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="B94" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="D94" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="C95" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="B96" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="B97" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="C97" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="D97" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="B98" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="C98" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="D98" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="B99" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="C100" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="C101" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="B102" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="B103" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="D103" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="B104" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="C104" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="E104" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="B105" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="B106" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="D106" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="E106" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="H106" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="J106" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="B107" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="D107" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="E107" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="B108" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="D108" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="B109" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="C109" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="D109" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="F109" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B6" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C6" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D8" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B9" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B10" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D10" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C11" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F11" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B12" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D12" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B13" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B14" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D14" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C15" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B16" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B17" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B18" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B19" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E19" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B20" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C20" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D20" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C21" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="D21" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C22" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="D22" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="E22" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="H22" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B23" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C23" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="D23" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E23" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="H23" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="D24" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B25" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="E25" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B26" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="D26" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C27" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B28" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="E28" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C29" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B30" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C30" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D30" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B31" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C31" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="D31" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="E31" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="F31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="I31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B32" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C32" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C33" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B34" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="C34" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D34" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B35" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="C35" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B36" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="C36" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="E36" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B37" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D37" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="E37" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B38" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D38" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B39" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="C40" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B41" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="C41" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="D41" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B42" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B43" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B44" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B45" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="D45" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B46" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C46" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="D46" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="H46" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="I46" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="J46" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B47" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D47" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="E47" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B48" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C48" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="D48" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="C49" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D49" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="E49" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B50" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C50" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D50" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B51" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="C51" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="D51" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B52" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="E53" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B54" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="B55" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="B56" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="C56" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D56" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="B57" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B58" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="B59" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B60" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="D60" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B61" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="D61" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="B62" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="C62" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="D62" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="F62" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B63" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="C63" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="D63" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="E63" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="C64" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="B65" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="B66" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="C66" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="D66" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="E66" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="I66" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="C67" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="E67" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="B68" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="C68" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="D68" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B69" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="C69" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="D69" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="B70" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B71" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="C71" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B72" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="E73" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B74" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="B75" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="B76" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="C76" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="D76" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="E76" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="B77" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="C77" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="D77" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="B78" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="B79" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="C79" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="B80" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="C80" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="D80" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="B81" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="D81" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="E81" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B82" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="D82" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="E82" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="F82" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="G82" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="I82" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B83" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="E83" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B84" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="B85" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="C86" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="E86" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B87" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="B88" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B89" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="D89" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="E89" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="C90" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B91" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="C91" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="D91" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="C92" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="D92" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="B93" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="D93" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="C94" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B95" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="B96" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="C96" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="D96" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="B97" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="C97" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="D97" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="B98" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="C99" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="C100" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="B101" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B102" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="D102" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B103" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="C103" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="E103" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B104" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B105" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="D105" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="E105" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="H105" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="J105" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B106" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="D106" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="E106" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B107" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="D107" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B108" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="C108" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="D108" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="F108" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="I22" r:id="rId225" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId222"/>
 </worksheet>
 </file>
 
@@ -8426,11 +8249,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8444,1033 +8267,1018 @@
     <col min="8" max="8" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="44"/>
-      <c r="B1" s="83" t="s">
-        <v>337</v>
-      </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
-        <v>338</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>339</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>340</v>
-      </c>
-      <c r="D2" s="46" t="s">
+    <row r="1" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="B1" s="44" t="s">
         <v>342</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="C1" s="45" t="s">
         <v>343</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="D1" s="45" t="s">
         <v>344</v>
       </c>
-      <c r="H2" s="46" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
+      <c r="E1" s="45" t="s">
         <v>345</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="F1" s="45" t="s">
         <v>346</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="G1" s="45" t="s">
         <v>347</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="47" t="s">
+      <c r="H1" s="45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B2" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C2" s="48" t="s">
         <v>350</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" t="s">
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="46" t="s">
         <v>351</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B3" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C3" s="48" t="s">
         <v>353</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="47" t="s">
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="46" t="s">
         <v>354</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B4" s="49" t="s">
         <v>355</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C4" s="48" t="s">
         <v>356</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+    </row>
+    <row r="5" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="46" t="s">
         <v>357</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="50" t="s">
+      <c r="B5" s="49" t="s">
         <v>358</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="C5" s="48" t="s">
         <v>359</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="D5" s="72" t="s">
+        <v>709</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="49" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="47" t="s">
+      <c r="G5" s="47" t="s">
         <v>361</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="H5" s="47" t="s">
         <v>362</v>
       </c>
-      <c r="C7" s="49" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="46" t="s">
         <v>363</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="47" t="s">
+      <c r="B6" s="47" t="s">
         <v>364</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="C6" s="48" t="s">
         <v>365</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="46" t="s">
         <v>366</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="47" t="s">
+      <c r="B7" s="47" t="s">
         <v>367</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="C7" s="48" t="s">
         <v>368</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="46" t="s">
         <v>369</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="47" t="s">
+      <c r="B8" s="47" t="s">
         <v>370</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="C8" s="48" t="s">
         <v>371</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+    </row>
+    <row r="9" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="46" t="s">
         <v>372</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="B9" s="47" t="s">
         <v>373</v>
       </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="47" t="s">
+      <c r="C9" s="48" t="s">
         <v>374</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="D9" s="46" t="s">
         <v>375</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="46" t="s">
         <v>376</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="B10" s="47" t="s">
         <v>377</v>
       </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="47" t="s">
+      <c r="C10" s="48" t="s">
         <v>378</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="D10" s="46" t="s">
         <v>379</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+    </row>
+    <row r="11" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="46" t="s">
         <v>380</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="B11" s="49" t="s">
         <v>381</v>
       </c>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="47" t="s">
+      <c r="C11" s="48" t="s">
         <v>382</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="D11" s="49" t="s">
         <v>383</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+    </row>
+    <row r="12" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="46" t="s">
         <v>384</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="B12" s="49" t="s">
         <v>385</v>
       </c>
-      <c r="E13" s="47"/>
-      <c r="F13" s="50" t="s">
+      <c r="C12" s="48" t="s">
         <v>386</v>
       </c>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="47" t="s">
+      <c r="D12" s="46" t="s">
         <v>387</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="E12" s="46"/>
+      <c r="F12" s="49" t="s">
         <v>388</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+    </row>
+    <row r="13" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="46" t="s">
         <v>389</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="47" t="s">
+      <c r="B13" s="47" t="s">
         <v>390</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="C13" s="48" t="s">
         <v>391</v>
       </c>
-      <c r="C15" s="49" t="s">
-        <v>369</v>
-      </c>
-      <c r="D15" s="50" t="s">
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+    </row>
+    <row r="14" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="46" t="s">
         <v>392</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="B14" s="47" t="s">
         <v>393</v>
       </c>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="48" t="s">
+      <c r="C14" s="48" t="s">
+        <v>371</v>
+      </c>
+      <c r="D14" s="49" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="47" t="s">
+      <c r="E14" s="47" t="s">
         <v>395</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="47" t="s">
         <v>396</v>
       </c>
-      <c r="C16" s="49" t="s">
+    </row>
+    <row r="15" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="46" t="s">
         <v>397</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="47" t="s">
+      <c r="B15" s="47" t="s">
         <v>398</v>
       </c>
-      <c r="B17" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="49" t="s">
+      <c r="C15" s="48" t="s">
         <v>399</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+    </row>
+    <row r="16" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="E17" s="47"/>
-      <c r="F17" s="48" t="s">
+      <c r="B16" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="48" t="s">
         <v>401</v>
       </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="47" t="s">
+      <c r="D16" s="46" t="s">
         <v>402</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="E16" s="46"/>
+      <c r="F16" s="47" t="s">
         <v>403</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+    </row>
+    <row r="17" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="46" t="s">
         <v>404</v>
       </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="47" t="s">
+      <c r="B17" s="47" t="s">
         <v>405</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="C17" s="48" t="s">
         <v>406</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+    </row>
+    <row r="18" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="46" t="s">
         <v>407</v>
       </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="47" t="s">
+      <c r="B18" s="47" t="s">
         <v>408</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="C18" s="48" t="s">
         <v>409</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+    </row>
+    <row r="19" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="46" t="s">
         <v>410</v>
       </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="47" t="s">
+      <c r="B19" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="C19" s="48" t="s">
         <v>412</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+    </row>
+    <row r="20" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="46" t="s">
         <v>413</v>
       </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="47" t="s">
+      <c r="B20" s="49" t="s">
         <v>414</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="C20" s="48" t="s">
         <v>415</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+    </row>
+    <row r="21" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="46" t="s">
         <v>416</v>
       </c>
-      <c r="D22" s="47" t="s">
+      <c r="B21" s="47" t="s">
         <v>417</v>
       </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="47" t="s">
+      <c r="C21" s="48" t="s">
         <v>418</v>
       </c>
+      <c r="D21" s="46" t="s">
+        <v>419</v>
+      </c>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+    </row>
+    <row r="22" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="46" t="s">
+        <v>420</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>421</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>422</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>423</v>
+      </c>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+    </row>
+    <row r="23" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="46" t="s">
+        <v>424</v>
+      </c>
       <c r="B23" s="51" t="s">
-        <v>419</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>420</v>
-      </c>
-      <c r="D23" s="50" t="s">
-        <v>421</v>
-      </c>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="47" t="s">
-        <v>422</v>
-      </c>
-      <c r="B24" s="52" t="s">
-        <v>423</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>424</v>
-      </c>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="47" t="s">
         <v>425</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="C23" s="48" t="s">
         <v>426</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+    </row>
+    <row r="24" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="46" t="s">
         <v>427</v>
       </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="47" t="s">
+      <c r="B24" s="47" t="s">
         <v>428</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="C24" s="48" t="s">
         <v>429</v>
       </c>
-      <c r="C26" s="49" t="s">
-        <v>399</v>
-      </c>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="47" t="s">
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+    </row>
+    <row r="25" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="46" t="s">
         <v>430</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B25" s="47" t="s">
         <v>431</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C25" s="48" t="s">
+        <v>401</v>
+      </c>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+    </row>
+    <row r="26" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="46" t="s">
         <v>432</v>
       </c>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="47" t="s">
+      <c r="B26" s="47" t="s">
         <v>433</v>
       </c>
-      <c r="B28" s="48" t="s">
+      <c r="C26" s="48" t="s">
         <v>434</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+    </row>
+    <row r="27" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="46" t="s">
         <v>435</v>
       </c>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="47" t="s">
+      <c r="B27" s="47" t="s">
         <v>436</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="C27" s="48" t="s">
         <v>437</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+    </row>
+    <row r="28" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="46" t="s">
         <v>438</v>
       </c>
-      <c r="D29" s="47" t="s">
+      <c r="B28" s="47" t="s">
         <v>439</v>
       </c>
-      <c r="E29" s="47"/>
-      <c r="F29" s="48" t="s">
-        <v>401</v>
-      </c>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="47" t="s">
+      <c r="C28" s="48" t="s">
         <v>440</v>
       </c>
-      <c r="B30" s="48" t="s">
+      <c r="D28" s="46" t="s">
         <v>441</v>
       </c>
-      <c r="C30" s="49" t="s">
-        <v>384</v>
-      </c>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="47" t="s">
+      <c r="E28" s="46"/>
+      <c r="F28" s="47" t="s">
+        <v>403</v>
+      </c>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+    </row>
+    <row r="29" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="46" t="s">
         <v>442</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B29" s="47" t="s">
         <v>443</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C29" s="48" t="s">
+        <v>386</v>
+      </c>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+    </row>
+    <row r="30" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="46" t="s">
         <v>444</v>
       </c>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="47" t="s">
+      <c r="B30" s="47" t="s">
         <v>445</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="C30" s="48" t="s">
         <v>446</v>
       </c>
-      <c r="C32" s="49" t="s">
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+    </row>
+    <row r="31" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="46" t="s">
         <v>447</v>
       </c>
-      <c r="D32" s="50" t="s">
+      <c r="B31" s="47" t="s">
         <v>448</v>
       </c>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="47" t="s">
+      <c r="C31" s="48" t="s">
         <v>449</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="D31" s="49" t="s">
         <v>450</v>
       </c>
-      <c r="C33" s="49" t="s">
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+    </row>
+    <row r="32" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="46" t="s">
         <v>451</v>
       </c>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="47" t="s">
+      <c r="B32" s="47" t="s">
         <v>452</v>
       </c>
-      <c r="B34" s="48" t="s">
+      <c r="C32" s="48" t="s">
         <v>453</v>
       </c>
-      <c r="C34" s="49" t="s">
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+    </row>
+    <row r="33" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="46" t="s">
         <v>454</v>
       </c>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="47" t="s">
+      <c r="B33" s="47" t="s">
         <v>455</v>
       </c>
-      <c r="B35" s="48" t="s">
+      <c r="C33" s="48" t="s">
         <v>456</v>
       </c>
-      <c r="C35" s="49" t="s">
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+    </row>
+    <row r="34" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="46" t="s">
         <v>457</v>
       </c>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="47" t="s">
+      <c r="B34" s="47" t="s">
         <v>458</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="C34" s="48" t="s">
         <v>459</v>
       </c>
-      <c r="C36" s="49" t="s">
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+    </row>
+    <row r="35" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="46" t="s">
         <v>460</v>
       </c>
-      <c r="D36" s="47" t="s">
+      <c r="B35" s="47" t="s">
         <v>461</v>
       </c>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="47" t="s">
+      <c r="C35" s="48" t="s">
         <v>462</v>
       </c>
-      <c r="B37" s="48" t="s">
+      <c r="D35" s="46" t="s">
         <v>463</v>
       </c>
-      <c r="C37" s="49" t="s">
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+    </row>
+    <row r="36" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="46" t="s">
         <v>464</v>
       </c>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="47" t="s">
+      <c r="B36" s="47" t="s">
         <v>465</v>
       </c>
-      <c r="B38" s="50" t="s">
+      <c r="C36" s="48" t="s">
         <v>466</v>
       </c>
-      <c r="C38" s="49" t="s">
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+    </row>
+    <row r="37" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="46" t="s">
         <v>467</v>
       </c>
-      <c r="D38" s="47" t="s">
+      <c r="B37" s="49" t="s">
         <v>468</v>
       </c>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="47" t="s">
+      <c r="C37" s="48" t="s">
         <v>469</v>
       </c>
-      <c r="B39" s="48" t="s">
+      <c r="D37" s="46" t="s">
         <v>470</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+    </row>
+    <row r="38" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="46" t="s">
         <v>471</v>
       </c>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="47" t="s">
+      <c r="B38" s="47" t="s">
         <v>472</v>
       </c>
-      <c r="B40" s="48" t="s">
+      <c r="C38" s="48" t="s">
         <v>473</v>
       </c>
-      <c r="C40" s="49" t="s">
-        <v>467</v>
-      </c>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="47" t="s">
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+    </row>
+    <row r="39" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="46" t="s">
         <v>474</v>
       </c>
-      <c r="B41" s="48" t="s">
-        <v>248</v>
-      </c>
-      <c r="C41" s="49" t="s">
-        <v>380</v>
-      </c>
-      <c r="D41" s="47" t="s">
+      <c r="B39" s="47" t="s">
         <v>475</v>
       </c>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="47" t="s">
-        <v>253</v>
-      </c>
-      <c r="B42" s="50" t="s">
-        <v>255</v>
-      </c>
-      <c r="C42" s="49" t="s">
-        <v>410</v>
-      </c>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="47" t="s">
+      <c r="C39" s="48" t="s">
+        <v>469</v>
+      </c>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+    </row>
+    <row r="40" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="46" t="s">
         <v>476</v>
       </c>
-      <c r="B43" s="48" t="s">
+      <c r="B40" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="C40" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="D40" s="46" t="s">
         <v>477</v>
       </c>
-      <c r="C43" s="49" t="s">
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+    </row>
+    <row r="41" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="B41" s="49" t="s">
+        <v>259</v>
+      </c>
+      <c r="C41" s="48" t="s">
+        <v>412</v>
+      </c>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+    </row>
+    <row r="42" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="46" t="s">
         <v>478</v>
       </c>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="47" t="s">
+      <c r="B42" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="B44" s="48" t="s">
+      <c r="C42" s="48" t="s">
         <v>480</v>
       </c>
-      <c r="C44" s="49" t="s">
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+    </row>
+    <row r="43" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="46" t="s">
         <v>481</v>
       </c>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="53"/>
-      <c r="B45" s="53" t="s">
+      <c r="B43" s="47" t="s">
         <v>482</v>
       </c>
-      <c r="C45" s="54"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="47" t="s">
+      <c r="C43" s="48" t="s">
         <v>483</v>
       </c>
-      <c r="B46" s="48" t="s">
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+    </row>
+    <row r="44" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="52"/>
+      <c r="B44" s="52" t="s">
         <v>484</v>
       </c>
-      <c r="C46" s="49"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="47" t="s">
+      <c r="C44" s="53"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+    </row>
+    <row r="45" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="46" t="s">
         <v>485</v>
       </c>
-      <c r="B47" s="48" t="s">
+      <c r="B45" s="47" t="s">
         <v>486</v>
       </c>
-      <c r="C47" s="49"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="47" t="s">
+      <c r="C45" s="48"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+    </row>
+    <row r="46" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="46" t="s">
         <v>487</v>
       </c>
-      <c r="B48" s="48" t="s">
+      <c r="B46" s="47" t="s">
         <v>488</v>
       </c>
-      <c r="C48" s="49" t="s">
-        <v>380</v>
-      </c>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="47" t="s">
+      <c r="C46" s="48"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+    </row>
+    <row r="47" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="46" t="s">
         <v>489</v>
       </c>
-      <c r="B49" s="48" t="s">
+      <c r="B47" s="47" t="s">
         <v>490</v>
       </c>
-      <c r="C49" s="49"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="47"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="47" t="s">
+      <c r="C47" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+    </row>
+    <row r="48" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="46" t="s">
         <v>491</v>
       </c>
-      <c r="B50" s="48" t="s">
+      <c r="B48" s="47" t="s">
         <v>492</v>
       </c>
-      <c r="C50" s="49"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="47"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="47" t="s">
+      <c r="C48" s="48"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+    </row>
+    <row r="49" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="46" t="s">
         <v>493</v>
       </c>
-      <c r="B51" s="48" t="s">
+      <c r="B49" s="47" t="s">
         <v>494</v>
       </c>
-      <c r="C51" s="49"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="47"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="47" t="s">
+      <c r="C49" s="48"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+    </row>
+    <row r="50" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="46" t="s">
         <v>495</v>
       </c>
-      <c r="B52" s="48" t="s">
+      <c r="B50" s="47" t="s">
         <v>496</v>
       </c>
-      <c r="C52" s="49" t="s">
+      <c r="C50" s="48"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+    </row>
+    <row r="51" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="46" t="s">
         <v>497</v>
       </c>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="47" t="s">
+      <c r="B51" s="47" t="s">
         <v>498</v>
       </c>
-      <c r="B53" s="48" t="s">
+      <c r="C51" s="48" t="s">
         <v>499</v>
       </c>
-      <c r="C53" s="49"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="47"/>
-      <c r="H53" s="47"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="47" t="s">
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
+    </row>
+    <row r="52" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="46" t="s">
         <v>500</v>
       </c>
-      <c r="B54" s="48" t="s">
+      <c r="B52" s="47" t="s">
         <v>501</v>
       </c>
-      <c r="C54" s="49"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="47" t="s">
+      <c r="C52" s="48"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
+    </row>
+    <row r="53" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="46" t="s">
         <v>502</v>
       </c>
-      <c r="B55" s="50" t="s">
+      <c r="B53" s="47" t="s">
         <v>503</v>
       </c>
-      <c r="C55" s="49" t="s">
+      <c r="C53" s="48"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
+    </row>
+    <row r="54" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="46" t="s">
         <v>504</v>
       </c>
-      <c r="D55" s="47"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="47"/>
-      <c r="H55" s="47"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="54"/>
-      <c r="B56" s="54" t="s">
+      <c r="B54" s="49" t="s">
         <v>505</v>
       </c>
-      <c r="C56" s="54"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="47" t="s">
+      <c r="C54" s="48" t="s">
         <v>506</v>
       </c>
-      <c r="B57" s="48" t="s">
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+    </row>
+    <row r="55" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="53"/>
+      <c r="B55" s="53" t="s">
         <v>507</v>
       </c>
-      <c r="C57" s="49"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="47"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="47" t="s">
+      <c r="C55" s="53"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
+    </row>
+    <row r="56" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="46" t="s">
         <v>508</v>
       </c>
-      <c r="B58" s="48" t="s">
+      <c r="B56" s="47" t="s">
         <v>509</v>
       </c>
-      <c r="C58" s="49"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="47"/>
-      <c r="H58" s="47"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C59" s="55"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+    </row>
+    <row r="57" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="46" t="s">
+        <v>510</v>
+      </c>
+      <c r="B57" s="47" t="s">
+        <v>511</v>
+      </c>
+      <c r="C57" s="48"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+    </row>
+    <row r="58" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C58" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:H1"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="F6" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="G6" r:id="rId7" location="CjQKIObolfr3kjhoqpaahhROvCk0XzgpqdEh6-hojizTnIN_EhA4IMJR3TVtNd9qIb1lYPin" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="H6" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="B7" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="B8" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="B9" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="B10" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="B11" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="B12" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="D12" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="B13" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="F13" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="B14" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="B15" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="D15" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="E15" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="H15" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="B16" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="B17" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="F17" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="B18" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="B19" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="B20" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="B21" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="B22" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="B23" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="D23" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="B24" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="B25" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="B26" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="B27" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="B28" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="B29" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="F29" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="B30" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="B31" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="B32" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="D32" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="B33" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="B34" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="B35" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="B36" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="B37" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="B38" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="B39" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="B40" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="B41" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="B42" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="B43" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="B44" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="B46" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="B47" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="B48" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="B49" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="B50" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="B51" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
-    <hyperlink ref="B52" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
-    <hyperlink ref="B53" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
-    <hyperlink ref="B54" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
-    <hyperlink ref="B55" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
-    <hyperlink ref="B57" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
-    <hyperlink ref="B58" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="F5" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="G5" r:id="rId7" location="CjQKIObolfr3kjhoqpaahhROvCk0XzgpqdEh6-hojizTnIN_EhA4IMJR3TVtNd9qIb1lYPin" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="H5" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="B6" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="B7" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="B8" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="B9" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="B10" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="B11" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="D11" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="B12" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="F12" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="B13" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="B14" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="D14" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="E14" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="H14" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="B15" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="B16" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="F16" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="B17" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="B18" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="B19" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="B20" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="B21" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="B22" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="D22" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="B23" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="B24" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="B25" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="B26" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="B27" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="B28" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="F28" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="B29" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="B30" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="B31" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="D31" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="B32" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="B33" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="B34" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="B35" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="B36" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="B37" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="B38" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="B39" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="B40" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="B41" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="B42" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="B43" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="B45" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="B46" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="B47" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="B48" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="B49" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="B50" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="B51" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="B52" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="B53" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="B54" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="B56" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="B57" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9481,418 +9289,512 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" customWidth="1"/>
-    <col min="3" max="3" width="48.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="81" t="s">
-        <v>337</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="55" t="s">
+        <v>512</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>514</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="56" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>511</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="57" t="s">
-        <v>513</v>
-      </c>
-      <c r="B3" s="57" t="s">
-        <v>514</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="57" t="s">
         <v>516</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="C2" s="57" t="s">
         <v>517</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="D2" s="56" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="56" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="57" t="s">
+      <c r="B3" s="56" t="s">
         <v>519</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="C3" s="57" t="s">
         <v>520</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="D3" s="56" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="56" t="s">
+        <v>599</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>600</v>
+      </c>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="56" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="57" t="s">
+      <c r="B5" s="56" t="s">
         <v>522</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="C5" s="57" t="s">
         <v>523</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="D5" s="56" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="56" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="57" t="s">
+      <c r="B6" s="56" t="s">
         <v>525</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="C6" s="57" t="s">
         <v>526</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="D6" s="56" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="56" t="s">
+        <v>596</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>597</v>
+      </c>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="56" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="57" t="s">
+      <c r="B8" s="56" t="s">
         <v>528</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="C8" s="57" t="s">
         <v>529</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="D8" s="56" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="56" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="57" t="s">
+      <c r="B9" s="56" t="s">
         <v>531</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="C9" s="57" t="s">
         <v>532</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="D9" s="56" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="56" t="s">
+        <v>601</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>602</v>
+      </c>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="56" t="s">
+        <v>592</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>593</v>
+      </c>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="56" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="57" t="s">
+      <c r="B12" s="56" t="s">
         <v>534</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="C12" s="57" t="s">
         <v>535</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="D12" s="56" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="56" t="s">
+        <v>533</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>534</v>
+      </c>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="56" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="57" t="s">
+      <c r="B14" s="56" t="s">
         <v>537</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="C14" s="57" t="s">
         <v>538</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="D14" s="56" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="56" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="57" t="s">
+      <c r="B15" s="56" t="s">
         <v>540</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="C15" s="57" t="s">
         <v>541</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="D15" s="56" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="56" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="57" t="s">
+      <c r="B16" s="56" t="s">
         <v>543</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="C16" s="57" t="s">
         <v>544</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="D16" s="56" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="56" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="57" t="s">
+      <c r="B17" s="56" t="s">
         <v>546</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="C17" s="57" t="s">
         <v>547</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="D17" s="56" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="56" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="57" t="s">
+      <c r="B18" s="56" t="s">
         <v>549</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="C18" s="57" t="s">
         <v>550</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="D18" s="56" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="56" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="57" t="s">
+      <c r="B19" s="56" t="s">
         <v>552</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="C19" s="57" t="s">
         <v>553</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="D19" s="56" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="56" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="57" t="s">
+      <c r="B20" s="56" t="s">
         <v>555</v>
       </c>
-      <c r="B17" s="57" t="s">
+      <c r="C20" s="57" t="s">
         <v>556</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="D20" s="56" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="56" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="57" t="s">
+      <c r="B21" s="56" t="s">
         <v>558</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="C21" s="57" t="s">
         <v>559</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="D21" s="56" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="56" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="57" t="s">
+      <c r="B22" s="56" t="s">
         <v>561</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="C22" s="57" t="s">
         <v>562</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="D22" s="56" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>591</v>
+      </c>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="56" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="57" t="s">
+      <c r="B24" s="56" t="s">
         <v>564</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="C24" s="57" t="s">
         <v>565</v>
       </c>
-      <c r="C20" s="58" t="s">
+      <c r="D24" s="56" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="56" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="57" t="s">
+      <c r="B25" s="56" t="s">
         <v>567</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="C25" s="57" t="s">
         <v>568</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="D25" s="56" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="56" t="s">
+        <v>594</v>
+      </c>
+      <c r="B26" s="56" t="s">
+        <v>595</v>
+      </c>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="56" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="57" t="s">
+      <c r="B27" s="56" t="s">
         <v>570</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="C27" s="57" t="s">
         <v>571</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="D27" s="56" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="56" t="s">
+        <v>569</v>
+      </c>
+      <c r="B28" s="56" t="s">
+        <v>570</v>
+      </c>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="56" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="57" t="s">
+      <c r="B29" s="56" t="s">
         <v>573</v>
       </c>
-      <c r="B23" s="57" t="s">
+      <c r="C29" s="57" t="s">
         <v>574</v>
       </c>
-      <c r="C23" s="58"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="57" t="s">
+      <c r="D29" s="56" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="56" t="s">
         <v>575</v>
       </c>
-      <c r="B24" s="57" t="s">
+      <c r="B30" s="56" t="s">
         <v>576</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="C30" s="57"/>
+      <c r="D30" s="56" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="56" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="57" t="s">
+      <c r="B31" s="56" t="s">
         <v>578</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="C31" s="57" t="s">
         <v>579</v>
       </c>
-      <c r="C25" s="58" t="s">
+      <c r="D31" s="56" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="56" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="57" t="s">
+      <c r="B32" s="56" t="s">
         <v>581</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="C32" s="57" t="s">
         <v>582</v>
       </c>
-      <c r="C26" s="58" t="s">
+      <c r="D32" s="56" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="56" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="57" t="s">
+      <c r="B33" s="56" t="s">
         <v>584</v>
       </c>
-      <c r="B27" s="57" t="s">
+      <c r="C33" s="57" t="s">
         <v>585</v>
       </c>
-      <c r="C27" s="58" t="s">
+      <c r="D33" s="56" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="56" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="57" t="s">
+      <c r="B34" s="56" t="s">
         <v>587</v>
       </c>
-      <c r="B28" s="57" t="s">
-        <v>585</v>
-      </c>
-      <c r="C28" s="58" t="s">
+      <c r="C34" s="57" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="59" t="s">
+      <c r="D34" s="56" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="56" t="s">
         <v>589</v>
       </c>
-      <c r="B32" s="59" t="s">
-        <v>511</v>
-      </c>
-      <c r="C32" s="60"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="61" t="s">
-        <v>531</v>
-      </c>
-      <c r="B33" s="61" t="s">
-        <v>532</v>
-      </c>
-      <c r="C33" s="60"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="62" t="s">
-        <v>182</v>
-      </c>
-      <c r="B34" s="62" t="s">
+      <c r="B35" s="56" t="s">
+        <v>587</v>
+      </c>
+      <c r="C35" s="57" t="s">
         <v>590</v>
       </c>
-      <c r="C34" s="60"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="62" t="s">
-        <v>591</v>
-      </c>
-      <c r="B35" s="62" t="s">
-        <v>592</v>
-      </c>
-      <c r="C35" s="60"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="62" t="s">
-        <v>593</v>
-      </c>
-      <c r="B36" s="62" t="s">
-        <v>594</v>
-      </c>
-      <c r="C36" s="60"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="62" t="s">
-        <v>595</v>
-      </c>
-      <c r="B37" s="63" t="s">
-        <v>596</v>
-      </c>
-      <c r="C37" s="64"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="62" t="s">
-        <v>597</v>
-      </c>
-      <c r="B38" s="62" t="s">
-        <v>328</v>
-      </c>
-      <c r="C38" s="60"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="62" t="s">
+      <c r="D35" s="56" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="56" t="s">
         <v>598</v>
       </c>
-      <c r="B39" s="62" t="s">
-        <v>599</v>
-      </c>
-      <c r="C39" s="65"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="66" t="s">
-        <v>600</v>
-      </c>
-      <c r="B40" s="66" t="s">
-        <v>601</v>
-      </c>
-      <c r="C40" s="65"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="66" t="s">
-        <v>567</v>
-      </c>
-      <c r="B41" s="57" t="s">
-        <v>568</v>
+      <c r="B36" s="56" t="s">
+        <v>332</v>
+      </c>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56" t="s">
+        <v>707</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="A3:C24 A32:B41 C32:C37">
-    <cfRule type="colorScale" priority="1">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D36">
+    <sortCondition ref="A2:A36"/>
+  </sortState>
+  <conditionalFormatting sqref="A2:C23">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9902,68 +9804,69 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
     <hyperlink ref="B5" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
     <hyperlink ref="C5" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
     <hyperlink ref="B6" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
     <hyperlink ref="C6" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="B7" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="C7" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="B8" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="C8" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="B9" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="C9" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="B10" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="C10" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="B11" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="C11" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="B12" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="C12" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="B13" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink ref="C13" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink ref="B14" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink ref="C14" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink ref="B15" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
-    <hyperlink ref="C15" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
-    <hyperlink ref="B16" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
-    <hyperlink ref="C16" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
-    <hyperlink ref="B17" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
-    <hyperlink ref="C17" r:id="rId30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
-    <hyperlink ref="B18" r:id="rId31" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
-    <hyperlink ref="C18" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
-    <hyperlink ref="B19" r:id="rId33" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
-    <hyperlink ref="C19" r:id="rId34" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
-    <hyperlink ref="B20" r:id="rId35" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
-    <hyperlink ref="C20" r:id="rId36" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
-    <hyperlink ref="B21" r:id="rId37" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
-    <hyperlink ref="C21" r:id="rId38" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
-    <hyperlink ref="B22" r:id="rId39" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
-    <hyperlink ref="C22" r:id="rId40" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
-    <hyperlink ref="B23" r:id="rId41" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
-    <hyperlink ref="B24" r:id="rId42" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
-    <hyperlink ref="C24" r:id="rId43" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
-    <hyperlink ref="B25" r:id="rId44" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
-    <hyperlink ref="C25" r:id="rId45" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
-    <hyperlink ref="B26" r:id="rId46" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
-    <hyperlink ref="C26" r:id="rId47" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
-    <hyperlink ref="B27" r:id="rId48" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
-    <hyperlink ref="C27" r:id="rId49" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
-    <hyperlink ref="B28" r:id="rId50" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
-    <hyperlink ref="C28" r:id="rId51" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
-    <hyperlink ref="B33" r:id="rId52" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
-    <hyperlink ref="B34" r:id="rId53" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
-    <hyperlink ref="B35" r:id="rId54" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
-    <hyperlink ref="B36" r:id="rId55" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
-    <hyperlink ref="B37" r:id="rId56" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
-    <hyperlink ref="B38" r:id="rId57" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
-    <hyperlink ref="B39" r:id="rId58" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
-    <hyperlink ref="B40" r:id="rId59" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
-    <hyperlink ref="B41" r:id="rId60" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
+    <hyperlink ref="B8" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="C8" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="B9" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="C9" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="B12" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="C12" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="B14" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="C14" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="B15" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="C15" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="B16" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="C16" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="B17" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="C17" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="B18" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="C18" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="B19" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="C19" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="B20" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="C20" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="B21" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink ref="C21" r:id="rId30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink ref="B22" r:id="rId31" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
+    <hyperlink ref="C22" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
+    <hyperlink ref="B24" r:id="rId33" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
+    <hyperlink ref="C24" r:id="rId34" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
+    <hyperlink ref="B25" r:id="rId35" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
+    <hyperlink ref="C25" r:id="rId36" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
+    <hyperlink ref="B27" r:id="rId37" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
+    <hyperlink ref="C27" r:id="rId38" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
+    <hyperlink ref="B29" r:id="rId39" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
+    <hyperlink ref="C29" r:id="rId40" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
+    <hyperlink ref="B30" r:id="rId41" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
+    <hyperlink ref="B31" r:id="rId42" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
+    <hyperlink ref="C31" r:id="rId43" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
+    <hyperlink ref="B32" r:id="rId44" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
+    <hyperlink ref="C32" r:id="rId45" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
+    <hyperlink ref="B33" r:id="rId46" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
+    <hyperlink ref="C33" r:id="rId47" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
+    <hyperlink ref="B34" r:id="rId48" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
+    <hyperlink ref="C34" r:id="rId49" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
+    <hyperlink ref="B35" r:id="rId50" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
+    <hyperlink ref="C35" r:id="rId51" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
+    <hyperlink ref="B13" r:id="rId52" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
+    <hyperlink ref="B23" r:id="rId53" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
+    <hyperlink ref="B11" r:id="rId54" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
+    <hyperlink ref="B26" r:id="rId55" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
+    <hyperlink ref="B7" r:id="rId56" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
+    <hyperlink ref="B36" r:id="rId57" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
+    <hyperlink ref="B4" r:id="rId58" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
+    <hyperlink ref="B10" r:id="rId59" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
+    <hyperlink ref="B28" r:id="rId60" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId61"/>
 </worksheet>
 </file>
 
@@ -9972,11 +9875,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9987,317 +9890,279 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="81" t="s">
-        <v>337</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="67"/>
+      <c r="A1" s="59" t="s">
+        <v>603</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>343</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>604</v>
+      </c>
+      <c r="D1" s="58"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="84" t="s">
-        <v>602</v>
-      </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="67"/>
+      <c r="A2" s="60" t="s">
+        <v>605</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>406</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>606</v>
+      </c>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
-        <v>603</v>
-      </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="67"/>
+      <c r="A3" s="62" t="s">
+        <v>607</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>608</v>
+      </c>
+      <c r="D3" s="58"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="88" t="s">
-        <v>604</v>
-      </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="67"/>
+      <c r="A4" s="60" t="s">
+        <v>609</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>610</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>611</v>
+      </c>
+      <c r="D4" s="58"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="68" t="s">
-        <v>605</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>340</v>
-      </c>
-      <c r="C5" s="68" t="s">
-        <v>606</v>
-      </c>
-      <c r="D5" s="67"/>
+      <c r="A5" s="60" t="s">
+        <v>612</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>469</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>613</v>
+      </c>
+      <c r="D5" s="58"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="69" t="s">
-        <v>607</v>
-      </c>
-      <c r="B6" s="69" t="s">
-        <v>404</v>
-      </c>
-      <c r="C6" s="70" t="s">
-        <v>608</v>
-      </c>
-      <c r="D6" s="67"/>
+      <c r="A6" s="65" t="s">
+        <v>614</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>615</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>616</v>
+      </c>
+      <c r="D6" s="58"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="71" t="s">
-        <v>609</v>
-      </c>
-      <c r="B7" s="72" t="s">
-        <v>399</v>
-      </c>
-      <c r="C7" s="73" t="s">
-        <v>610</v>
-      </c>
-      <c r="D7" s="67"/>
+      <c r="A7" s="65" t="s">
+        <v>617</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>401</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>618</v>
+      </c>
+      <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="69" t="s">
-        <v>611</v>
-      </c>
-      <c r="B8" s="69" t="s">
-        <v>612</v>
-      </c>
-      <c r="C8" s="70" t="s">
-        <v>613</v>
-      </c>
-      <c r="D8" s="67"/>
+      <c r="A8" s="65" t="s">
+        <v>619</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>401</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>620</v>
+      </c>
+      <c r="D8" s="58"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="69" t="s">
-        <v>614</v>
-      </c>
-      <c r="B9" s="69" t="s">
-        <v>467</v>
-      </c>
-      <c r="C9" s="70" t="s">
-        <v>615</v>
-      </c>
-      <c r="D9" s="67"/>
+      <c r="A9" s="60" t="s">
+        <v>542</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>446</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>621</v>
+      </c>
+      <c r="D9" s="58"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="74" t="s">
-        <v>616</v>
-      </c>
-      <c r="B10" s="74" t="s">
-        <v>617</v>
-      </c>
-      <c r="C10" s="73" t="s">
-        <v>618</v>
-      </c>
-      <c r="D10" s="67"/>
+      <c r="A10" s="60" t="s">
+        <v>548</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>401</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="74" t="s">
-        <v>619</v>
-      </c>
-      <c r="B11" s="74" t="s">
-        <v>399</v>
-      </c>
-      <c r="C11" s="73" t="s">
-        <v>620</v>
-      </c>
-      <c r="D11" s="67"/>
+      <c r="A11" s="65" t="s">
+        <v>557</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="74" t="s">
-        <v>621</v>
-      </c>
-      <c r="B12" s="74" t="s">
-        <v>399</v>
-      </c>
-      <c r="C12" s="73" t="s">
-        <v>622</v>
-      </c>
-      <c r="D12" s="67"/>
+      <c r="A12" s="60" t="s">
+        <v>624</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>625</v>
+      </c>
+      <c r="C12" s="61" t="s">
+        <v>626</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="69" t="s">
-        <v>540</v>
-      </c>
-      <c r="B13" s="69" t="s">
-        <v>444</v>
-      </c>
-      <c r="C13" s="70" t="s">
-        <v>623</v>
-      </c>
-      <c r="D13" s="67"/>
+      <c r="A13" s="60" t="s">
+        <v>627</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>628</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="69" t="s">
-        <v>546</v>
-      </c>
-      <c r="B14" s="69" t="s">
-        <v>399</v>
-      </c>
-      <c r="C14" s="70" t="s">
-        <v>624</v>
+      <c r="A14" s="65" t="s">
+        <v>630</v>
+      </c>
+      <c r="B14" s="65" t="s">
+        <v>401</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="74" t="s">
-        <v>555</v>
-      </c>
-      <c r="B15" s="72" t="s">
-        <v>399</v>
-      </c>
-      <c r="C15" s="73" t="s">
-        <v>625</v>
+      <c r="A15" s="60" t="s">
+        <v>632</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>633</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="69" t="s">
-        <v>626</v>
-      </c>
-      <c r="B16" s="69" t="s">
-        <v>627</v>
-      </c>
-      <c r="C16" s="70" t="s">
-        <v>628</v>
+      <c r="A16" s="60" t="s">
+        <v>635</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>401</v>
+      </c>
+      <c r="C16" s="61" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="69" t="s">
-        <v>629</v>
-      </c>
-      <c r="B17" s="69" t="s">
-        <v>630</v>
-      </c>
-      <c r="C17" s="70" t="s">
-        <v>631</v>
+      <c r="A17" s="65" t="s">
+        <v>635</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>401</v>
+      </c>
+      <c r="C17" s="64" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="74" t="s">
-        <v>632</v>
-      </c>
-      <c r="B18" s="74" t="s">
-        <v>399</v>
-      </c>
-      <c r="C18" s="73" t="s">
-        <v>633</v>
+      <c r="A18" s="60" t="s">
+        <v>638</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="C18" s="61" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="69" t="s">
-        <v>634</v>
-      </c>
-      <c r="B19" s="69" t="s">
-        <v>635</v>
-      </c>
-      <c r="C19" s="70" t="s">
-        <v>636</v>
+      <c r="A19" s="62" t="s">
+        <v>640</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>440</v>
+      </c>
+      <c r="C19" s="66" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="69" t="s">
-        <v>637</v>
-      </c>
-      <c r="B20" s="69" t="s">
-        <v>399</v>
-      </c>
-      <c r="C20" s="70" t="s">
-        <v>638</v>
+      <c r="A20" s="62" t="s">
+        <v>586</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>642</v>
+      </c>
+      <c r="C20" s="66" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="74" t="s">
-        <v>637</v>
-      </c>
-      <c r="B21" s="74" t="s">
-        <v>399</v>
-      </c>
-      <c r="C21" s="73" t="s">
-        <v>639</v>
+      <c r="A21" s="62" t="s">
+        <v>589</v>
+      </c>
+      <c r="B21" s="62" t="s">
+        <v>401</v>
+      </c>
+      <c r="C21" s="66" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="69" t="s">
-        <v>640</v>
-      </c>
-      <c r="B22" s="69" t="s">
-        <v>380</v>
-      </c>
-      <c r="C22" s="70" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="71" t="s">
-        <v>642</v>
-      </c>
-      <c r="B23" s="72" t="s">
-        <v>438</v>
-      </c>
-      <c r="C23" s="75" t="s">
+      <c r="A22" s="65" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="71" t="s">
-        <v>584</v>
-      </c>
-      <c r="B24" s="71" t="s">
+      <c r="B22" s="65" t="s">
+        <v>401</v>
+      </c>
+      <c r="C22" s="64" t="s">
         <v>644</v>
       </c>
-      <c r="C24" s="75" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="71" t="s">
-        <v>587</v>
-      </c>
-      <c r="B25" s="71" t="s">
-        <v>399</v>
-      </c>
-      <c r="C25" s="75" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="74" t="s">
-        <v>645</v>
-      </c>
-      <c r="B26" s="74" t="s">
-        <v>399</v>
-      </c>
-      <c r="C26" s="73" t="s">
-        <v>646</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="C7" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="C8" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="C9" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="C10" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="C11" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="C12" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="C13" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
-    <hyperlink ref="C14" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
-    <hyperlink ref="C15" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
-    <hyperlink ref="C16" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
-    <hyperlink ref="C17" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
-    <hyperlink ref="C18" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
-    <hyperlink ref="C19" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
-    <hyperlink ref="C20" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
-    <hyperlink ref="C21" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
-    <hyperlink ref="C22" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
-    <hyperlink ref="C23" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
-    <hyperlink ref="C24" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
-    <hyperlink ref="C25" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
-    <hyperlink ref="C26" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
+    <hyperlink ref="C22" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10308,285 +10173,269 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" customWidth="1"/>
-    <col min="4" max="4" width="41.5703125" customWidth="1"/>
-    <col min="5" max="5" width="33" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="78" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
-        <v>337</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>648</v>
       </c>
-      <c r="E2" s="5" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="67" t="s">
         <v>649</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="B2" s="68" t="s">
         <v>650</v>
       </c>
+      <c r="C2" s="69" t="s">
+        <v>651</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>652</v>
+      </c>
+      <c r="E2" s="67" t="s">
+        <v>653</v>
+      </c>
+      <c r="F2" s="68" t="s">
+        <v>654</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="76" t="s">
-        <v>651</v>
-      </c>
-      <c r="B3" s="77" t="s">
-        <v>652</v>
-      </c>
-      <c r="C3" s="78" t="s">
-        <v>653</v>
-      </c>
-      <c r="D3" s="76" t="s">
+      <c r="A3" s="67" t="s">
+        <v>655</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="68"/>
+    </row>
+    <row r="4" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="67" t="s">
+        <v>656</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>657</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>658</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>659</v>
+      </c>
+      <c r="E4" s="67" t="s">
+        <v>660</v>
+      </c>
+      <c r="F4" s="68" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="67" t="s">
+        <v>662</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>663</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>664</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>665</v>
+      </c>
+      <c r="E5" s="67" t="s">
+        <v>666</v>
+      </c>
+      <c r="F5" s="68" t="s">
         <v>654</v>
       </c>
-      <c r="E3" s="76" t="s">
-        <v>655</v>
-      </c>
-      <c r="F3" s="77" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="76" t="s">
-        <v>657</v>
-      </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="77"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="76" t="s">
-        <v>658</v>
-      </c>
-      <c r="B5" s="77" t="s">
-        <v>659</v>
-      </c>
-      <c r="C5" s="79" t="s">
-        <v>660</v>
-      </c>
-      <c r="D5" s="76" t="s">
-        <v>661</v>
-      </c>
-      <c r="E5" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="F5" s="77" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="76" t="s">
-        <v>664</v>
-      </c>
-      <c r="B6" s="77" t="s">
-        <v>665</v>
-      </c>
-      <c r="C6" s="80" t="s">
-        <v>666</v>
-      </c>
-      <c r="D6" s="76" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="67" t="s">
         <v>667</v>
       </c>
-      <c r="E6" s="76" t="s">
+      <c r="B6" s="68" t="s">
         <v>668</v>
       </c>
-      <c r="F6" s="77" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="76" t="s">
+      <c r="C6" s="70" t="s">
         <v>669</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="D6" s="67" t="s">
         <v>670</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="E6" s="67" t="s">
         <v>671</v>
       </c>
-      <c r="D7" s="76" t="s">
+      <c r="F6" s="68" t="s">
         <v>672</v>
       </c>
-      <c r="E7" s="76" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="67" t="s">
         <v>673</v>
       </c>
-      <c r="F7" s="77" t="s">
+      <c r="B7" s="68" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="76" t="s">
+      <c r="C7" s="70" t="s">
         <v>675</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="D7" s="67" t="s">
         <v>676</v>
       </c>
-      <c r="C8" s="79" t="s">
+      <c r="E7" s="67" t="s">
         <v>677</v>
       </c>
-      <c r="D8" s="76" t="s">
+      <c r="F7" s="68" t="s">
         <v>678</v>
       </c>
-      <c r="E8" s="76" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="67" t="s">
         <v>679</v>
       </c>
-      <c r="F8" s="77" t="s">
+      <c r="B8" s="68" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="76" t="s">
+      <c r="C8" s="70" t="s">
         <v>681</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="D8" s="67" t="s">
         <v>682</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="E8" s="67" t="s">
         <v>683</v>
       </c>
-      <c r="D9" s="76" t="s">
+      <c r="F8" s="68" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A9" s="67" t="s">
         <v>684</v>
       </c>
-      <c r="E9" s="76" t="s">
+      <c r="B9" s="68" t="s">
         <v>685</v>
       </c>
-      <c r="F9" s="77" t="s">
-        <v>656</v>
+      <c r="C9" s="70" t="s">
+        <v>686</v>
+      </c>
+      <c r="D9" s="67" t="s">
+        <v>687</v>
+      </c>
+      <c r="E9" s="67" t="s">
+        <v>688</v>
+      </c>
+      <c r="F9" s="68" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="76" t="s">
-        <v>686</v>
-      </c>
-      <c r="B10" s="77" t="s">
-        <v>687</v>
-      </c>
-      <c r="C10" s="79" t="s">
-        <v>688</v>
-      </c>
-      <c r="D10" s="76" t="s">
-        <v>689</v>
-      </c>
-      <c r="E10" s="76" t="s">
+      <c r="A10" s="67" t="s">
         <v>690</v>
       </c>
-      <c r="F10" s="77" t="s">
+      <c r="B10" s="68" t="s">
         <v>691</v>
       </c>
+      <c r="C10" s="70" t="s">
+        <v>692</v>
+      </c>
+      <c r="D10" s="67" t="s">
+        <v>693</v>
+      </c>
+      <c r="E10" s="67" t="s">
+        <v>694</v>
+      </c>
+      <c r="F10" s="68" t="s">
+        <v>654</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="76" t="s">
-        <v>692</v>
-      </c>
-      <c r="B11" s="77" t="s">
-        <v>693</v>
-      </c>
-      <c r="C11" s="79" t="s">
-        <v>694</v>
-      </c>
-      <c r="D11" s="76" t="s">
+      <c r="A11" s="67" t="s">
         <v>695</v>
       </c>
-      <c r="E11" s="76" t="s">
+      <c r="B11" s="68"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="68"/>
+    </row>
+    <row r="12" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="67" t="s">
         <v>696</v>
       </c>
-      <c r="F11" s="77" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="76" t="s">
+      <c r="B12" s="68" t="s">
         <v>697</v>
       </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="77"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="76" t="s">
+      <c r="C12" s="70" t="s">
         <v>698</v>
       </c>
-      <c r="B13" s="77" t="s">
+      <c r="D12" s="67" t="s">
         <v>699</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="E12" s="67" t="s">
         <v>700</v>
       </c>
-      <c r="D13" s="76" t="s">
+      <c r="F12" s="68" t="s">
         <v>701</v>
       </c>
-      <c r="E13" s="76" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A13" s="67" t="s">
         <v>702</v>
       </c>
-      <c r="F13" s="77" t="s">
+      <c r="B13" s="68" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="76" t="s">
+      <c r="C13" s="70" t="s">
+        <v>320</v>
+      </c>
+      <c r="D13" s="67" t="s">
         <v>704</v>
       </c>
-      <c r="B14" s="77" t="s">
+      <c r="E13" s="67" t="s">
         <v>705</v>
       </c>
-      <c r="C14" s="79" t="s">
-        <v>316</v>
-      </c>
-      <c r="D14" s="76" t="s">
-        <v>706</v>
-      </c>
-      <c r="E14" s="76" t="s">
-        <v>707</v>
-      </c>
-      <c r="F14" s="77" t="s">
-        <v>656</v>
+      <c r="F13" s="68" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="C8" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
-    <hyperlink ref="C10" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
-    <hyperlink ref="C11" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
-    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
-    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="C12" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="C13" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
